--- a/EHR Project Management.xlsx
+++ b/EHR Project Management.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELZAHBIA\Desktop\Healthcare\EHR Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423B1041-BCC3-443D-880F-BE81A4310C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24339AA8-F56C-4045-A60C-60AB912EB92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="15" xr2:uid="{02246CB4-0FB7-4852-9EAA-A27DC39A6FCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{02246CB4-0FB7-4852-9EAA-A27DC39A6FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="3" state="hidden" r:id="rId1"/>
@@ -41,22 +41,22 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="185" r:id="rId17"/>
-    <pivotCache cacheId="189" r:id="rId18"/>
-    <pivotCache cacheId="192" r:id="rId19"/>
-    <pivotCache cacheId="195" r:id="rId20"/>
-    <pivotCache cacheId="198" r:id="rId21"/>
-    <pivotCache cacheId="204" r:id="rId22"/>
-    <pivotCache cacheId="207" r:id="rId23"/>
-    <pivotCache cacheId="210" r:id="rId24"/>
-    <pivotCache cacheId="213" r:id="rId25"/>
-    <pivotCache cacheId="216" r:id="rId26"/>
-    <pivotCache cacheId="225" r:id="rId27"/>
+    <pivotCache cacheId="0" r:id="rId17"/>
+    <pivotCache cacheId="1" r:id="rId18"/>
+    <pivotCache cacheId="2" r:id="rId19"/>
+    <pivotCache cacheId="3" r:id="rId20"/>
+    <pivotCache cacheId="4" r:id="rId21"/>
+    <pivotCache cacheId="5" r:id="rId22"/>
+    <pivotCache cacheId="6" r:id="rId23"/>
+    <pivotCache cacheId="7" r:id="rId24"/>
+    <pivotCache cacheId="8" r:id="rId25"/>
+    <pivotCache cacheId="9" r:id="rId26"/>
+    <pivotCache cacheId="10" r:id="rId27"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="188" r:id="rId28"/>
+        <pivotCache cacheId="11" r:id="rId28"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1374,7 +1374,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1474,6 +1474,14 @@
       <b/>
       <sz val="28"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1578,16 +1586,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1596,6 +1594,16 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1604,12 +1612,22 @@
   </cellStyles>
   <dxfs count="190">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <sz val="14"/>
-        <color theme="2" tint="-0.499984740745262"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <fill>
@@ -1680,24 +1698,6 @@
           <bgColor theme="3" tint="0.89999084444715716"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <fill>
@@ -2258,10 +2258,18 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <sz val="14"/>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style 1" pivot="0" table="0" count="2" xr9:uid="{203F1B9E-DA49-4D24-8A5B-321D79718E63}">
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="189"/>
     </tableStyle>
     <tableStyle name="Slicer Style 2" pivot="0" table="0" count="1" xr9:uid="{E466F746-67C1-42AC-91D5-0EFB5DA56E7E}"/>
   </tableStyles>
@@ -2282,6 +2290,13 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{46F421CA-312F-682f-3DD2-61675219B42D}">
       <x14:dxfs count="2">
         <dxf>
+          <fill>
+            <patternFill>
+              <bgColor theme="4" tint="0.59996337778862885"/>
+            </patternFill>
+          </fill>
+        </dxf>
+        <dxf>
           <font>
             <sz val="11"/>
             <name val="Aptos Display"/>
@@ -2294,25 +2309,18 @@
             </patternFill>
           </fill>
         </dxf>
-        <dxf>
-          <fill>
-            <patternFill>
-              <bgColor theme="4" tint="0.59996337778862885"/>
-            </patternFill>
-          </fill>
-        </dxf>
       </x14:dxfs>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1">
         <x14:slicerStyle name="Slicer Style 1">
           <x14:slicerStyleElements>
-            <x14:slicerStyleElement type="selectedItemWithData" dxfId="0"/>
+            <x14:slicerStyleElement type="selectedItemWithData" dxfId="1"/>
           </x14:slicerStyleElements>
         </x14:slicerStyle>
         <x14:slicerStyle name="Slicer Style 2">
           <x14:slicerStyleElements>
-            <x14:slicerStyleElement type="selectedItemWithData" dxfId="1"/>
+            <x14:slicerStyleElement type="selectedItemWithData" dxfId="0"/>
           </x14:slicerStyleElements>
         </x14:slicerStyle>
       </x14:slicerStyles>
@@ -7427,7 +7435,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -7484,7 +7491,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -7541,7 +7547,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -7834,7 +7839,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -15303,15 +15307,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>173183</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>72159</xdr:rowOff>
+      <xdr:colOff>72161</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1977159</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>43295</xdr:rowOff>
+      <xdr:colOff>1558637</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>144318</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15341,15 +15345,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2092613</xdr:colOff>
+      <xdr:colOff>1630796</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>144318</xdr:rowOff>
+      <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>259772</xdr:colOff>
+      <xdr:colOff>86591</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>86590</xdr:rowOff>
+      <xdr:rowOff>86591</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15379,15 +15383,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>577273</xdr:colOff>
+      <xdr:colOff>208107</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>28863</xdr:rowOff>
+      <xdr:rowOff>43295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>851478</xdr:colOff>
+      <xdr:colOff>606137</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>86590</xdr:rowOff>
+      <xdr:rowOff>101022</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -15423,8 +15427,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9784773" y="4012045"/>
-              <a:ext cx="4459432" cy="3059545"/>
+              <a:off x="9415607" y="4026477"/>
+              <a:ext cx="4236894" cy="3059545"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15456,14 +15460,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>14432</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>721591</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>14432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>288636</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>129886</xdr:rowOff>
     </xdr:to>
@@ -15501,7 +15505,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>418523</xdr:colOff>
+      <xdr:colOff>577273</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -15573,13 +15577,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>144317</xdr:colOff>
+      <xdr:colOff>57727</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>86590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1991590</xdr:colOff>
+      <xdr:colOff>1558637</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>115455</xdr:rowOff>
     </xdr:to>
@@ -15611,15 +15615,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>591703</xdr:colOff>
+      <xdr:colOff>198580</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>115454</xdr:rowOff>
+      <xdr:rowOff>43295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>808181</xdr:colOff>
+      <xdr:colOff>548408</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
+      <xdr:rowOff>86590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15649,15 +15653,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2092614</xdr:colOff>
+      <xdr:colOff>1630797</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>57727</xdr:rowOff>
+      <xdr:rowOff>28863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>389659</xdr:colOff>
+      <xdr:colOff>86591</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>57727</xdr:rowOff>
+      <xdr:rowOff>28863</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15687,13 +15691,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>923636</xdr:colOff>
+      <xdr:colOff>707159</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>158749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>274204</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>100395</xdr:rowOff>
     </xdr:to>
@@ -15720,6 +15724,204 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>259772</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>72159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447387</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9988F24-8B1B-6E93-1D1F-FBEC0741AF42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5671704" y="72159"/>
+          <a:ext cx="3405910" cy="923636"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>331931</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57728</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28864</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle: Rounded Corners 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29B9D32D-1520-55AA-AC8F-4245961FABCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9539431" y="101024"/>
+          <a:ext cx="3564661" cy="909204"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>591703</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>129886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>288635</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle: Rounded Corners 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E40D39-2BFB-0BF3-8D2E-A148D6023824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13796817" y="129886"/>
+          <a:ext cx="4069773" cy="865909"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -19301,7 +19503,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A75398D-BB87-4B21-BF49-839449944AF1}" name="PivotTable2" cacheId="213" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Status">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A75398D-BB87-4B21-BF49-839449944AF1}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Status">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -19412,7 +19614,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51DBB10D-FBAD-4A8B-BDEC-F5A9A076BCFE}" name="PivotTable1" cacheId="216" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Project Type">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51DBB10D-FBAD-4A8B-BDEC-F5A9A076BCFE}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Project Type">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -19562,7 +19764,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16BA8D7F-2255-4113-825A-9E6C9A48B401}" name="PivotTable2" cacheId="185" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Project Type">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16BA8D7F-2255-4113-825A-9E6C9A48B401}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Project Type">
   <location ref="A3:E13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -19766,7 +19968,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7802B440-3703-4C08-B6FD-46192655EE2A}" name="PivotTable3" cacheId="195" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Department">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7802B440-3703-4C08-B6FD-46192655EE2A}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Department">
   <location ref="A3:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -19949,7 +20151,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5612F4C-F925-419D-93D3-4F180DAC93CA}" name="PivotTable4" cacheId="198" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Priority">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5612F4C-F925-419D-93D3-4F180DAC93CA}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Priority">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -20123,7 +20325,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3250A453-270C-44E8-8A09-4227F7F7BBD7}" name="PivotTable21" cacheId="225" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3250A453-270C-44E8-8A09-4227F7F7BBD7}" name="PivotTable21" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:J38" firstHeaderRow="1" firstDataRow="1" firstDataCol="10"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -21136,65 +21338,32 @@
     </i>
   </rowItems>
   <formats count="183">
-    <format dxfId="189">
+    <format dxfId="188">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="188">
+    <format dxfId="187">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="187">
+    <format dxfId="186">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="186">
+    <format dxfId="185">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="185">
+    <format dxfId="184">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="184">
+    <format dxfId="183">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="183">
+    <format dxfId="182">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="182">
+    <format dxfId="181">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
     </format>
-    <format dxfId="181">
+    <format dxfId="180">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
-    </format>
-    <format dxfId="180">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="9">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="78"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="47"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="40"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="51"/>
-          </reference>
-          <reference field="8" count="1">
-            <x v="87"/>
-          </reference>
-        </references>
-      </pivotArea>
     </format>
     <format dxfId="179">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
@@ -21206,25 +21375,25 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="88"/>
+            <x v="9"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="44"/>
+            <x v="11"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="21"/>
+            <x v="78"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="41"/>
+            <x v="47"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="11"/>
+            <x v="40"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="24"/>
+            <x v="51"/>
           </reference>
           <reference field="8" count="1">
-            <x v="97"/>
+            <x v="87"/>
           </reference>
         </references>
       </pivotArea>
@@ -21239,25 +21408,25 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="99"/>
+            <x v="88"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="0"/>
+            <x v="44"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="57"/>
+            <x v="21"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="27"/>
+            <x v="41"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="8"/>
+            <x v="11"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="13"/>
+            <x v="24"/>
           </reference>
           <reference field="8" count="1">
-            <x v="36"/>
+            <x v="97"/>
           </reference>
         </references>
       </pivotArea>
@@ -21272,25 +21441,25 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
+            <x v="99"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="57"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
             <x v="27"/>
           </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="17"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="4"/>
-          </reference>
           <reference field="6" count="1" selected="0">
-            <x v="3"/>
+            <x v="8"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="1"/>
+            <x v="13"/>
           </reference>
           <reference field="8" count="1">
-            <x v="8"/>
+            <x v="36"/>
           </reference>
         </references>
       </pivotArea>
@@ -21302,28 +21471,28 @@
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="28"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="70"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="46"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="8" count="1">
             <x v="8"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="24"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="8" count="1">
-            <x v="86"/>
           </reference>
         </references>
       </pivotArea>
@@ -21338,25 +21507,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="3"/>
+            <x v="28"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="32"/>
+            <x v="70"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="62"/>
+            <x v="46"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="3"/>
+            <x v="8"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="45"/>
+            <x v="24"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="59"/>
+            <x v="9"/>
           </reference>
           <reference field="8" count="1">
-            <x v="77"/>
+            <x v="86"/>
           </reference>
         </references>
       </pivotArea>
@@ -21371,25 +21540,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="67"/>
+            <x v="3"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="9"/>
+            <x v="32"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="81"/>
+            <x v="62"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="22"/>
+            <x v="3"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="8"/>
+            <x v="45"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="22"/>
+            <x v="59"/>
           </reference>
           <reference field="8" count="1">
-            <x v="91"/>
+            <x v="77"/>
           </reference>
         </references>
       </pivotArea>
@@ -21404,25 +21573,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="73"/>
+            <x v="67"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="68"/>
+            <x v="9"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="95"/>
+            <x v="81"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="58"/>
+            <x v="22"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="36"/>
+            <x v="8"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="50"/>
+            <x v="22"/>
           </reference>
           <reference field="8" count="1">
-            <x v="76"/>
+            <x v="91"/>
           </reference>
         </references>
       </pivotArea>
@@ -21437,25 +21606,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="10"/>
+            <x v="73"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="51"/>
+            <x v="68"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="55"/>
+            <x v="95"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="0"/>
+            <x v="58"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="4"/>
+            <x v="36"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="1"/>
+            <x v="50"/>
           </reference>
           <reference field="8" count="1">
-            <x v="13"/>
+            <x v="76"/>
           </reference>
         </references>
       </pivotArea>
@@ -21470,25 +21639,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="81"/>
+            <x v="10"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="9"/>
+            <x v="51"/>
           </reference>
           <reference field="4" count="1" selected="0">
+            <x v="55"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
             <x v="4"/>
           </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="23"/>
-          </reference>
           <reference field="7" count="1" selected="0">
-            <x v="48"/>
+            <x v="1"/>
           </reference>
           <reference field="8" count="1">
-            <x v="54"/>
+            <x v="13"/>
           </reference>
         </references>
       </pivotArea>
@@ -21503,25 +21672,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="84"/>
+            <x v="81"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="57"/>
+            <x v="9"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="68"/>
+            <x v="4"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="30"/>
+            <x v="2"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="24"/>
+            <x v="23"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="8"/>
+            <x v="48"/>
           </reference>
           <reference field="8" count="1">
-            <x v="88"/>
+            <x v="54"/>
           </reference>
         </references>
       </pivotArea>
@@ -21536,25 +21705,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="93"/>
+            <x v="84"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="55"/>
+            <x v="57"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="33"/>
+            <x v="68"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="29"/>
+            <x v="30"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="2"/>
+            <x v="24"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="1"/>
+            <x v="8"/>
           </reference>
           <reference field="8" count="1">
-            <x v="3"/>
+            <x v="88"/>
           </reference>
         </references>
       </pivotArea>
@@ -21569,25 +21738,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="18"/>
+            <x v="93"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="25"/>
+            <x v="55"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="24"/>
+            <x v="33"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="10"/>
+            <x v="29"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="6"/>
+            <x v="2"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="10"/>
+            <x v="1"/>
           </reference>
           <reference field="8" count="1">
-            <x v="8"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -21602,25 +21771,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
+            <x v="18"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="25"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
             <x v="24"/>
           </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="75"/>
-          </reference>
           <reference field="5" count="1" selected="0">
-            <x v="48"/>
+            <x v="10"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="16"/>
+            <x v="6"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="53"/>
+            <x v="10"/>
           </reference>
           <reference field="8" count="1">
-            <x v="74"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -21635,25 +21804,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="50"/>
+            <x v="24"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="33"/>
+            <x v="5"/>
           </reference>
           <reference field="4" count="1" selected="0">
+            <x v="75"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="48"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
             <x v="53"/>
           </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="39"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="29"/>
-          </reference>
           <reference field="8" count="1">
-            <x v="30"/>
+            <x v="74"/>
           </reference>
         </references>
       </pivotArea>
@@ -21665,28 +21834,28 @@
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="64"/>
+            <x v="50"/>
           </reference>
           <reference field="3" count="1" selected="0">
+            <x v="33"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="53"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="39"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="29"/>
+          </reference>
+          <reference field="8" count="1">
             <x v="30"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="65"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="34"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="8" count="1">
-            <x v="16"/>
           </reference>
         </references>
       </pivotArea>
@@ -21698,28 +21867,28 @@
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="3"/>
+            <x v="2"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="59"/>
+            <x v="64"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="1"/>
+            <x v="30"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="93"/>
+            <x v="65"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="61"/>
+            <x v="34"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="1"/>
+            <x v="5"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="5"/>
+            <x v="2"/>
           </reference>
           <reference field="8" count="1">
-            <x v="53"/>
+            <x v="16"/>
           </reference>
         </references>
       </pivotArea>
@@ -21734,25 +21903,25 @@
             <x v="3"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="60"/>
+            <x v="59"/>
           </reference>
           <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="93"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="61"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="8" count="1">
             <x v="53"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="64"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="32"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="25"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="37"/>
-          </reference>
-          <reference field="8" count="1">
-            <x v="99"/>
           </reference>
         </references>
       </pivotArea>
@@ -21767,25 +21936,25 @@
             <x v="3"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="94"/>
+            <x v="60"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="9"/>
+            <x v="53"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="64"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="1"/>
+            <x v="32"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="39"/>
+            <x v="25"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="47"/>
+            <x v="37"/>
           </reference>
           <reference field="8" count="1">
-            <x v="92"/>
+            <x v="99"/>
           </reference>
         </references>
       </pivotArea>
@@ -21797,28 +21966,28 @@
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="4"/>
+            <x v="3"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="100"/>
+            <x v="94"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="31"/>
+            <x v="9"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="70"/>
+            <x v="64"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="14"/>
+            <x v="1"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="30"/>
+            <x v="39"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="25"/>
+            <x v="47"/>
           </reference>
           <reference field="8" count="1">
-            <x v="20"/>
+            <x v="92"/>
           </reference>
         </references>
       </pivotArea>
@@ -21830,28 +21999,28 @@
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="5"/>
+            <x v="4"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="15"/>
+            <x v="100"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="9"/>
+            <x v="31"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="11"/>
+            <x v="70"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="16"/>
+            <x v="14"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="10"/>
+            <x v="30"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="13"/>
+            <x v="25"/>
           </reference>
           <reference field="8" count="1">
-            <x v="14"/>
+            <x v="20"/>
           </reference>
         </references>
       </pivotArea>
@@ -21866,25 +22035,25 @@
             <x v="5"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="101"/>
+            <x v="15"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="74"/>
+            <x v="9"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="82"/>
+            <x v="11"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="5"/>
+            <x v="16"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="41"/>
+            <x v="10"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="32"/>
+            <x v="13"/>
           </reference>
           <reference field="8" count="1">
-            <x v="68"/>
+            <x v="14"/>
           </reference>
         </references>
       </pivotArea>
@@ -21899,25 +22068,25 @@
             <x v="5"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="26"/>
+            <x v="101"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="2"/>
+            <x v="74"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="2"/>
+            <x v="82"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="6"/>
+            <x v="5"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="0"/>
+            <x v="41"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="0"/>
+            <x v="32"/>
           </reference>
           <reference field="8" count="1">
-            <x v="0"/>
+            <x v="68"/>
           </reference>
         </references>
       </pivotArea>
@@ -21929,28 +22098,28 @@
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="26"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
             <x v="6"/>
           </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="66"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="76"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="21"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="3"/>
-          </reference>
           <reference field="6" count="1" selected="0">
-            <x v="8"/>
+            <x v="0"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="2"/>
+            <x v="0"/>
           </reference>
           <reference field="8" count="1">
-            <x v="95"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -21962,28 +22131,28 @@
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="7"/>
+            <x v="6"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="72"/>
+            <x v="66"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="10"/>
+            <x v="76"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="69"/>
+            <x v="21"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="30"/>
+            <x v="3"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="30"/>
+            <x v="8"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="6"/>
+            <x v="2"/>
           </reference>
           <reference field="8" count="1">
-            <x v="100"/>
+            <x v="95"/>
           </reference>
         </references>
       </pivotArea>
@@ -21998,25 +22167,25 @@
             <x v="7"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="78"/>
+            <x v="72"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="66"/>
+            <x v="10"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="77"/>
+            <x v="69"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="10"/>
+            <x v="30"/>
           </reference>
           <reference field="6" count="1" selected="0">
+            <x v="30"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
             <x v="6"/>
           </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="23"/>
-          </reference>
           <reference field="8" count="1">
-            <x v="67"/>
+            <x v="100"/>
           </reference>
         </references>
       </pivotArea>
@@ -22031,25 +22200,25 @@
             <x v="7"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="46"/>
+            <x v="78"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="28"/>
+            <x v="66"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="89"/>
+            <x v="77"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="36"/>
+            <x v="10"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="37"/>
+            <x v="6"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="56"/>
+            <x v="23"/>
           </reference>
           <reference field="8" count="1">
-            <x v="63"/>
+            <x v="67"/>
           </reference>
         </references>
       </pivotArea>
@@ -22061,28 +22230,28 @@
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="10"/>
+            <x v="7"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="29"/>
+            <x v="46"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="49"/>
+            <x v="28"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="80"/>
+            <x v="89"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="58"/>
+            <x v="36"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="12"/>
+            <x v="37"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="7"/>
+            <x v="56"/>
           </reference>
           <reference field="8" count="1">
-            <x v="106"/>
+            <x v="63"/>
           </reference>
         </references>
       </pivotArea>
@@ -22097,25 +22266,25 @@
             <x v="10"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="10"/>
+            <x v="29"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="6"/>
+            <x v="49"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="11"/>
+            <x v="80"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="19"/>
+            <x v="58"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="8"/>
+            <x v="12"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="4"/>
+            <x v="7"/>
           </reference>
           <reference field="8" count="1">
-            <x v="22"/>
+            <x v="106"/>
           </reference>
         </references>
       </pivotArea>
@@ -22130,25 +22299,25 @@
             <x v="10"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="17"/>
+            <x v="10"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="13"/>
+            <x v="6"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="14"/>
+            <x v="11"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="14"/>
+            <x v="19"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="12"/>
+            <x v="8"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="13"/>
+            <x v="4"/>
           </reference>
           <reference field="8" count="1">
-            <x v="18"/>
+            <x v="22"/>
           </reference>
         </references>
       </pivotArea>
@@ -22160,28 +22329,28 @@
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="11"/>
+            <x v="10"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="60"/>
+            <x v="17"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="16"/>
+            <x v="13"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="72"/>
+            <x v="14"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="0"/>
+            <x v="14"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="3"/>
+            <x v="12"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="4"/>
+            <x v="13"/>
           </reference>
           <reference field="8" count="1">
-            <x v="56"/>
+            <x v="18"/>
           </reference>
         </references>
       </pivotArea>
@@ -22196,25 +22365,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
+            <x v="60"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
             <x v="72"/>
           </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="15"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="73"/>
-          </reference>
           <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
             <x v="4"/>
           </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="37"/>
-          </reference>
           <reference field="8" count="1">
-            <x v="84"/>
+            <x v="56"/>
           </reference>
         </references>
       </pivotArea>
@@ -22229,25 +22398,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
+            <x v="72"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
             <x v="73"/>
           </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="55"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="61"/>
-          </reference>
           <reference field="5" count="1" selected="0">
-            <x v="0"/>
+            <x v="4"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="4"/>
+            <x v="11"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="9"/>
+            <x v="37"/>
           </reference>
           <reference field="8" count="1">
-            <x v="55"/>
+            <x v="84"/>
           </reference>
         </references>
       </pivotArea>
@@ -22262,25 +22431,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="7"/>
+            <x v="73"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="14"/>
+            <x v="55"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="23"/>
+            <x v="61"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="20"/>
+            <x v="0"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="6"/>
+            <x v="4"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="2"/>
+            <x v="9"/>
           </reference>
           <reference field="8" count="1">
-            <x v="20"/>
+            <x v="55"/>
           </reference>
         </references>
       </pivotArea>
@@ -22295,25 +22464,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="8"/>
+            <x v="7"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="21"/>
+            <x v="14"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="27"/>
+            <x v="23"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="22"/>
+            <x v="20"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="4"/>
+            <x v="6"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="8" count="1">
-            <x v="17"/>
+            <x v="20"/>
           </reference>
         </references>
       </pivotArea>
@@ -22328,25 +22497,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="37"/>
+            <x v="8"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="65"/>
+            <x v="21"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="42"/>
+            <x v="27"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="5"/>
+            <x v="22"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="38"/>
+            <x v="4"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="46"/>
+            <x v="0"/>
           </reference>
           <reference field="8" count="1">
-            <x v="94"/>
+            <x v="17"/>
           </reference>
         </references>
       </pivotArea>
@@ -22361,25 +22530,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="39"/>
+            <x v="37"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="8"/>
+            <x v="65"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="36"/>
+            <x v="42"/>
           </reference>
           <reference field="5" count="1" selected="0">
             <x v="5"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="10"/>
+            <x v="38"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="24"/>
+            <x v="46"/>
           </reference>
           <reference field="8" count="1">
-            <x v="47"/>
+            <x v="94"/>
           </reference>
         </references>
       </pivotArea>
@@ -22394,25 +22563,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="91"/>
+            <x v="39"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="60"/>
+            <x v="8"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="12"/>
+            <x v="36"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="14"/>
+            <x v="5"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="43"/>
+            <x v="10"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="52"/>
+            <x v="24"/>
           </reference>
           <reference field="8" count="1">
-            <x v="96"/>
+            <x v="47"/>
           </reference>
         </references>
       </pivotArea>
@@ -22421,31 +22590,31 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="9">
           <reference field="0" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="0"/>
+            <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="28"/>
+            <x v="91"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="34"/>
+            <x v="60"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="38"/>
+            <x v="12"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="10"/>
+            <x v="14"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="5"/>
+            <x v="43"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="4"/>
+            <x v="52"/>
           </reference>
           <reference field="8" count="1">
-            <x v="40"/>
+            <x v="96"/>
           </reference>
         </references>
       </pivotArea>
@@ -22460,25 +22629,25 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="3"/>
+            <x v="28"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="19"/>
+            <x v="34"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="22"/>
+            <x v="38"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="14"/>
+            <x v="10"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="18"/>
+            <x v="5"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="16"/>
+            <x v="4"/>
           </reference>
           <reference field="8" count="1">
-            <x v="24"/>
+            <x v="40"/>
           </reference>
         </references>
       </pivotArea>
@@ -22493,25 +22662,25 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="86"/>
+            <x v="3"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="57"/>
+            <x v="19"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="6"/>
+            <x v="22"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="33"/>
+            <x v="14"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="5"/>
+            <x v="18"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="2"/>
+            <x v="16"/>
           </reference>
           <reference field="8" count="1">
-            <x v="16"/>
+            <x v="24"/>
           </reference>
         </references>
       </pivotArea>
@@ -22523,28 +22692,28 @@
             <x v="1"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="86"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="3"/>
+            <x v="57"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="0"/>
+            <x v="6"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="1"/>
+            <x v="33"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="0"/>
+            <x v="5"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="8" count="1">
-            <x v="0"/>
+            <x v="16"/>
           </reference>
         </references>
       </pivotArea>
@@ -22559,25 +22728,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
             <x v="3"/>
           </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="73"/>
-          </reference>
           <reference field="4" count="1" selected="0">
-            <x v="85"/>
+            <x v="0"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="11"/>
+            <x v="1"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="5"/>
+            <x v="0"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="22"/>
+            <x v="0"/>
           </reference>
           <reference field="8" count="1">
-            <x v="71"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -22592,25 +22761,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="32"/>
+            <x v="3"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="43"/>
+            <x v="73"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="46"/>
+            <x v="85"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="27"/>
+            <x v="11"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="29"/>
+            <x v="5"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="33"/>
+            <x v="22"/>
           </reference>
           <reference field="8" count="1">
-            <x v="43"/>
+            <x v="71"/>
           </reference>
         </references>
       </pivotArea>
@@ -22625,25 +22794,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="9"/>
+            <x v="32"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="1"/>
+            <x v="43"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="60"/>
+            <x v="46"/>
           </reference>
           <reference field="5" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
             <x v="29"/>
           </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="8"/>
-          </reference>
           <reference field="7" count="1" selected="0">
-            <x v="21"/>
+            <x v="33"/>
           </reference>
           <reference field="8" count="1">
-            <x v="104"/>
+            <x v="43"/>
           </reference>
         </references>
       </pivotArea>
@@ -22658,25 +22827,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="78"/>
+            <x v="9"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="55"/>
+            <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="4"/>
+            <x v="60"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="7"/>
+            <x v="29"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="5"/>
+            <x v="8"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="3"/>
+            <x v="21"/>
           </reference>
           <reference field="8" count="1">
-            <x v="13"/>
+            <x v="104"/>
           </reference>
         </references>
       </pivotArea>
@@ -22691,25 +22860,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="42"/>
+            <x v="78"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="25"/>
+            <x v="55"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="22"/>
+            <x v="4"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="31"/>
+            <x v="7"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="26"/>
+            <x v="5"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="30"/>
+            <x v="3"/>
           </reference>
           <reference field="8" count="1">
-            <x v="37"/>
+            <x v="13"/>
           </reference>
         </references>
       </pivotArea>
@@ -22724,25 +22893,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="48"/>
+            <x v="42"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="38"/>
+            <x v="25"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="45"/>
+            <x v="22"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="32"/>
+            <x v="31"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="27"/>
+            <x v="26"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="27"/>
+            <x v="30"/>
           </reference>
           <reference field="8" count="1">
-            <x v="50"/>
+            <x v="37"/>
           </reference>
         </references>
       </pivotArea>
@@ -22757,25 +22926,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="49"/>
+            <x v="48"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="44"/>
+            <x v="38"/>
           </reference>
           <reference field="4" count="1" selected="0">
+            <x v="45"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="32"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+          <reference field="8" count="1">
             <x v="50"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="8" count="1">
-            <x v="35"/>
           </reference>
         </references>
       </pivotArea>
@@ -22790,25 +22959,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="19"/>
+            <x v="49"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="27"/>
+            <x v="44"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="18"/>
+            <x v="50"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="1"/>
+            <x v="5"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="1"/>
+            <x v="3"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="8"/>
+            <x v="5"/>
           </reference>
           <reference field="8" count="1">
-            <x v="1"/>
+            <x v="35"/>
           </reference>
         </references>
       </pivotArea>
@@ -22823,25 +22992,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="21"/>
+            <x v="19"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="23"/>
+            <x v="27"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="15"/>
+            <x v="18"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="4"/>
+            <x v="1"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="2"/>
+            <x v="8"/>
           </reference>
           <reference field="8" count="1">
-            <x v="12"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -22856,25 +23025,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="52"/>
+            <x v="21"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="30"/>
+            <x v="23"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="37"/>
+            <x v="15"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="36"/>
+            <x v="0"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="3"/>
+            <x v="4"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="8" count="1">
-            <x v="39"/>
+            <x v="12"/>
           </reference>
         </references>
       </pivotArea>
@@ -22889,25 +23058,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="56"/>
+            <x v="52"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="69"/>
+            <x v="30"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="76"/>
+            <x v="37"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="29"/>
+            <x v="36"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="4"/>
+            <x v="3"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="3"/>
+            <x v="0"/>
           </reference>
           <reference field="8" count="1">
-            <x v="38"/>
+            <x v="39"/>
           </reference>
         </references>
       </pivotArea>
@@ -22919,28 +23088,28 @@
             <x v="1"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="36"/>
+            <x v="56"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="42"/>
+            <x v="69"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="51"/>
+            <x v="76"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="34"/>
+            <x v="29"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="7"/>
+            <x v="4"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="6"/>
+            <x v="3"/>
           </reference>
           <reference field="8" count="1">
-            <x v="42"/>
+            <x v="38"/>
           </reference>
         </references>
       </pivotArea>
@@ -22952,28 +23121,28 @@
             <x v="1"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="12"/>
+            <x v="2"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="37"/>
+            <x v="36"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="26"/>
+            <x v="42"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="49"/>
+            <x v="51"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="28"/>
+            <x v="34"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="9"/>
+            <x v="7"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="23"/>
+            <x v="6"/>
           </reference>
           <reference field="8" count="1">
-            <x v="45"/>
+            <x v="42"/>
           </reference>
         </references>
       </pivotArea>
@@ -22985,28 +23154,28 @@
             <x v="1"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="3"/>
+            <x v="12"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="5"/>
+            <x v="37"/>
           </reference>
           <reference field="3" count="1" selected="0">
+            <x v="26"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="49"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="28"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="23"/>
+          </reference>
+          <reference field="8" count="1">
             <x v="45"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="19"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="8" count="1">
-            <x v="36"/>
           </reference>
         </references>
       </pivotArea>
@@ -23021,25 +23190,25 @@
             <x v="3"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="9"/>
+            <x v="5"/>
           </reference>
           <reference field="3" count="1" selected="0">
+            <x v="45"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="19"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
             <x v="4"/>
           </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="19"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="32"/>
-          </reference>
           <reference field="7" count="1" selected="0">
-            <x v="45"/>
+            <x v="6"/>
           </reference>
           <reference field="8" count="1">
-            <x v="75"/>
+            <x v="36"/>
           </reference>
         </references>
       </pivotArea>
@@ -23054,25 +23223,25 @@
             <x v="3"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="38"/>
+            <x v="9"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="11"/>
+            <x v="4"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="37"/>
+            <x v="9"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="30"/>
+            <x v="19"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="4"/>
+            <x v="32"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="0"/>
+            <x v="45"/>
           </reference>
           <reference field="8" count="1">
-            <x v="17"/>
+            <x v="75"/>
           </reference>
         </references>
       </pivotArea>
@@ -23087,25 +23256,25 @@
             <x v="3"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="97"/>
+            <x v="38"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="69"/>
+            <x v="11"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="11"/>
+            <x v="37"/>
           </reference>
           <reference field="5" count="1" selected="0">
             <x v="30"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="8"/>
+            <x v="4"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="40"/>
+            <x v="0"/>
           </reference>
           <reference field="8" count="1">
-            <x v="6"/>
+            <x v="17"/>
           </reference>
         </references>
       </pivotArea>
@@ -23120,25 +23289,25 @@
             <x v="3"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="23"/>
+            <x v="97"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="4"/>
+            <x v="69"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="19"/>
+            <x v="11"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="23"/>
+            <x v="30"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="7"/>
+            <x v="8"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="3"/>
+            <x v="40"/>
           </reference>
           <reference field="8" count="1">
-            <x v="21"/>
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
@@ -23153,25 +23322,25 @@
             <x v="3"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="27"/>
+            <x v="23"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="50"/>
+            <x v="4"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="0"/>
+            <x v="19"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="5"/>
+            <x v="23"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="2"/>
+            <x v="7"/>
           </reference>
           <reference field="7" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="8" count="1">
             <x v="21"/>
-          </reference>
-          <reference field="8" count="1">
-            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -23183,28 +23352,28 @@
             <x v="1"/>
           </reference>
           <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="50"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
             <x v="5"/>
           </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="65"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="59"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="35"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="0"/>
-          </reference>
           <reference field="6" count="1" selected="0">
-            <x v="30"/>
+            <x v="2"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="36"/>
+            <x v="21"/>
           </reference>
           <reference field="8" count="1">
-            <x v="17"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -23219,25 +23388,25 @@
             <x v="5"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="34"/>
+            <x v="65"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="1"/>
+            <x v="59"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="43"/>
+            <x v="35"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="37"/>
+            <x v="0"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="4"/>
+            <x v="30"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="4"/>
+            <x v="36"/>
           </reference>
           <reference field="8" count="1">
-            <x v="8"/>
+            <x v="17"/>
           </reference>
         </references>
       </pivotArea>
@@ -23252,25 +23421,25 @@
             <x v="5"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="69"/>
+            <x v="34"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="10"/>
+            <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="67"/>
+            <x v="43"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="3"/>
+            <x v="37"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="19"/>
+            <x v="4"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="50"/>
+            <x v="4"/>
           </reference>
           <reference field="8" count="1">
-            <x v="108"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -23285,25 +23454,25 @@
             <x v="5"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="79"/>
+            <x v="69"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="70"/>
+            <x v="10"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="83"/>
+            <x v="67"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="49"/>
+            <x v="3"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="26"/>
+            <x v="19"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="38"/>
+            <x v="50"/>
           </reference>
           <reference field="8" count="1">
-            <x v="98"/>
+            <x v="108"/>
           </reference>
         </references>
       </pivotArea>
@@ -23318,25 +23487,25 @@
             <x v="5"/>
           </reference>
           <reference field="2" count="1" selected="0">
+            <x v="79"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="70"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="83"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="49"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="26"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="38"/>
+          </reference>
+          <reference field="8" count="1">
             <x v="98"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="71"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="97"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="59"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="8" count="1">
-            <x v="31"/>
           </reference>
         </references>
       </pivotArea>
@@ -23348,28 +23517,28 @@
             <x v="1"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="6"/>
+            <x v="5"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="80"/>
+            <x v="98"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="20"/>
+            <x v="71"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="50"/>
+            <x v="97"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="33"/>
+            <x v="59"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="11"/>
+            <x v="2"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="11"/>
+            <x v="2"/>
           </reference>
           <reference field="8" count="1">
-            <x v="90"/>
+            <x v="31"/>
           </reference>
         </references>
       </pivotArea>
@@ -23384,25 +23553,25 @@
             <x v="6"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="83"/>
+            <x v="80"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="69"/>
+            <x v="20"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="47"/>
+            <x v="50"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="42"/>
+            <x v="33"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="5"/>
+            <x v="11"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="24"/>
+            <x v="11"/>
           </reference>
           <reference field="8" count="1">
-            <x v="59"/>
+            <x v="90"/>
           </reference>
         </references>
       </pivotArea>
@@ -23417,25 +23586,25 @@
             <x v="6"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="14"/>
+            <x v="83"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="0"/>
+            <x v="69"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="2"/>
+            <x v="47"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="9"/>
+            <x v="42"/>
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="5"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="6"/>
+            <x v="24"/>
           </reference>
           <reference field="8" count="1">
-            <x v="9"/>
+            <x v="59"/>
           </reference>
         </references>
       </pivotArea>
@@ -23450,25 +23619,25 @@
             <x v="6"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="22"/>
+            <x v="14"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="10"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
             <x v="9"/>
           </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="13"/>
-          </reference>
           <reference field="6" count="1" selected="0">
-            <x v="21"/>
+            <x v="5"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="20"/>
+            <x v="6"/>
           </reference>
           <reference field="8" count="1">
-            <x v="10"/>
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -23483,25 +23652,25 @@
             <x v="6"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="51"/>
+            <x v="22"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="48"/>
+            <x v="10"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="56"/>
+            <x v="9"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="28"/>
+            <x v="13"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="9"/>
+            <x v="21"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="25"/>
+            <x v="20"/>
           </reference>
           <reference field="8" count="1">
-            <x v="69"/>
+            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
@@ -23513,28 +23682,28 @@
             <x v="1"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="8"/>
+            <x v="6"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="30"/>
+            <x v="51"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="30"/>
+            <x v="48"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="35"/>
+            <x v="56"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="35"/>
+            <x v="28"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="6"/>
+            <x v="9"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="10"/>
+            <x v="25"/>
           </reference>
           <reference field="8" count="1">
-            <x v="8"/>
+            <x v="69"/>
           </reference>
         </references>
       </pivotArea>
@@ -23546,28 +23715,28 @@
             <x v="1"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="9"/>
+            <x v="8"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="71"/>
+            <x v="30"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="25"/>
+            <x v="30"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="16"/>
+            <x v="35"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="1"/>
+            <x v="35"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="5"/>
+            <x v="6"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="23"/>
+            <x v="10"/>
           </reference>
           <reference field="8" count="1">
-            <x v="62"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -23579,28 +23748,28 @@
             <x v="1"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="10"/>
+            <x v="9"/>
           </reference>
           <reference field="2" count="1" selected="0">
+            <x v="71"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="25"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="22"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="19"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="5"/>
           </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="11"/>
-          </reference>
           <reference field="7" count="1" selected="0">
-            <x v="15"/>
+            <x v="23"/>
           </reference>
           <reference field="8" count="1">
-            <x v="4"/>
+            <x v="62"/>
           </reference>
         </references>
       </pivotArea>
@@ -23615,25 +23784,25 @@
             <x v="10"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="39"/>
+            <x v="1"/>
           </reference>
           <reference field="3" count="1" selected="0">
+            <x v="22"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="19"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+          <reference field="8" count="1">
             <x v="4"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="68"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="43"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="8" count="1">
-            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -23651,22 +23820,22 @@
             <x v="39"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="36"/>
+            <x v="4"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="96"/>
+            <x v="68"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="25"/>
+            <x v="43"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="6"/>
+            <x v="3"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="9"/>
+            <x v="1"/>
           </reference>
           <reference field="8" count="1">
-            <x v="61"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -23681,25 +23850,25 @@
             <x v="10"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="13"/>
+            <x v="39"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="29"/>
+            <x v="36"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="26"/>
+            <x v="96"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="12"/>
+            <x v="25"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="1"/>
+            <x v="6"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="6"/>
+            <x v="9"/>
           </reference>
           <reference field="8" count="1">
-            <x v="2"/>
+            <x v="61"/>
           </reference>
         </references>
       </pivotArea>
@@ -23714,25 +23883,25 @@
             <x v="10"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="91"/>
+            <x v="13"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="70"/>
+            <x v="29"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="84"/>
+            <x v="26"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="50"/>
+            <x v="12"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="3"/>
+            <x v="1"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="0"/>
+            <x v="6"/>
           </reference>
           <reference field="8" count="1">
-            <x v="39"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -23744,28 +23913,28 @@
             <x v="1"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="11"/>
+            <x v="10"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="29"/>
+            <x v="91"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="19"/>
+            <x v="70"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="44"/>
+            <x v="84"/>
           </reference>
           <reference field="5" count="1" selected="0">
+            <x v="50"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="28"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="32"/>
-          </reference>
           <reference field="8" count="1">
-            <x v="41"/>
+            <x v="39"/>
           </reference>
         </references>
       </pivotArea>
@@ -23780,25 +23949,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="70"/>
+            <x v="29"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="70"/>
+            <x v="19"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="50"/>
+            <x v="44"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="44"/>
+            <x v="0"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="35"/>
+            <x v="28"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="39"/>
+            <x v="32"/>
           </reference>
           <reference field="8" count="1">
-            <x v="103"/>
+            <x v="41"/>
           </reference>
         </references>
       </pivotArea>
@@ -23813,25 +23982,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="72"/>
+            <x v="70"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="67"/>
+            <x v="70"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="14"/>
+            <x v="50"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="10"/>
+            <x v="44"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="5"/>
+            <x v="35"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="21"/>
+            <x v="39"/>
           </reference>
           <reference field="8" count="1">
-            <x v="85"/>
+            <x v="103"/>
           </reference>
         </references>
       </pivotArea>
@@ -23846,25 +24015,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="16"/>
+            <x v="72"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="55"/>
+            <x v="67"/>
           </reference>
           <reference field="4" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
             <x v="10"/>
           </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="19"/>
-          </reference>
           <reference field="6" count="1" selected="0">
-            <x v="4"/>
+            <x v="5"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="22"/>
+            <x v="21"/>
           </reference>
           <reference field="8" count="1">
-            <x v="11"/>
+            <x v="85"/>
           </reference>
         </references>
       </pivotArea>
@@ -23879,25 +24048,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="48"/>
+            <x v="16"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="77"/>
+            <x v="55"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="51"/>
+            <x v="10"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="0"/>
+            <x v="19"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="14"/>
+            <x v="4"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="46"/>
+            <x v="22"/>
           </reference>
           <reference field="8" count="1">
-            <x v="65"/>
+            <x v="11"/>
           </reference>
         </references>
       </pivotArea>
@@ -23912,25 +24081,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="96"/>
+            <x v="48"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="62"/>
+            <x v="77"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="13"/>
+            <x v="51"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="15"/>
+            <x v="0"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="3"/>
+            <x v="14"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="6"/>
+            <x v="46"/>
           </reference>
           <reference field="8" count="1">
-            <x v="3"/>
+            <x v="65"/>
           </reference>
         </references>
       </pivotArea>
@@ -23939,31 +24108,31 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="9">
           <reference field="0" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="1"/>
+            <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="74"/>
+            <x v="96"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="21"/>
+            <x v="62"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="16"/>
+            <x v="13"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="4"/>
+            <x v="15"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="10"/>
+            <x v="3"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="26"/>
+            <x v="6"/>
           </reference>
           <reference field="8" count="1">
-            <x v="82"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -23978,25 +24147,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="95"/>
+            <x v="74"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="66"/>
+            <x v="21"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="73"/>
+            <x v="16"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="29"/>
+            <x v="4"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="2"/>
+            <x v="10"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="1"/>
+            <x v="26"/>
           </reference>
           <reference field="8" count="1">
-            <x v="3"/>
+            <x v="82"/>
           </reference>
         </references>
       </pivotArea>
@@ -24008,28 +24177,28 @@
             <x v="2"/>
           </reference>
           <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="95"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="66"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="73"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="29"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
             <x v="2"/>
           </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="85"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="62"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
           <reference field="7" count="1" selected="0">
-            <x v="44"/>
+            <x v="1"/>
           </reference>
           <reference field="8" count="1">
-            <x v="0"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -24041,28 +24210,28 @@
             <x v="2"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="3"/>
+            <x v="2"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="38"/>
+            <x v="85"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="58"/>
+            <x v="4"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="94"/>
+            <x v="62"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="60"/>
+            <x v="2"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="3"/>
+            <x v="0"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="1"/>
+            <x v="44"/>
           </reference>
           <reference field="8" count="1">
-            <x v="8"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -24077,25 +24246,25 @@
             <x v="3"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="12"/>
+            <x v="38"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="28"/>
+            <x v="58"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="28"/>
+            <x v="94"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="24"/>
+            <x v="60"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="15"/>
+            <x v="3"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="11"/>
+            <x v="1"/>
           </reference>
           <reference field="8" count="1">
-            <x v="27"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -24107,28 +24276,28 @@
             <x v="2"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="5"/>
+            <x v="3"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="77"/>
+            <x v="12"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="65"/>
+            <x v="28"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="10"/>
+            <x v="28"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="8"/>
+            <x v="24"/>
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="15"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="54"/>
+            <x v="11"/>
           </reference>
           <reference field="8" count="1">
-            <x v="36"/>
+            <x v="27"/>
           </reference>
         </references>
       </pivotArea>
@@ -24143,25 +24312,25 @@
             <x v="5"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="49"/>
+            <x v="77"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="6"/>
+            <x v="65"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="2"/>
+            <x v="10"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="0"/>
+            <x v="8"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="31"/>
+            <x v="15"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="42"/>
+            <x v="54"/>
           </reference>
           <reference field="8" count="1">
-            <x v="78"/>
+            <x v="36"/>
           </reference>
         </references>
       </pivotArea>
@@ -24173,28 +24342,28 @@
             <x v="2"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="7"/>
+            <x v="5"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="102"/>
+            <x v="49"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="60"/>
+            <x v="6"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="37"/>
+            <x v="2"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="27"/>
+            <x v="0"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="44"/>
+            <x v="31"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="51"/>
+            <x v="42"/>
           </reference>
           <reference field="8" count="1">
-            <x v="102"/>
+            <x v="78"/>
           </reference>
         </references>
       </pivotArea>
@@ -24206,28 +24375,28 @@
             <x v="2"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="8"/>
+            <x v="7"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="92"/>
+            <x v="102"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="45"/>
+            <x v="60"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="81"/>
+            <x v="37"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="28"/>
+            <x v="27"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="7"/>
+            <x v="44"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="27"/>
+            <x v="51"/>
           </reference>
           <reference field="8" count="1">
-            <x v="57"/>
+            <x v="102"/>
           </reference>
         </references>
       </pivotArea>
@@ -24239,28 +24408,28 @@
             <x v="2"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="9"/>
+            <x v="8"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="4"/>
+            <x v="92"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="11"/>
+            <x v="45"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="20"/>
+            <x v="81"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="21"/>
+            <x v="28"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="22"/>
+            <x v="7"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="20"/>
+            <x v="27"/>
           </reference>
           <reference field="8" count="1">
-            <x v="25"/>
+            <x v="57"/>
           </reference>
         </references>
       </pivotArea>
@@ -24272,28 +24441,28 @@
             <x v="2"/>
           </reference>
           <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
             <x v="11"/>
           </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="54"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="26"/>
-          </reference>
           <reference field="4" count="1" selected="0">
-            <x v="49"/>
+            <x v="20"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="28"/>
+            <x v="21"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="5"/>
+            <x v="22"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="26"/>
+            <x v="20"/>
           </reference>
           <reference field="8" count="1">
-            <x v="33"/>
+            <x v="25"/>
           </reference>
         </references>
       </pivotArea>
@@ -24302,31 +24471,31 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="9">
           <reference field="0" count="1" selected="0">
-            <x v="3"/>
+            <x v="2"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="1"/>
+            <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="35"/>
+            <x v="54"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="52"/>
+            <x v="26"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="58"/>
+            <x v="49"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="3"/>
+            <x v="28"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="3"/>
+            <x v="5"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="22"/>
+            <x v="26"/>
           </reference>
           <reference field="8" count="1">
-            <x v="58"/>
+            <x v="33"/>
           </reference>
         </references>
       </pivotArea>
@@ -24341,25 +24510,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="41"/>
+            <x v="35"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="14"/>
+            <x v="52"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="42"/>
+            <x v="58"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="29"/>
+            <x v="3"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="8"/>
+            <x v="3"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="5"/>
+            <x v="22"/>
           </reference>
           <reference field="8" count="1">
-            <x v="44"/>
+            <x v="58"/>
           </reference>
         </references>
       </pivotArea>
@@ -24374,16 +24543,16 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="13"/>
+            <x v="41"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="73"/>
+            <x v="14"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="20"/>
+            <x v="42"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="2"/>
+            <x v="29"/>
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="8"/>
@@ -24407,25 +24576,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="24"/>
+            <x v="13"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="24"/>
+            <x v="73"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="16"/>
+            <x v="20"/>
           </reference>
           <reference field="5" count="1" selected="0">
             <x v="2"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="9"/>
+            <x v="8"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="7"/>
+            <x v="5"/>
           </reference>
           <reference field="8" count="1">
-            <x v="19"/>
+            <x v="44"/>
           </reference>
         </references>
       </pivotArea>
@@ -24437,28 +24606,28 @@
             <x v="3"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="12"/>
+            <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="52"/>
+            <x v="24"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="25"/>
+            <x v="24"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="48"/>
+            <x v="16"/>
           </reference>
           <reference field="5" count="1" selected="0">
             <x v="2"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="12"/>
+            <x v="9"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="25"/>
+            <x v="7"/>
           </reference>
           <reference field="8" count="1">
-            <x v="46"/>
+            <x v="19"/>
           </reference>
         </references>
       </pivotArea>
@@ -24470,28 +24639,28 @@
             <x v="3"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="3"/>
+            <x v="12"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="40"/>
+            <x v="52"/>
           </reference>
           <reference field="3" count="1" selected="0">
+            <x v="25"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="48"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
             <x v="2"/>
           </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="33"/>
-          </reference>
           <reference field="6" count="1" selected="0">
-            <x v="4"/>
+            <x v="12"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="3"/>
+            <x v="25"/>
           </reference>
           <reference field="8" count="1">
-            <x v="38"/>
+            <x v="46"/>
           </reference>
         </references>
       </pivotArea>
@@ -24503,28 +24672,28 @@
             <x v="3"/>
           </reference>
           <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="40"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
             <x v="4"/>
           </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="20"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="21"/>
-          </reference>
           <reference field="5" count="1" selected="0">
-            <x v="11"/>
+            <x v="33"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="17"/>
+            <x v="4"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="18"/>
+            <x v="3"/>
           </reference>
           <reference field="8" count="1">
-            <x v="15"/>
+            <x v="38"/>
           </reference>
         </references>
       </pivotArea>
@@ -24536,28 +24705,28 @@
             <x v="3"/>
           </reference>
           <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
             <x v="5"/>
           </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="90"/>
-          </reference>
           <reference field="3" count="1" selected="0">
-            <x v="71"/>
+            <x v="20"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="14"/>
+            <x v="21"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="5"/>
+            <x v="11"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="3"/>
+            <x v="17"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="6"/>
+            <x v="18"/>
           </reference>
           <reference field="8" count="1">
-            <x v="3"/>
+            <x v="15"/>
           </reference>
         </references>
       </pivotArea>
@@ -24569,28 +24738,28 @@
             <x v="3"/>
           </reference>
           <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="90"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="71"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
             <x v="6"/>
           </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="40"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="40"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="18"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="33"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="23"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="22"/>
-          </reference>
           <reference field="8" count="1">
-            <x v="49"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -24602,28 +24771,28 @@
             <x v="3"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="7"/>
+            <x v="6"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="53"/>
+            <x v="40"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="35"/>
+            <x v="40"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="40"/>
+            <x v="18"/>
           </reference>
           <reference field="5" count="1" selected="0">
             <x v="33"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="12"/>
+            <x v="23"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="31"/>
+            <x v="22"/>
           </reference>
           <reference field="8" count="1">
-            <x v="32"/>
+            <x v="49"/>
           </reference>
         </references>
       </pivotArea>
@@ -24635,28 +24804,28 @@
             <x v="3"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="11"/>
+            <x v="7"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="58"/>
+            <x v="53"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="37"/>
+            <x v="35"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="70"/>
+            <x v="40"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="29"/>
+            <x v="33"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="42"/>
+            <x v="12"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="57"/>
+            <x v="31"/>
           </reference>
           <reference field="8" count="1">
-            <x v="64"/>
+            <x v="32"/>
           </reference>
         </references>
       </pivotArea>
@@ -24671,25 +24840,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="31"/>
+            <x v="58"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="4"/>
+            <x v="37"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="37"/>
+            <x v="70"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="34"/>
+            <x v="29"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="6"/>
+            <x v="42"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="27"/>
+            <x v="57"/>
           </reference>
           <reference field="8" count="1">
-            <x v="34"/>
+            <x v="64"/>
           </reference>
         </references>
       </pivotArea>
@@ -24704,25 +24873,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="42"/>
+            <x v="31"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="2"/>
+            <x v="4"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="62"/>
+            <x v="37"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="5"/>
+            <x v="34"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="30"/>
+            <x v="6"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="38"/>
+            <x v="27"/>
           </reference>
           <reference field="8" count="1">
-            <x v="70"/>
+            <x v="34"/>
           </reference>
         </references>
       </pivotArea>
@@ -24737,25 +24906,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="87"/>
+            <x v="42"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="52"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="81"/>
+            <x v="62"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="57"/>
+            <x v="5"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="15"/>
+            <x v="30"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="35"/>
+            <x v="38"/>
           </reference>
           <reference field="8" count="1">
-            <x v="101"/>
+            <x v="70"/>
           </reference>
         </references>
       </pivotArea>
@@ -24770,25 +24939,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="55"/>
+            <x v="87"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="45"/>
+            <x v="52"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="93"/>
+            <x v="81"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="52"/>
+            <x v="57"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="5"/>
+            <x v="15"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="4"/>
+            <x v="35"/>
           </reference>
           <reference field="8" count="1">
-            <x v="40"/>
+            <x v="101"/>
           </reference>
         </references>
       </pivotArea>
@@ -24797,31 +24966,31 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="9">
           <reference field="0" count="1" selected="0">
-            <x v="4"/>
+            <x v="3"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="0"/>
+            <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
             <x v="55"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="61"/>
+            <x v="45"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="9"/>
+            <x v="93"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="43"/>
+            <x v="52"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="6"/>
+            <x v="5"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="1"/>
+            <x v="4"/>
           </reference>
           <reference field="8" count="1">
-            <x v="22"/>
+            <x v="40"/>
           </reference>
         </references>
       </pivotArea>
@@ -24833,28 +25002,28 @@
             <x v="4"/>
           </reference>
           <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="55"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="61"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="43"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="35"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="46"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="53"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="54"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="28"/>
-          </reference>
           <reference field="8" count="1">
-            <x v="3"/>
+            <x v="22"/>
           </reference>
         </references>
       </pivotArea>
@@ -24869,25 +25038,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="85"/>
+            <x v="35"/>
           </reference>
           <reference field="3" count="1" selected="0">
+            <x v="46"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="53"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="54"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
             <x v="7"/>
           </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="98"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="62"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="30"/>
-          </reference>
           <reference field="7" count="1" selected="0">
-            <x v="35"/>
+            <x v="28"/>
           </reference>
           <reference field="8" count="1">
-            <x v="80"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -24902,25 +25071,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="18"/>
+            <x v="85"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="15"/>
+            <x v="7"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="76"/>
+            <x v="98"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="8"/>
+            <x v="62"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="6"/>
+            <x v="30"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="2"/>
+            <x v="35"/>
           </reference>
           <reference field="8" count="1">
-            <x v="20"/>
+            <x v="80"/>
           </reference>
         </references>
       </pivotArea>
@@ -24932,28 +25101,28 @@
             <x v="4"/>
           </reference>
           <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="18"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="76"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
             <x v="2"/>
           </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="33"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="33"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="34"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="29"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="21"/>
-          </reference>
           <reference field="8" count="1">
-            <x v="4"/>
+            <x v="20"/>
           </reference>
         </references>
       </pivotArea>
@@ -24965,28 +25134,28 @@
             <x v="4"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="3"/>
+            <x v="2"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="59"/>
+            <x v="33"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="64"/>
+            <x v="33"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="7"/>
+            <x v="34"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="40"/>
+            <x v="29"/>
           </reference>
           <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="21"/>
+          </reference>
+          <reference field="8" count="1">
             <x v="4"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="8" count="1">
-            <x v="12"/>
           </reference>
         </references>
       </pivotArea>
@@ -25001,25 +25170,25 @@
             <x v="3"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="13"/>
+            <x v="59"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="15"/>
+            <x v="64"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="6"/>
+            <x v="7"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="3"/>
+            <x v="40"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="20"/>
+            <x v="4"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="19"/>
+            <x v="2"/>
           </reference>
           <reference field="8" count="1">
-            <x v="7"/>
+            <x v="12"/>
           </reference>
         </references>
       </pivotArea>
@@ -25031,28 +25200,28 @@
             <x v="4"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="4"/>
+            <x v="3"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="44"/>
+            <x v="13"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="31"/>
+            <x v="15"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="32"/>
+            <x v="6"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="29"/>
+            <x v="3"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="6"/>
+            <x v="20"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="0"/>
+            <x v="19"/>
           </reference>
           <reference field="8" count="1">
-            <x v="48"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -25064,28 +25233,28 @@
             <x v="4"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="5"/>
+            <x v="4"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="35"/>
+            <x v="44"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="23"/>
+            <x v="31"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="92"/>
+            <x v="32"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="53"/>
+            <x v="29"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="0"/>
+            <x v="6"/>
           </reference>
           <reference field="7" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="8" count="1">
-            <x v="0"/>
+            <x v="48"/>
           </reference>
         </references>
       </pivotArea>
@@ -25100,25 +25269,25 @@
             <x v="5"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="103"/>
+            <x v="35"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="72"/>
+            <x v="23"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="51"/>
+            <x v="92"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="11"/>
+            <x v="53"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="2"/>
+            <x v="0"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="21"/>
+            <x v="0"/>
           </reference>
           <reference field="8" count="1">
-            <x v="4"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -25130,28 +25299,28 @@
             <x v="4"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="7"/>
+            <x v="5"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="25"/>
+            <x v="103"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="5"/>
+            <x v="72"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="8"/>
+            <x v="51"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="17"/>
+            <x v="11"/>
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="2"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="1"/>
+            <x v="21"/>
           </reference>
           <reference field="8" count="1">
-            <x v="3"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -25163,28 +25332,28 @@
             <x v="4"/>
           </reference>
           <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="25"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
             <x v="8"/>
           </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="38"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="45"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="87"/>
-          </reference>
           <reference field="5" count="1" selected="0">
-            <x v="45"/>
+            <x v="17"/>
           </reference>
           <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="43"/>
-          </reference>
           <reference field="8" count="1">
-            <x v="51"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -25199,25 +25368,25 @@
             <x v="8"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="11"/>
+            <x v="38"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="15"/>
+            <x v="45"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="13"/>
+            <x v="87"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="10"/>
+            <x v="45"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="0"/>
+            <x v="43"/>
           </reference>
           <reference field="8" count="1">
-            <x v="6"/>
+            <x v="51"/>
           </reference>
         </references>
       </pivotArea>
@@ -25232,25 +25401,25 @@
             <x v="8"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="101"/>
+            <x v="11"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="7"/>
+            <x v="15"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="3"/>
+            <x v="13"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="3"/>
+            <x v="10"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="5"/>
+            <x v="2"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="2"/>
+            <x v="0"/>
           </reference>
           <reference field="8" count="1">
-            <x v="16"/>
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
@@ -25262,28 +25431,28 @@
             <x v="4"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="9"/>
+            <x v="8"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="59"/>
+            <x v="101"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="50"/>
+            <x v="7"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="63"/>
+            <x v="3"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="10"/>
+            <x v="3"/>
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="5"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="8" count="1">
-            <x v="22"/>
+            <x v="16"/>
           </reference>
         </references>
       </pivotArea>
@@ -25298,25 +25467,25 @@
             <x v="9"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="7"/>
+            <x v="59"/>
           </reference>
           <reference field="3" count="1" selected="0">
+            <x v="50"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="63"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
             <x v="5"/>
           </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="15"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="7"/>
-          </reference>
           <reference field="7" count="1" selected="0">
-            <x v="8"/>
+            <x v="0"/>
           </reference>
           <reference field="8" count="1">
-            <x v="13"/>
+            <x v="22"/>
           </reference>
         </references>
       </pivotArea>
@@ -25328,28 +25497,28 @@
             <x v="4"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="10"/>
+            <x v="9"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="76"/>
+            <x v="7"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="56"/>
+            <x v="5"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="68"/>
+            <x v="5"/>
           </reference>
           <reference field="5" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
             <x v="7"/>
           </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="9"/>
-          </reference>
           <reference field="7" count="1" selected="0">
-            <x v="25"/>
+            <x v="8"/>
           </reference>
           <reference field="8" count="1">
-            <x v="69"/>
+            <x v="13"/>
           </reference>
         </references>
       </pivotArea>
@@ -25364,25 +25533,25 @@
             <x v="10"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="80"/>
+            <x v="76"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="43"/>
+            <x v="56"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="13"/>
+            <x v="68"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="0"/>
+            <x v="7"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="6"/>
+            <x v="9"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="22"/>
+            <x v="25"/>
           </reference>
           <reference field="8" count="1">
-            <x v="83"/>
+            <x v="69"/>
           </reference>
         </references>
       </pivotArea>
@@ -25394,28 +25563,28 @@
             <x v="4"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="11"/>
+            <x v="10"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="80"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="26"/>
+            <x v="43"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="30"/>
+            <x v="13"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="26"/>
+            <x v="0"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="19"/>
+            <x v="6"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="17"/>
+            <x v="22"/>
           </reference>
           <reference field="8" count="1">
-            <x v="23"/>
+            <x v="83"/>
           </reference>
         </references>
       </pivotArea>
@@ -25430,25 +25599,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="68"/>
+            <x v="2"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="56"/>
+            <x v="26"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="43"/>
+            <x v="30"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="44"/>
+            <x v="26"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="2"/>
+            <x v="19"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="2"/>
+            <x v="17"/>
           </reference>
           <reference field="8" count="1">
-            <x v="31"/>
+            <x v="23"/>
           </reference>
         </references>
       </pivotArea>
@@ -25463,25 +25632,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="16"/>
+            <x v="68"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="41"/>
+            <x v="56"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="14"/>
+            <x v="43"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="4"/>
+            <x v="44"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="6"/>
+            <x v="2"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="8"/>
+            <x v="2"/>
           </reference>
           <reference field="8" count="1">
-            <x v="11"/>
+            <x v="31"/>
           </reference>
         </references>
       </pivotArea>
@@ -25496,25 +25665,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="50"/>
+            <x v="16"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="26"/>
+            <x v="41"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="81"/>
+            <x v="14"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="40"/>
+            <x v="4"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="35"/>
+            <x v="6"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="27"/>
+            <x v="8"/>
           </reference>
           <reference field="8" count="1">
-            <x v="107"/>
+            <x v="11"/>
           </reference>
         </references>
       </pivotArea>
@@ -25529,25 +25698,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="105"/>
+            <x v="50"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="69"/>
+            <x v="26"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="52"/>
+            <x v="81"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="55"/>
+            <x v="40"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="9"/>
+            <x v="35"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="23"/>
+            <x v="27"/>
           </reference>
           <reference field="8" count="1">
-            <x v="45"/>
+            <x v="107"/>
           </reference>
         </references>
       </pivotArea>
@@ -25556,31 +25725,31 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="9">
           <reference field="0" count="1" selected="0">
-            <x v="5"/>
+            <x v="4"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="0"/>
+            <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="16"/>
+            <x v="105"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="75"/>
+            <x v="69"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="86"/>
+            <x v="52"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="42"/>
+            <x v="55"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="48"/>
+            <x v="9"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="20"/>
+            <x v="23"/>
           </reference>
           <reference field="8" count="1">
-            <x v="72"/>
+            <x v="45"/>
           </reference>
         </references>
       </pivotArea>
@@ -25592,28 +25761,28 @@
             <x v="5"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="61"/>
+            <x v="16"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="22"/>
+            <x v="75"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="90"/>
+            <x v="86"/>
           </reference>
           <reference field="5" count="1" selected="0">
+            <x v="42"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="48"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
             <x v="20"/>
           </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="4"/>
-          </reference>
           <reference field="8" count="1">
-            <x v="109"/>
+            <x v="72"/>
           </reference>
         </references>
       </pivotArea>
@@ -25628,25 +25797,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="14"/>
+            <x v="61"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="12"/>
+            <x v="22"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="17"/>
+            <x v="90"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="18"/>
+            <x v="20"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="10"/>
+            <x v="11"/>
           </reference>
           <reference field="7" count="1" selected="0">
             <x v="4"/>
           </reference>
           <reference field="8" count="1">
-            <x v="28"/>
+            <x v="109"/>
           </reference>
         </references>
       </pivotArea>
@@ -25661,25 +25830,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="46"/>
+            <x v="14"/>
           </reference>
           <reference field="3" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="18"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
             <x v="10"/>
           </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="39"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="25"/>
-          </reference>
           <reference field="7" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="8" count="1">
             <x v="28"/>
-          </reference>
-          <reference field="8" count="1">
-            <x v="22"/>
           </reference>
         </references>
       </pivotArea>
@@ -25691,28 +25860,28 @@
             <x v="5"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="12"/>
+            <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="63"/>
+            <x v="46"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="14"/>
+            <x v="10"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="7"/>
+            <x v="39"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="4"/>
+            <x v="8"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="7"/>
+            <x v="25"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="2"/>
+            <x v="28"/>
           </reference>
           <reference field="8" count="1">
-            <x v="89"/>
+            <x v="22"/>
           </reference>
         </references>
       </pivotArea>
@@ -25724,28 +25893,28 @@
             <x v="5"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="3"/>
+            <x v="12"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="9"/>
+            <x v="63"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="16"/>
+            <x v="14"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="12"/>
+            <x v="7"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="8"/>
+            <x v="4"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="15"/>
+            <x v="7"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="14"/>
+            <x v="2"/>
           </reference>
           <reference field="8" count="1">
-            <x v="11"/>
+            <x v="89"/>
           </reference>
         </references>
       </pivotArea>
@@ -25760,25 +25929,25 @@
             <x v="3"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="89"/>
+            <x v="9"/>
           </reference>
           <reference field="3" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
             <x v="8"/>
           </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="34"/>
-          </reference>
           <reference field="6" count="1" selected="0">
-            <x v="33"/>
+            <x v="15"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="47"/>
+            <x v="14"/>
           </reference>
           <reference field="8" count="1">
-            <x v="73"/>
+            <x v="11"/>
           </reference>
         </references>
       </pivotArea>
@@ -25793,25 +25962,25 @@
             <x v="3"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="21"/>
+            <x v="89"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="16"/>
+            <x v="8"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="7"/>
+            <x v="6"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="2"/>
+            <x v="34"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="23"/>
+            <x v="33"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="34"/>
+            <x v="47"/>
           </reference>
           <reference field="8" count="1">
-            <x v="71"/>
+            <x v="73"/>
           </reference>
         </references>
       </pivotArea>
@@ -25826,25 +25995,25 @@
             <x v="3"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="27"/>
+            <x v="21"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="28"/>
+            <x v="16"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="29"/>
+            <x v="7"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="25"/>
+            <x v="2"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="5"/>
+            <x v="23"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="2"/>
+            <x v="34"/>
           </reference>
           <reference field="8" count="1">
-            <x v="16"/>
+            <x v="71"/>
           </reference>
         </references>
       </pivotArea>
@@ -25856,28 +26025,28 @@
             <x v="5"/>
           </reference>
           <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="28"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="29"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="25"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
             <x v="5"/>
           </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="67"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="44"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="47"/>
-          </reference>
           <reference field="7" count="1" selected="0">
-            <x v="20"/>
+            <x v="2"/>
           </reference>
           <reference field="8" count="1">
-            <x v="66"/>
+            <x v="16"/>
           </reference>
         </references>
       </pivotArea>
@@ -25892,25 +26061,25 @@
             <x v="5"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="55"/>
+            <x v="11"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="30"/>
+            <x v="67"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="59"/>
+            <x v="44"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="3"/>
+            <x v="7"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="7"/>
+            <x v="47"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="1"/>
+            <x v="20"/>
           </reference>
           <reference field="8" count="1">
-            <x v="93"/>
+            <x v="66"/>
           </reference>
         </references>
       </pivotArea>
@@ -25922,28 +26091,28 @@
             <x v="5"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="10"/>
+            <x v="5"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="82"/>
+            <x v="55"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="8"/>
+            <x v="30"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="34"/>
+            <x v="59"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="0"/>
+            <x v="3"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="2"/>
+            <x v="7"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="41"/>
+            <x v="1"/>
           </reference>
           <reference field="8" count="1">
-            <x v="52"/>
+            <x v="93"/>
           </reference>
         </references>
       </pivotArea>
@@ -25958,25 +26127,25 @@
             <x v="10"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="43"/>
+            <x v="82"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="37"/>
+            <x v="8"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="41"/>
+            <x v="34"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="8"/>
+            <x v="0"/>
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="2"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="0"/>
+            <x v="41"/>
           </reference>
           <reference field="8" count="1">
-            <x v="6"/>
+            <x v="52"/>
           </reference>
         </references>
       </pivotArea>
@@ -25988,19 +26157,19 @@
             <x v="5"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="11"/>
+            <x v="10"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="73"/>
+            <x v="43"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="3"/>
+            <x v="37"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="72"/>
+            <x v="41"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="18"/>
+            <x v="8"/>
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="2"/>
@@ -26024,25 +26193,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="84"/>
+            <x v="73"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="73"/>
+            <x v="3"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="91"/>
+            <x v="72"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="48"/>
+            <x v="18"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="34"/>
+            <x v="2"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="55"/>
+            <x v="0"/>
           </reference>
           <reference field="8" count="1">
-            <x v="60"/>
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
@@ -26057,25 +26226,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="50"/>
+            <x v="84"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="10"/>
+            <x v="73"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="12"/>
+            <x v="91"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="46"/>
+            <x v="48"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="46"/>
+            <x v="34"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="58"/>
+            <x v="55"/>
           </reference>
           <reference field="8" count="1">
-            <x v="105"/>
+            <x v="60"/>
           </reference>
         </references>
       </pivotArea>
@@ -26090,25 +26259,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="104"/>
+            <x v="50"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="53"/>
+            <x v="10"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="31"/>
+            <x v="12"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="28"/>
+            <x v="46"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="0"/>
+            <x v="46"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="3"/>
+            <x v="58"/>
           </reference>
           <reference field="8" count="1">
-            <x v="0"/>
+            <x v="105"/>
           </reference>
         </references>
       </pivotArea>
@@ -26123,25 +26292,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="55"/>
+            <x v="104"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="68"/>
+            <x v="53"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="83"/>
+            <x v="31"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="51"/>
+            <x v="28"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="35"/>
+            <x v="0"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="48"/>
+            <x v="3"/>
           </reference>
           <reference field="8" count="1">
-            <x v="81"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -26156,25 +26325,25 @@
             <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="56"/>
+            <x v="55"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="63"/>
+            <x v="68"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="71"/>
+            <x v="83"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="2"/>
+            <x v="51"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="5"/>
+            <x v="35"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="21"/>
+            <x v="48"/>
           </reference>
           <reference field="8" count="1">
-            <x v="85"/>
+            <x v="81"/>
           </reference>
         </references>
       </pivotArea>
@@ -26183,31 +26352,31 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="9">
           <reference field="0" count="1" selected="0">
-            <x v="6"/>
+            <x v="5"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="1"/>
+            <x v="11"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="62"/>
+            <x v="56"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="8"/>
+            <x v="63"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="66"/>
+            <x v="71"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="28"/>
+            <x v="2"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="3"/>
+            <x v="5"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="1"/>
+            <x v="21"/>
           </reference>
           <reference field="8" count="1">
-            <x v="8"/>
+            <x v="85"/>
           </reference>
         </references>
       </pivotArea>
@@ -26222,25 +26391,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="68"/>
+            <x v="62"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="39"/>
+            <x v="8"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="88"/>
+            <x v="66"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="56"/>
+            <x v="28"/>
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
           <reference field="8" count="1">
-            <x v="39"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -26255,25 +26424,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="75"/>
+            <x v="68"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="22"/>
+            <x v="39"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="80"/>
+            <x v="88"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="7"/>
+            <x v="56"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="35"/>
+            <x v="3"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="49"/>
+            <x v="0"/>
           </reference>
           <reference field="8" count="1">
-            <x v="79"/>
+            <x v="39"/>
           </reference>
         </references>
       </pivotArea>
@@ -26288,25 +26457,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
+            <x v="75"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="22"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
             <x v="80"/>
           </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="20"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
+          <reference field="5" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="35"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="49"/>
+          </reference>
+          <reference field="8" count="1">
             <x v="79"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="30"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="8" count="1">
-            <x v="56"/>
           </reference>
         </references>
       </pivotArea>
@@ -26321,25 +26490,25 @@
             <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="16"/>
+            <x v="80"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="54"/>
+            <x v="20"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="74"/>
+            <x v="79"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="51"/>
+            <x v="30"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="11"/>
+            <x v="3"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="11"/>
+            <x v="4"/>
           </reference>
           <reference field="8" count="1">
-            <x v="90"/>
+            <x v="56"/>
           </reference>
         </references>
       </pivotArea>
@@ -26351,28 +26520,28 @@
             <x v="6"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="6"/>
+            <x v="16"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="8"/>
+            <x v="54"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="7"/>
+            <x v="74"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="12"/>
+            <x v="51"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="4"/>
+            <x v="11"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="8"/>
+            <x v="11"/>
           </reference>
           <reference field="8" count="1">
-            <x v="5"/>
+            <x v="90"/>
           </reference>
         </references>
       </pivotArea>
@@ -26384,28 +26553,28 @@
             <x v="6"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="3"/>
+            <x v="2"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="45"/>
+            <x v="6"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="46"/>
+            <x v="8"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="20"/>
+            <x v="7"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="0"/>
+            <x v="12"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="2"/>
+            <x v="4"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="2"/>
+            <x v="8"/>
           </reference>
           <reference field="8" count="1">
-            <x v="31"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -26417,28 +26586,28 @@
             <x v="6"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="5"/>
+            <x v="3"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="47"/>
+            <x v="45"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="47"/>
+            <x v="46"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="54"/>
+            <x v="20"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="38"/>
+            <x v="0"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="22"/>
+            <x v="2"/>
           </reference>
           <reference field="8" count="1">
-            <x v="0"/>
+            <x v="31"/>
           </reference>
         </references>
       </pivotArea>
@@ -26450,28 +26619,28 @@
             <x v="6"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="7"/>
+            <x v="5"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="57"/>
+            <x v="47"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="19"/>
+            <x v="47"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="49"/>
+            <x v="54"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="33"/>
+            <x v="38"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="5"/>
+            <x v="0"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="21"/>
+            <x v="22"/>
           </reference>
           <reference field="8" count="1">
-            <x v="85"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -26483,28 +26652,28 @@
             <x v="6"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="9"/>
+            <x v="7"/>
           </reference>
           <reference field="2" count="1" selected="0">
+            <x v="57"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="19"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="49"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="33"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
             <x v="21"/>
           </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="5" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="13"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="9"/>
-          </reference>
           <reference field="8" count="1">
-            <x v="26"/>
+            <x v="85"/>
           </reference>
         </references>
       </pivotArea>
@@ -26516,63 +26685,96 @@
             <x v="6"/>
           </reference>
           <reference field="1" count="1" selected="0">
-            <x v="11"/>
+            <x v="9"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="36"/>
+            <x v="21"/>
           </reference>
           <reference field="3" count="1" selected="0">
-            <x v="11"/>
+            <x v="7"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="65"/>
+            <x v="3"/>
           </reference>
           <reference field="5" count="1" selected="0">
-            <x v="0"/>
+            <x v="3"/>
           </reference>
           <reference field="6" count="1" selected="0">
-            <x v="8"/>
+            <x v="13"/>
           </reference>
           <reference field="7" count="1" selected="0">
-            <x v="5"/>
+            <x v="9"/>
           </reference>
           <reference field="8" count="1">
-            <x v="44"/>
+            <x v="26"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="9">
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="36"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="65"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="8" count="1">
+            <x v="44"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="15">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="14">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="13">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="12">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="3"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="11">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="4"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="10">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="5"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="9">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="6"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="8">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="7"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="7">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="8"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="6">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="9"/>
     </format>
   </formats>
@@ -26660,7 +26862,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54AD4DD0-265A-4C7F-B5F9-2F1502BA6D96}" name="PivotTable1" cacheId="192" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Month">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54AD4DD0-265A-4C7F-B5F9-2F1502BA6D96}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Month">
   <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" nonAutoSortDefault="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -26707,7 +26909,7 @@
     <dataField name="Average of Mortality Rate Change Pct" fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="16">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -26816,7 +27018,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FDED2B6C-740C-4411-86C8-9190051FDAD9}" name="PivotTable3" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Region">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FDED2B6C-740C-4411-86C8-9190051FDAD9}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Region">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -27022,7 +27224,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1F6CB82-78F1-42A4-916A-9CA4E00E40E3}" name="PivotTable4" cacheId="204" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1F6CB82-78F1-42A4-916A-9CA4E00E40E3}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -27058,10 +27260,10 @@
     <dataField name="Average of Team Size" fld="3" subtotal="average" baseField="0" baseItem="1" numFmtId="1"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="15">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="3">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -27070,7 +27272,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="2">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -27079,7 +27281,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -27164,7 +27366,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F02F9D11-6C4E-4156-AF68-454A1083CBB6}" name="PivotTable1" cacheId="207" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F02F9D11-6C4E-4156-AF68-454A1083CBB6}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -27302,7 +27504,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EF47661-9529-4FC1-B26E-76C7C971B226}" name="PivotTable2" cacheId="210" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Status">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EF47661-9529-4FC1-B26E-76C7C971B226}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Status">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -27761,7 +27963,7 @@
     <tableColumn id="13" xr3:uid="{342CA749-EF37-4E78-A0C9-D97732975721}" name="HER System"/>
     <tableColumn id="17" xr3:uid="{C83197BA-1540-4F02-9F68-52E85F16EAC7}" name="Start Date"/>
     <tableColumn id="18" xr3:uid="{72E87DED-2EED-4128-BF2D-D97BD52540B6}" name="End Date"/>
-    <tableColumn id="4" xr3:uid="{285AF62E-7553-41C1-B537-8DD3E0CA347D}" name="Month" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{285AF62E-7553-41C1-B537-8DD3E0CA347D}" name="Month" dataDxfId="0">
       <calculatedColumnFormula>TEXT(J2, "mmmm")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{28521DBC-4AB6-4A8A-87E3-B5B783BBFBBA}" name="Duration Days"/>
@@ -28410,7 +28612,7 @@
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4">
         <v>17</v>
       </c>
     </row>
@@ -28418,7 +28620,7 @@
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5">
         <v>157</v>
       </c>
     </row>
@@ -28426,7 +28628,7 @@
       <c r="A6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6">
         <v>13</v>
       </c>
     </row>
@@ -28434,7 +28636,7 @@
       <c r="A7" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7">
         <v>187</v>
       </c>
     </row>
@@ -28449,10 +28651,10 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28461,35 +28663,35 @@
     <col min="6" max="6" width="33.7109375" customWidth="1"/>
     <col min="7" max="7" width="48.28515625" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
     <col min="10" max="10" width="50.5703125" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" customWidth="1"/>
     <col min="13" max="13" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="30">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="33">
         <f>AVERAGE(Data!V2:V188)</f>
         <v>768.41711229946509</v>
       </c>
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
-      <c r="J1" s="31">
+      <c r="J1" s="34">
         <f>AVERAGE(Data!Z165:Z188)</f>
         <v>2.8729166666666668</v>
       </c>
       <c r="K1" s="21"/>
       <c r="L1" s="13"/>
-      <c r="M1" s="31">
+      <c r="M1" s="34">
         <f>AVERAGE(Data!S2:S188)</f>
         <v>1.3529411764705883</v>
       </c>
@@ -28507,13 +28709,13 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="30"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="31"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="14"/>
       <c r="L2" s="13"/>
-      <c r="M2" s="31"/>
+      <c r="M2" s="34"/>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
@@ -28528,12 +28730,12 @@
       <c r="D3" s="13"/>
       <c r="E3" s="26"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="36" t="s">
         <v>366</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="35" t="s">
         <v>362</v>
       </c>
       <c r="K3" s="27"/>
@@ -28548,6 +28750,7 @@
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
     </row>
+    <row r="4" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="G1:G2"/>
@@ -28556,42 +28759,13 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="7" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J1" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{6A0E6D77-8344-4C30-807C-1F21E68B3475}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Overview Dashboard'!V166:V189</xm:f>
-              <xm:sqref>I1</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{B33D45A4-8C6F-46FF-BDEA-FA4D102EF091}">
-          <x14:colorSeries theme="0"/>
-          <x14:colorNegative theme="1" tint="0.249977111117893"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="1" tint="0.249977111117893"/>
-          <x14:colorFirst theme="1" tint="0.249977111117893"/>
-          <x14:colorLast theme="1" tint="0.249977111117893"/>
-          <x14:colorHigh theme="1" tint="0.249977111117893"/>
-          <x14:colorLow theme="1" tint="0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Data!V2:V188</xm:f>
-              <xm:sqref>G1</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{34E93F54-C7EC-430D-A8F3-4B69DA8D5B6C}">
           <x14:colorSeries theme="3" tint="0.34998626667073579"/>
           <x14:colorNegative theme="0" tint="-0.249977111117893"/>
@@ -28608,8 +28782,8 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{2BCBD6E0-9161-4AE6-8696-A5EA61CB6A13}">
-          <x14:colorSeries theme="0"/>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{6A0E6D77-8344-4C30-807C-1F21E68B3475}">
+          <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
           <x14:colorMarkers rgb="FFD00000"/>
@@ -28619,24 +28793,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Data!Z165:Z188</xm:f>
-              <xm:sqref>J1</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{754C09F7-DAA4-4F0B-B0F6-D1FA3F65655A}">
-          <x14:colorSeries theme="0"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Data!S2:S188</xm:f>
-              <xm:sqref>M1</xm:sqref>
+              <xm:f>'Overview Dashboard'!V166:V189</xm:f>
+              <xm:sqref>I1</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -28782,7 +28940,7 @@
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4">
         <v>17</v>
       </c>
     </row>
@@ -28790,7 +28948,7 @@
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5">
         <v>157</v>
       </c>
     </row>
@@ -28798,7 +28956,7 @@
       <c r="A6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6">
         <v>13</v>
       </c>
     </row>
@@ -28806,7 +28964,7 @@
       <c r="A7" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7">
         <v>187</v>
       </c>
     </row>
@@ -28842,7 +29000,7 @@
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="29">
         <v>0.33846354336699896</v>
       </c>
     </row>
@@ -28850,7 +29008,7 @@
       <c r="A5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="29">
         <v>0.35667425368512323</v>
       </c>
     </row>
@@ -28858,7 +29016,7 @@
       <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="29">
         <v>0.35714502168233553</v>
       </c>
     </row>
@@ -28866,7 +29024,7 @@
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="29">
         <v>0.39134930511137128</v>
       </c>
     </row>
@@ -28874,7 +29032,7 @@
       <c r="A8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="29">
         <v>0.40679987634045206</v>
       </c>
     </row>
@@ -28882,7 +29040,7 @@
       <c r="A9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="29">
         <v>0.43258660743000937</v>
       </c>
     </row>
@@ -28890,7 +29048,7 @@
       <c r="A10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="29">
         <v>0.45586485234466034</v>
       </c>
     </row>
@@ -28898,7 +29056,7 @@
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="29">
         <v>0.48295049927816297</v>
       </c>
     </row>
@@ -28906,7 +29064,7 @@
       <c r="A12" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="29">
         <v>0.40860179976625122</v>
       </c>
     </row>
@@ -28961,14 +29119,13 @@
       <c r="A5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32">
+      <c r="C5">
         <v>8</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5">
         <v>9</v>
       </c>
     </row>
@@ -28976,12 +29133,10 @@
       <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32">
+      <c r="C6">
         <v>11</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32">
+      <c r="E6">
         <v>11</v>
       </c>
     </row>
@@ -28989,14 +29144,13 @@
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7">
         <v>15</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32">
+      <c r="E7">
         <v>18</v>
       </c>
     </row>
@@ -29004,16 +29158,16 @@
       <c r="A8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8">
         <v>19</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8">
         <v>22</v>
       </c>
     </row>
@@ -29021,16 +29175,16 @@
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9">
         <v>19</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9">
         <v>22</v>
       </c>
     </row>
@@ -29038,16 +29192,16 @@
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10">
         <v>28</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10">
         <v>35</v>
       </c>
     </row>
@@ -29055,16 +29209,16 @@
       <c r="A11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11">
         <v>28</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11">
         <v>36</v>
       </c>
     </row>
@@ -29072,16 +29226,16 @@
       <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12">
         <v>29</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12">
         <v>34</v>
       </c>
     </row>
@@ -29089,16 +29243,16 @@
       <c r="A13" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13">
         <v>17</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13">
         <v>157</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13">
         <v>13</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13">
         <v>187</v>
       </c>
     </row>
@@ -29112,7 +29266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512F3492-1D27-4D39-8162-BE163B372F6F}">
   <dimension ref="A1:Z188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="D18" sqref="A2:Z188"/>
     </sheetView>
   </sheetViews>
@@ -44778,7 +44932,7 @@
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4">
         <v>35</v>
       </c>
     </row>
@@ -44786,7 +44940,7 @@
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5">
         <v>80</v>
       </c>
     </row>
@@ -44794,7 +44948,7 @@
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6">
         <v>15</v>
       </c>
     </row>
@@ -44802,7 +44956,7 @@
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7">
         <v>57</v>
       </c>
     </row>
@@ -44810,7 +44964,7 @@
       <c r="A8" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8">
         <v>187</v>
       </c>
     </row>
@@ -44863,34 +45017,34 @@
       <c r="L1" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="32" t="s">
         <v>368</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="32" t="s">
         <v>371</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="32" t="s">
         <v>374</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="32" t="s">
         <v>376</v>
       </c>
       <c r="L3"/>
@@ -48371,7 +48525,7 @@
       <c r="B7" s="11">
         <v>-0.49197860962566847</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7">
         <v>-2.1090909090909091E-2</v>
       </c>
     </row>
@@ -50004,7 +50158,7 @@
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4">
         <v>34</v>
       </c>
     </row>
@@ -50012,7 +50166,7 @@
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5">
         <v>88</v>
       </c>
     </row>
@@ -50020,7 +50174,7 @@
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6">
         <v>28</v>
       </c>
     </row>
@@ -50028,7 +50182,7 @@
       <c r="A7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7">
         <v>5</v>
       </c>
     </row>
@@ -50036,7 +50190,7 @@
       <c r="A8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8">
         <v>4</v>
       </c>
     </row>
@@ -50044,7 +50198,7 @@
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9">
         <v>28</v>
       </c>
     </row>
@@ -50052,7 +50206,7 @@
       <c r="A10" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10">
         <v>187</v>
       </c>
     </row>

--- a/EHR Project Management.xlsx
+++ b/EHR Project Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELZAHBIA\Desktop\Healthcare\EHR Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24339AA8-F56C-4045-A60C-60AB912EB92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A920D17-4C8B-45B9-9A11-4E109D3AE11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{02246CB4-0FB7-4852-9EAA-A27DC39A6FCF}"/>
   </bookViews>
@@ -35,23 +35,23 @@
     <definedName name="_xlchart.v1.1" hidden="1">'25'!$C$4:$C$190</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'25'!$D$3</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'25'!$D$4:$D$190</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Book1Table31" hidden="1">Table3[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Book1Table3" hidden="1">Table3[]</definedName>
     <definedName name="Slicer_Department">#N/A</definedName>
     <definedName name="Slicer_PM_Name">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId17"/>
-    <pivotCache cacheId="1" r:id="rId18"/>
-    <pivotCache cacheId="2" r:id="rId19"/>
-    <pivotCache cacheId="3" r:id="rId20"/>
-    <pivotCache cacheId="4" r:id="rId21"/>
-    <pivotCache cacheId="5" r:id="rId22"/>
-    <pivotCache cacheId="6" r:id="rId23"/>
-    <pivotCache cacheId="7" r:id="rId24"/>
-    <pivotCache cacheId="8" r:id="rId25"/>
-    <pivotCache cacheId="9" r:id="rId26"/>
-    <pivotCache cacheId="10" r:id="rId27"/>
+    <pivotCache cacheId="15" r:id="rId17"/>
+    <pivotCache cacheId="17" r:id="rId18"/>
+    <pivotCache cacheId="20" r:id="rId19"/>
+    <pivotCache cacheId="23" r:id="rId20"/>
+    <pivotCache cacheId="26" r:id="rId21"/>
+    <pivotCache cacheId="29" r:id="rId22"/>
+    <pivotCache cacheId="32" r:id="rId23"/>
+    <pivotCache cacheId="35" r:id="rId24"/>
+    <pivotCache cacheId="38" r:id="rId25"/>
+    <pivotCache cacheId="41" r:id="rId26"/>
+    <pivotCache cacheId="44" r:id="rId27"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
@@ -122,7 +122,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table3" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Book1Table31"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Book1Table3"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1546,7 +1546,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1594,16 +1594,17 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -15427,8 +15428,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9415607" y="4026477"/>
-              <a:ext cx="4236894" cy="3059545"/>
+              <a:off x="9418782" y="4081895"/>
+              <a:ext cx="4227080" cy="3105727"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -16014,9 +16015,865 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.332900925925" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{DEB35250-9F92-47B0-B6D6-540AB1CD5F84}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.393012731482" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{61F83278-9098-4756-83BD-305AD9CF1730}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
+    <cacheField name="[Table3].[Project Type].[Project Type]" caption="Project Type" numFmtId="0" hierarchy="4" level="1">
+      <sharedItems count="8">
+        <s v="Cybersecurity Hardening"/>
+        <s v="EHR Upgrade"/>
+        <s v="Equipment Procurement"/>
+        <s v="New Wing Construction"/>
+        <s v="Process Automation"/>
+        <s v="Quality Improvement"/>
+        <s v="Regulatory Compliance"/>
+        <s v="Telehealth Rollout"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" numFmtId="0" hierarchy="49" level="32767"/>
+    <cacheField name="[Table3].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="52">
+    <cacheHierarchy uniqueName="[Table3].[Project ID]" caption="Project ID" attribute="1" defaultMemberUniqueName="[Table3].[Project ID].[All]" allUniqueName="[Table3].[Project ID].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Table3].[Facility].[All]" allUniqueName="[Table3].[Facility].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Table3].[Region].[All]" allUniqueName="[Table3].[Region].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table3].[Project Type]" caption="Project Type" attribute="1" defaultMemberUniqueName="[Table3].[Project Type].[All]" allUniqueName="[Table3].[Project Type].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table3].[Priority]" caption="Priority" attribute="1" defaultMemberUniqueName="[Table3].[Priority].[All]" allUniqueName="[Table3].[Priority].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Table3].[Status].[All]" allUniqueName="[Table3].[Status].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[PM Name]" caption="PM Name" attribute="1" defaultMemberUniqueName="[Table3].[PM Name].[All]" allUniqueName="[Table3].[PM Name].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[HER System]" caption="HER System" attribute="1" defaultMemberUniqueName="[Table3].[HER System].[All]" allUniqueName="[Table3].[HER System].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Start Date]" caption="Start Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[Start Date].[All]" allUniqueName="[Table3].[Start Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[End Date]" caption="End Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[End Date].[All]" allUniqueName="[Table3].[End Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Table3].[Month].[All]" allUniqueName="[Table3].[Month].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Duration Days]" caption="Duration Days" attribute="1" defaultMemberUniqueName="[Table3].[Duration Days].[All]" allUniqueName="[Table3].[Duration Days].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Tasks Completed]" caption="Tasks Completed" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Completed].[All]" allUniqueName="[Table3].[Tasks Completed].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Tasks Total]" caption="Tasks Total" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Total].[All]" allUniqueName="[Table3].[Tasks Total].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Percent Complete]" caption="Percent Complete" attribute="1" defaultMemberUniqueName="[Table3].[Percent Complete].[All]" allUniqueName="[Table3].[Percent Complete].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Budget]" caption="Budget" attribute="1" defaultMemberUniqueName="[Table3].[Budget].[All]" allUniqueName="[Table3].[Budget].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[Table3].[Cost].[All]" allUniqueName="[Table3].[Cost].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Change Requests]" caption="Change Requests" attribute="1" defaultMemberUniqueName="[Table3].[Change Requests].[All]" allUniqueName="[Table3].[Change Requests].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Scope Creep Score]" caption="Scope Creep Score" attribute="1" defaultMemberUniqueName="[Table3].[Scope Creep Score].[All]" allUniqueName="[Table3].[Scope Creep Score].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Documentation Completeness]" caption="Documentation Completeness" attribute="1" defaultMemberUniqueName="[Table3].[Documentation Completeness].[All]" allUniqueName="[Table3].[Documentation Completeness].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Effort Hours]" caption="Effort Hours" attribute="1" defaultMemberUniqueName="[Table3].[Effort Hours].[All]" allUniqueName="[Table3].[Effort Hours].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Team Size]" caption="Team Size" attribute="1" defaultMemberUniqueName="[Table3].[Team Size].[All]" allUniqueName="[Table3].[Team Size].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Readmission Rate Change Pct]" caption="Readmission Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Readmission Rate Change Pct].[All]" allUniqueName="[Table3].[Readmission Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Mortality Rate Change Pct]" caption="Mortality Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Mortality Rate Change Pct].[All]" allUniqueName="[Table3].[Mortality Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Satisfaction Change Pts]" caption="Satisfaction Change Pts" attribute="1" defaultMemberUniqueName="[Table3].[Satisfaction Change Pts].[All]" allUniqueName="[Table3].[Satisfaction Change Pts].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[StartDate (Month)]" caption="StartDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month)].[All]" allUniqueName="[Table3].[StartDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[EndDate (Month)]" caption="EndDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month)].[All]" allUniqueName="[Table3].[EndDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[EndDate (Month Index)]" caption="EndDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month Index)].[All]" allUniqueName="[Table3].[EndDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Table3].[StartDate (Month Index)]" caption="StartDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month Index)].[All]" allUniqueName="[Table3].[StartDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table3]" caption="__XL_Count Table3" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Readmission Rate Change Pct]" caption="Sum of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Mortality Rate Change Pct]" caption="Sum of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="24"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Readmission Rate Change Pct]" caption="Average of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Mortality Rate Change Pct]" caption="Average of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="24"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Project ID]" caption="Count of Project ID" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Documentation Completeness]" caption="Sum of Documentation Completeness" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="20"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Budget]" caption="Sum of Budget" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="16"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="17"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Change Pts]" caption="Sum of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="25"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Satisfaction Change Pts]" caption="Average of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="25"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Effort Hours]" caption="Sum of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="21"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Effort Hours]" caption="Average of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="21"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Change Requests]" caption="Sum of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="18"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Change Requests]" caption="Average of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="18"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Team Size]" caption="Sum of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Team Size]" caption="Average of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Percent Complete]" caption="Sum of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="15"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="15"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Status]" caption="Count of Status" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Tasks Total]" caption="Sum of Tasks Total" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="14"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Table3" uniqueName="[Table3]" caption="Table3"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Table3" caption="Table3"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.393070949074" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{60513BF7-A092-480A-9ACA-91D7334EEBBC}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Sum of Budget]" caption="Sum of Budget" numFmtId="0" hierarchy="38" level="32767"/>
+    <cacheField name="[Measures].[Sum of Cost]" caption="Sum of Cost" numFmtId="0" hierarchy="39" level="32767"/>
+    <cacheField name="[Table3].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="52">
+    <cacheHierarchy uniqueName="[Table3].[Project ID]" caption="Project ID" attribute="1" defaultMemberUniqueName="[Table3].[Project ID].[All]" allUniqueName="[Table3].[Project ID].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Table3].[Facility].[All]" allUniqueName="[Table3].[Facility].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Table3].[Region].[All]" allUniqueName="[Table3].[Region].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table3].[Project Type]" caption="Project Type" attribute="1" defaultMemberUniqueName="[Table3].[Project Type].[All]" allUniqueName="[Table3].[Project Type].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Priority]" caption="Priority" attribute="1" defaultMemberUniqueName="[Table3].[Priority].[All]" allUniqueName="[Table3].[Priority].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Table3].[Status].[All]" allUniqueName="[Table3].[Status].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[PM Name]" caption="PM Name" attribute="1" defaultMemberUniqueName="[Table3].[PM Name].[All]" allUniqueName="[Table3].[PM Name].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[HER System]" caption="HER System" attribute="1" defaultMemberUniqueName="[Table3].[HER System].[All]" allUniqueName="[Table3].[HER System].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Start Date]" caption="Start Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[Start Date].[All]" allUniqueName="[Table3].[Start Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[End Date]" caption="End Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[End Date].[All]" allUniqueName="[Table3].[End Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Table3].[Month].[All]" allUniqueName="[Table3].[Month].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Duration Days]" caption="Duration Days" attribute="1" defaultMemberUniqueName="[Table3].[Duration Days].[All]" allUniqueName="[Table3].[Duration Days].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Tasks Completed]" caption="Tasks Completed" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Completed].[All]" allUniqueName="[Table3].[Tasks Completed].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Tasks Total]" caption="Tasks Total" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Total].[All]" allUniqueName="[Table3].[Tasks Total].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Percent Complete]" caption="Percent Complete" attribute="1" defaultMemberUniqueName="[Table3].[Percent Complete].[All]" allUniqueName="[Table3].[Percent Complete].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Budget]" caption="Budget" attribute="1" defaultMemberUniqueName="[Table3].[Budget].[All]" allUniqueName="[Table3].[Budget].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[Table3].[Cost].[All]" allUniqueName="[Table3].[Cost].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Change Requests]" caption="Change Requests" attribute="1" defaultMemberUniqueName="[Table3].[Change Requests].[All]" allUniqueName="[Table3].[Change Requests].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Scope Creep Score]" caption="Scope Creep Score" attribute="1" defaultMemberUniqueName="[Table3].[Scope Creep Score].[All]" allUniqueName="[Table3].[Scope Creep Score].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Documentation Completeness]" caption="Documentation Completeness" attribute="1" defaultMemberUniqueName="[Table3].[Documentation Completeness].[All]" allUniqueName="[Table3].[Documentation Completeness].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Effort Hours]" caption="Effort Hours" attribute="1" defaultMemberUniqueName="[Table3].[Effort Hours].[All]" allUniqueName="[Table3].[Effort Hours].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Team Size]" caption="Team Size" attribute="1" defaultMemberUniqueName="[Table3].[Team Size].[All]" allUniqueName="[Table3].[Team Size].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Readmission Rate Change Pct]" caption="Readmission Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Readmission Rate Change Pct].[All]" allUniqueName="[Table3].[Readmission Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Mortality Rate Change Pct]" caption="Mortality Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Mortality Rate Change Pct].[All]" allUniqueName="[Table3].[Mortality Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Satisfaction Change Pts]" caption="Satisfaction Change Pts" attribute="1" defaultMemberUniqueName="[Table3].[Satisfaction Change Pts].[All]" allUniqueName="[Table3].[Satisfaction Change Pts].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[StartDate (Month)]" caption="StartDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month)].[All]" allUniqueName="[Table3].[StartDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[EndDate (Month)]" caption="EndDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month)].[All]" allUniqueName="[Table3].[EndDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[EndDate (Month Index)]" caption="EndDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month Index)].[All]" allUniqueName="[Table3].[EndDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Table3].[StartDate (Month Index)]" caption="StartDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month Index)].[All]" allUniqueName="[Table3].[StartDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table3]" caption="__XL_Count Table3" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Readmission Rate Change Pct]" caption="Sum of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Mortality Rate Change Pct]" caption="Sum of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="24"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Readmission Rate Change Pct]" caption="Average of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Mortality Rate Change Pct]" caption="Average of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="24"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Project ID]" caption="Count of Project ID" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Documentation Completeness]" caption="Sum of Documentation Completeness" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="20"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Budget]" caption="Sum of Budget" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="16"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="17"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Change Pts]" caption="Sum of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="25"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Satisfaction Change Pts]" caption="Average of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="25"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Effort Hours]" caption="Sum of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="21"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Effort Hours]" caption="Average of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="21"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Change Requests]" caption="Sum of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="18"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Change Requests]" caption="Average of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="18"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Team Size]" caption="Sum of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Team Size]" caption="Average of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Percent Complete]" caption="Sum of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="15"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="15"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Status]" caption="Count of Status" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Tasks Total]" caption="Sum of Tasks Total" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="14"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Table3" uniqueName="[Table3]" caption="Table3"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Table3" caption="Table3"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.393073842592" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{699D74AF-2534-4233-923F-8807841D334C}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Table3].[Status].[Status]" caption="Status" numFmtId="0" hierarchy="6" level="1">
+      <sharedItems count="3">
+        <s v="Completed"/>
+        <s v="In Progress"/>
+        <s v="Not Started"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Count of Project ID]" caption="Count of Project ID" numFmtId="0" hierarchy="36" level="32767"/>
+    <cacheField name="[Table3].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="52">
+    <cacheHierarchy uniqueName="[Table3].[Project ID]" caption="Project ID" attribute="1" defaultMemberUniqueName="[Table3].[Project ID].[All]" allUniqueName="[Table3].[Project ID].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Table3].[Facility].[All]" allUniqueName="[Table3].[Facility].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Table3].[Region].[All]" allUniqueName="[Table3].[Region].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table3].[Project Type]" caption="Project Type" attribute="1" defaultMemberUniqueName="[Table3].[Project Type].[All]" allUniqueName="[Table3].[Project Type].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Priority]" caption="Priority" attribute="1" defaultMemberUniqueName="[Table3].[Priority].[All]" allUniqueName="[Table3].[Priority].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Table3].[Status].[All]" allUniqueName="[Table3].[Status].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table3].[PM Name]" caption="PM Name" attribute="1" defaultMemberUniqueName="[Table3].[PM Name].[All]" allUniqueName="[Table3].[PM Name].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[HER System]" caption="HER System" attribute="1" defaultMemberUniqueName="[Table3].[HER System].[All]" allUniqueName="[Table3].[HER System].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Start Date]" caption="Start Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[Start Date].[All]" allUniqueName="[Table3].[Start Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[End Date]" caption="End Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[End Date].[All]" allUniqueName="[Table3].[End Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Table3].[Month].[All]" allUniqueName="[Table3].[Month].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Duration Days]" caption="Duration Days" attribute="1" defaultMemberUniqueName="[Table3].[Duration Days].[All]" allUniqueName="[Table3].[Duration Days].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Tasks Completed]" caption="Tasks Completed" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Completed].[All]" allUniqueName="[Table3].[Tasks Completed].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Tasks Total]" caption="Tasks Total" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Total].[All]" allUniqueName="[Table3].[Tasks Total].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Percent Complete]" caption="Percent Complete" attribute="1" defaultMemberUniqueName="[Table3].[Percent Complete].[All]" allUniqueName="[Table3].[Percent Complete].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Budget]" caption="Budget" attribute="1" defaultMemberUniqueName="[Table3].[Budget].[All]" allUniqueName="[Table3].[Budget].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[Table3].[Cost].[All]" allUniqueName="[Table3].[Cost].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Change Requests]" caption="Change Requests" attribute="1" defaultMemberUniqueName="[Table3].[Change Requests].[All]" allUniqueName="[Table3].[Change Requests].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Scope Creep Score]" caption="Scope Creep Score" attribute="1" defaultMemberUniqueName="[Table3].[Scope Creep Score].[All]" allUniqueName="[Table3].[Scope Creep Score].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Documentation Completeness]" caption="Documentation Completeness" attribute="1" defaultMemberUniqueName="[Table3].[Documentation Completeness].[All]" allUniqueName="[Table3].[Documentation Completeness].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Effort Hours]" caption="Effort Hours" attribute="1" defaultMemberUniqueName="[Table3].[Effort Hours].[All]" allUniqueName="[Table3].[Effort Hours].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Team Size]" caption="Team Size" attribute="1" defaultMemberUniqueName="[Table3].[Team Size].[All]" allUniqueName="[Table3].[Team Size].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Readmission Rate Change Pct]" caption="Readmission Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Readmission Rate Change Pct].[All]" allUniqueName="[Table3].[Readmission Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Mortality Rate Change Pct]" caption="Mortality Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Mortality Rate Change Pct].[All]" allUniqueName="[Table3].[Mortality Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Satisfaction Change Pts]" caption="Satisfaction Change Pts" attribute="1" defaultMemberUniqueName="[Table3].[Satisfaction Change Pts].[All]" allUniqueName="[Table3].[Satisfaction Change Pts].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[StartDate (Month)]" caption="StartDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month)].[All]" allUniqueName="[Table3].[StartDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[EndDate (Month)]" caption="EndDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month)].[All]" allUniqueName="[Table3].[EndDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[EndDate (Month Index)]" caption="EndDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month Index)].[All]" allUniqueName="[Table3].[EndDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Table3].[StartDate (Month Index)]" caption="StartDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month Index)].[All]" allUniqueName="[Table3].[StartDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table3]" caption="__XL_Count Table3" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Readmission Rate Change Pct]" caption="Sum of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Mortality Rate Change Pct]" caption="Sum of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="24"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Readmission Rate Change Pct]" caption="Average of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Mortality Rate Change Pct]" caption="Average of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="24"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Project ID]" caption="Count of Project ID" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Documentation Completeness]" caption="Sum of Documentation Completeness" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="20"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Budget]" caption="Sum of Budget" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="16"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="17"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Change Pts]" caption="Sum of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="25"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Satisfaction Change Pts]" caption="Average of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="25"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Effort Hours]" caption="Sum of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="21"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Effort Hours]" caption="Average of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="21"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Change Requests]" caption="Sum of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="18"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Change Requests]" caption="Average of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="18"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Team Size]" caption="Sum of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Team Size]" caption="Average of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Percent Complete]" caption="Sum of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="15"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="15"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Status]" caption="Count of Status" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Tasks Total]" caption="Sum of Tasks Total" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="14"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Table3" uniqueName="[Table3]" caption="Table3"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Table3" caption="Table3"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.332901620372" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{CC191E6C-C9D6-4F97-B92F-94C6AF6C0E1F}">
+  <cacheSource type="external" connectionId="1">
+    <extLst>
+      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
+        <x14:sourceConnection name="ThisWorkbookDataModel"/>
+      </ext>
+    </extLst>
+  </cacheSource>
+  <cacheFields count="0"/>
+  <cacheHierarchies count="52">
+    <cacheHierarchy uniqueName="[Table3].[Project ID]" caption="Project ID" attribute="1" defaultMemberUniqueName="[Table3].[Project ID].[All]" allUniqueName="[Table3].[Project ID].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Table3].[Facility].[All]" allUniqueName="[Table3].[Facility].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Table3].[Region].[All]" allUniqueName="[Table3].[Region].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Project Type]" caption="Project Type" attribute="1" defaultMemberUniqueName="[Table3].[Project Type].[All]" allUniqueName="[Table3].[Project Type].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Priority]" caption="Priority" attribute="1" defaultMemberUniqueName="[Table3].[Priority].[All]" allUniqueName="[Table3].[Priority].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Table3].[Status].[All]" allUniqueName="[Table3].[Status].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[PM Name]" caption="PM Name" attribute="1" defaultMemberUniqueName="[Table3].[PM Name].[All]" allUniqueName="[Table3].[PM Name].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[HER System]" caption="HER System" attribute="1" defaultMemberUniqueName="[Table3].[HER System].[All]" allUniqueName="[Table3].[HER System].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Start Date]" caption="Start Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[Start Date].[All]" allUniqueName="[Table3].[Start Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[End Date]" caption="End Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[End Date].[All]" allUniqueName="[Table3].[End Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Table3].[Month].[All]" allUniqueName="[Table3].[Month].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Duration Days]" caption="Duration Days" attribute="1" defaultMemberUniqueName="[Table3].[Duration Days].[All]" allUniqueName="[Table3].[Duration Days].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Tasks Completed]" caption="Tasks Completed" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Completed].[All]" allUniqueName="[Table3].[Tasks Completed].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Tasks Total]" caption="Tasks Total" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Total].[All]" allUniqueName="[Table3].[Tasks Total].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Percent Complete]" caption="Percent Complete" attribute="1" defaultMemberUniqueName="[Table3].[Percent Complete].[All]" allUniqueName="[Table3].[Percent Complete].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Budget]" caption="Budget" attribute="1" defaultMemberUniqueName="[Table3].[Budget].[All]" allUniqueName="[Table3].[Budget].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[Table3].[Cost].[All]" allUniqueName="[Table3].[Cost].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Change Requests]" caption="Change Requests" attribute="1" defaultMemberUniqueName="[Table3].[Change Requests].[All]" allUniqueName="[Table3].[Change Requests].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Scope Creep Score]" caption="Scope Creep Score" attribute="1" defaultMemberUniqueName="[Table3].[Scope Creep Score].[All]" allUniqueName="[Table3].[Scope Creep Score].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Documentation Completeness]" caption="Documentation Completeness" attribute="1" defaultMemberUniqueName="[Table3].[Documentation Completeness].[All]" allUniqueName="[Table3].[Documentation Completeness].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Effort Hours]" caption="Effort Hours" attribute="1" defaultMemberUniqueName="[Table3].[Effort Hours].[All]" allUniqueName="[Table3].[Effort Hours].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Team Size]" caption="Team Size" attribute="1" defaultMemberUniqueName="[Table3].[Team Size].[All]" allUniqueName="[Table3].[Team Size].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Readmission Rate Change Pct]" caption="Readmission Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Readmission Rate Change Pct].[All]" allUniqueName="[Table3].[Readmission Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Mortality Rate Change Pct]" caption="Mortality Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Mortality Rate Change Pct].[All]" allUniqueName="[Table3].[Mortality Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Satisfaction Change Pts]" caption="Satisfaction Change Pts" attribute="1" defaultMemberUniqueName="[Table3].[Satisfaction Change Pts].[All]" allUniqueName="[Table3].[Satisfaction Change Pts].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[StartDate (Month)]" caption="StartDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month)].[All]" allUniqueName="[Table3].[StartDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[EndDate (Month)]" caption="EndDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month)].[All]" allUniqueName="[Table3].[EndDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[EndDate (Month Index)]" caption="EndDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month Index)].[All]" allUniqueName="[Table3].[EndDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Table3].[StartDate (Month Index)]" caption="StartDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month Index)].[All]" allUniqueName="[Table3].[StartDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table3]" caption="__XL_Count Table3" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Readmission Rate Change Pct]" caption="Sum of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Mortality Rate Change Pct]" caption="Sum of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="24"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Readmission Rate Change Pct]" caption="Average of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Mortality Rate Change Pct]" caption="Average of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="24"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Project ID]" caption="Count of Project ID" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Documentation Completeness]" caption="Sum of Documentation Completeness" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="20"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Budget]" caption="Sum of Budget" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="16"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="17"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Change Pts]" caption="Sum of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="25"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Satisfaction Change Pts]" caption="Average of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="25"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Effort Hours]" caption="Sum of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="21"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Effort Hours]" caption="Average of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="21"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Change Requests]" caption="Sum of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="18"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Change Requests]" caption="Average of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="18"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Team Size]" caption="Sum of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Team Size]" caption="Average of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Percent Complete]" caption="Sum of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="15"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="15"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Status]" caption="Count of Status" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Tasks Total]" caption="Sum of Tasks Total" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="14"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="2132673250" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.393013773151" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{DEB35250-9F92-47B0-B6D6-540AB1CD5F84}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
     <cacheField name="[Table3].[Project Type].[Project Type]" caption="Project Type" numFmtId="0" hierarchy="4" level="1">
       <sharedItems count="8">
         <s v="Cybersecurity Hardening"/>
@@ -16037,12 +16894,20 @@
         <s v="Not Started"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="[Table3].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
   </cacheFields>
   <cacheHierarchies count="52">
     <cacheHierarchy uniqueName="[Table3].[Project ID]" caption="Project ID" attribute="1" defaultMemberUniqueName="[Table3].[Project ID].[All]" allUniqueName="[Table3].[Project ID].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Table3].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Table3].[Facility].[All]" allUniqueName="[Table3].[Facility].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Table3].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Table3].[Region].[All]" allUniqueName="[Table3].[Region].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Table3].[Project Type]" caption="Project Type" attribute="1" defaultMemberUniqueName="[Table3].[Project Type].[All]" allUniqueName="[Table3].[Project Type].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
@@ -16244,35 +17109,41 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.332947800925" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{61F83278-9098-4756-83BD-305AD9CF1730}">
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.393014699075" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EE21D0B9-4C3E-43FD-9563-D68DACE80F58}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
-    <cacheField name="[Table3].[Project Type].[Project Type]" caption="Project Type" numFmtId="0" hierarchy="4" level="1">
-      <sharedItems count="8">
-        <s v="Cybersecurity Hardening"/>
-        <s v="EHR Upgrade"/>
-        <s v="Equipment Procurement"/>
-        <s v="New Wing Construction"/>
-        <s v="Process Automation"/>
-        <s v="Quality Improvement"/>
-        <s v="Regulatory Compliance"/>
-        <s v="Telehealth Rollout"/>
+  <cacheFields count="3">
+    <cacheField name="[Table3].[Region].[Region]" caption="Region" numFmtId="0" hierarchy="2" level="1">
+      <sharedItems count="6">
+        <s v="Alexandria"/>
+        <s v="Greater Cairo"/>
+        <s v="Nile Delta"/>
+        <s v="Red Sea"/>
+        <s v="Sinai"/>
+        <s v="Upper Egypt"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" numFmtId="0" hierarchy="49" level="32767"/>
+    <cacheField name="[Measures].[Count of Project ID]" caption="Count of Project ID" numFmtId="0" hierarchy="36" level="32767"/>
+    <cacheField name="[Table3].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
   </cacheFields>
   <cacheHierarchies count="52">
     <cacheHierarchy uniqueName="[Table3].[Project ID]" caption="Project ID" attribute="1" defaultMemberUniqueName="[Table3].[Project ID].[All]" allUniqueName="[Table3].[Project ID].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Table3].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Table3].[Facility].[All]" allUniqueName="[Table3].[Facility].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Table3].[Region].[All]" allUniqueName="[Table3].[Region].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Project Type]" caption="Project Type" attribute="1" defaultMemberUniqueName="[Table3].[Project Type].[All]" allUniqueName="[Table3].[Project Type].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+    <cacheHierarchy uniqueName="[Table3].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Table3].[Region].[All]" allUniqueName="[Table3].[Region].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table3].[Project Type]" caption="Project Type" attribute="1" defaultMemberUniqueName="[Table3].[Project Type].[All]" allUniqueName="[Table3].[Project Type].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Table3].[Priority]" caption="Priority" attribute="1" defaultMemberUniqueName="[Table3].[Priority].[All]" allUniqueName="[Table3].[Priority].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Table3].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Table3].[Status].[All]" allUniqueName="[Table3].[Status].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Table3].[PM Name]" caption="PM Name" attribute="1" defaultMemberUniqueName="[Table3].[PM Name].[All]" allUniqueName="[Table3].[PM Name].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -16322,6 +17193,457 @@
       </extLst>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Average of Mortality Rate Change Pct]" caption="Average of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="24"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Project ID]" caption="Count of Project ID" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Documentation Completeness]" caption="Sum of Documentation Completeness" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="20"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Budget]" caption="Sum of Budget" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="16"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="17"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Change Pts]" caption="Sum of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="25"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Satisfaction Change Pts]" caption="Average of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="25"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Effort Hours]" caption="Sum of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="21"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Effort Hours]" caption="Average of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="21"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Change Requests]" caption="Sum of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="18"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Change Requests]" caption="Average of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="18"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Team Size]" caption="Sum of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Team Size]" caption="Average of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Percent Complete]" caption="Sum of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="15"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="15"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Status]" caption="Count of Status" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Tasks Total]" caption="Sum of Tasks Total" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="14"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Table3" uniqueName="[Table3]" caption="Table3"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Table3" caption="Table3"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.39301550926" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{225C5CB2-F5B5-4B44-9434-9F2C89D08BC1}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Table3].[Status].[Status]" caption="Status" numFmtId="0" hierarchy="6" level="1">
+      <sharedItems count="3">
+        <s v="Completed"/>
+        <s v="In Progress"/>
+        <s v="Not Started"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Count of Project ID]" caption="Count of Project ID" numFmtId="0" hierarchy="36" level="32767"/>
+    <cacheField name="[Table3].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="52">
+    <cacheHierarchy uniqueName="[Table3].[Project ID]" caption="Project ID" attribute="1" defaultMemberUniqueName="[Table3].[Project ID].[All]" allUniqueName="[Table3].[Project ID].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Table3].[Facility].[All]" allUniqueName="[Table3].[Facility].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Table3].[Region].[All]" allUniqueName="[Table3].[Region].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table3].[Project Type]" caption="Project Type" attribute="1" defaultMemberUniqueName="[Table3].[Project Type].[All]" allUniqueName="[Table3].[Project Type].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Priority]" caption="Priority" attribute="1" defaultMemberUniqueName="[Table3].[Priority].[All]" allUniqueName="[Table3].[Priority].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Table3].[Status].[All]" allUniqueName="[Table3].[Status].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table3].[PM Name]" caption="PM Name" attribute="1" defaultMemberUniqueName="[Table3].[PM Name].[All]" allUniqueName="[Table3].[PM Name].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[HER System]" caption="HER System" attribute="1" defaultMemberUniqueName="[Table3].[HER System].[All]" allUniqueName="[Table3].[HER System].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Start Date]" caption="Start Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[Start Date].[All]" allUniqueName="[Table3].[Start Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[End Date]" caption="End Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[End Date].[All]" allUniqueName="[Table3].[End Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Table3].[Month].[All]" allUniqueName="[Table3].[Month].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Duration Days]" caption="Duration Days" attribute="1" defaultMemberUniqueName="[Table3].[Duration Days].[All]" allUniqueName="[Table3].[Duration Days].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Tasks Completed]" caption="Tasks Completed" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Completed].[All]" allUniqueName="[Table3].[Tasks Completed].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Tasks Total]" caption="Tasks Total" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Total].[All]" allUniqueName="[Table3].[Tasks Total].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Percent Complete]" caption="Percent Complete" attribute="1" defaultMemberUniqueName="[Table3].[Percent Complete].[All]" allUniqueName="[Table3].[Percent Complete].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Budget]" caption="Budget" attribute="1" defaultMemberUniqueName="[Table3].[Budget].[All]" allUniqueName="[Table3].[Budget].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[Table3].[Cost].[All]" allUniqueName="[Table3].[Cost].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Change Requests]" caption="Change Requests" attribute="1" defaultMemberUniqueName="[Table3].[Change Requests].[All]" allUniqueName="[Table3].[Change Requests].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Scope Creep Score]" caption="Scope Creep Score" attribute="1" defaultMemberUniqueName="[Table3].[Scope Creep Score].[All]" allUniqueName="[Table3].[Scope Creep Score].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Documentation Completeness]" caption="Documentation Completeness" attribute="1" defaultMemberUniqueName="[Table3].[Documentation Completeness].[All]" allUniqueName="[Table3].[Documentation Completeness].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Effort Hours]" caption="Effort Hours" attribute="1" defaultMemberUniqueName="[Table3].[Effort Hours].[All]" allUniqueName="[Table3].[Effort Hours].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Team Size]" caption="Team Size" attribute="1" defaultMemberUniqueName="[Table3].[Team Size].[All]" allUniqueName="[Table3].[Team Size].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Readmission Rate Change Pct]" caption="Readmission Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Readmission Rate Change Pct].[All]" allUniqueName="[Table3].[Readmission Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Mortality Rate Change Pct]" caption="Mortality Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Mortality Rate Change Pct].[All]" allUniqueName="[Table3].[Mortality Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Satisfaction Change Pts]" caption="Satisfaction Change Pts" attribute="1" defaultMemberUniqueName="[Table3].[Satisfaction Change Pts].[All]" allUniqueName="[Table3].[Satisfaction Change Pts].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[StartDate (Month)]" caption="StartDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month)].[All]" allUniqueName="[Table3].[StartDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[EndDate (Month)]" caption="EndDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month)].[All]" allUniqueName="[Table3].[EndDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[EndDate (Month Index)]" caption="EndDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month Index)].[All]" allUniqueName="[Table3].[EndDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Table3].[StartDate (Month Index)]" caption="StartDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month Index)].[All]" allUniqueName="[Table3].[StartDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table3]" caption="__XL_Count Table3" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Readmission Rate Change Pct]" caption="Sum of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Mortality Rate Change Pct]" caption="Sum of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="24"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Readmission Rate Change Pct]" caption="Average of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Mortality Rate Change Pct]" caption="Average of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="24"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Project ID]" caption="Count of Project ID" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Documentation Completeness]" caption="Sum of Documentation Completeness" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="20"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Budget]" caption="Sum of Budget" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="16"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="17"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Change Pts]" caption="Sum of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="25"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Satisfaction Change Pts]" caption="Average of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="25"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Effort Hours]" caption="Sum of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="21"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Effort Hours]" caption="Average of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="21"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Change Requests]" caption="Sum of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="18"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Change Requests]" caption="Average of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="18"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Team Size]" caption="Sum of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Team Size]" caption="Average of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Percent Complete]" caption="Sum of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="15"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="15"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Status]" caption="Count of Status" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Tasks Total]" caption="Sum of Tasks Total" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="14"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Table3" uniqueName="[Table3]" caption="Table3"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Table3" caption="Table3"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.393017013892" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{25CF7299-83A1-4C03-9C61-75957B73CB69}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="4">
+    <cacheField name="[Table3].[Month].[Month]" caption="Month" numFmtId="0" hierarchy="11" level="1">
+      <sharedItems count="3">
+        <s v="February"/>
+        <s v="January"/>
+        <s v="March"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Average of Readmission Rate Change Pct]" caption="Average of Readmission Rate Change Pct" numFmtId="0" hierarchy="34" level="32767"/>
+    <cacheField name="[Measures].[Average of Mortality Rate Change Pct]" caption="Average of Mortality Rate Change Pct" numFmtId="0" hierarchy="35" level="32767"/>
+    <cacheField name="[Table3].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="52">
+    <cacheHierarchy uniqueName="[Table3].[Project ID]" caption="Project ID" attribute="1" defaultMemberUniqueName="[Table3].[Project ID].[All]" allUniqueName="[Table3].[Project ID].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Table3].[Facility].[All]" allUniqueName="[Table3].[Facility].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Table3].[Region].[All]" allUniqueName="[Table3].[Region].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table3].[Project Type]" caption="Project Type" attribute="1" defaultMemberUniqueName="[Table3].[Project Type].[All]" allUniqueName="[Table3].[Project Type].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Priority]" caption="Priority" attribute="1" defaultMemberUniqueName="[Table3].[Priority].[All]" allUniqueName="[Table3].[Priority].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Table3].[Status].[All]" allUniqueName="[Table3].[Status].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[PM Name]" caption="PM Name" attribute="1" defaultMemberUniqueName="[Table3].[PM Name].[All]" allUniqueName="[Table3].[PM Name].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[HER System]" caption="HER System" attribute="1" defaultMemberUniqueName="[Table3].[HER System].[All]" allUniqueName="[Table3].[HER System].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Start Date]" caption="Start Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[Start Date].[All]" allUniqueName="[Table3].[Start Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[End Date]" caption="End Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[End Date].[All]" allUniqueName="[Table3].[End Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Table3].[Month].[All]" allUniqueName="[Table3].[Month].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table3].[Duration Days]" caption="Duration Days" attribute="1" defaultMemberUniqueName="[Table3].[Duration Days].[All]" allUniqueName="[Table3].[Duration Days].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Tasks Completed]" caption="Tasks Completed" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Completed].[All]" allUniqueName="[Table3].[Tasks Completed].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Tasks Total]" caption="Tasks Total" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Total].[All]" allUniqueName="[Table3].[Tasks Total].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Percent Complete]" caption="Percent Complete" attribute="1" defaultMemberUniqueName="[Table3].[Percent Complete].[All]" allUniqueName="[Table3].[Percent Complete].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Budget]" caption="Budget" attribute="1" defaultMemberUniqueName="[Table3].[Budget].[All]" allUniqueName="[Table3].[Budget].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[Table3].[Cost].[All]" allUniqueName="[Table3].[Cost].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Change Requests]" caption="Change Requests" attribute="1" defaultMemberUniqueName="[Table3].[Change Requests].[All]" allUniqueName="[Table3].[Change Requests].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Scope Creep Score]" caption="Scope Creep Score" attribute="1" defaultMemberUniqueName="[Table3].[Scope Creep Score].[All]" allUniqueName="[Table3].[Scope Creep Score].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Documentation Completeness]" caption="Documentation Completeness" attribute="1" defaultMemberUniqueName="[Table3].[Documentation Completeness].[All]" allUniqueName="[Table3].[Documentation Completeness].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Effort Hours]" caption="Effort Hours" attribute="1" defaultMemberUniqueName="[Table3].[Effort Hours].[All]" allUniqueName="[Table3].[Effort Hours].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Team Size]" caption="Team Size" attribute="1" defaultMemberUniqueName="[Table3].[Team Size].[All]" allUniqueName="[Table3].[Team Size].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Readmission Rate Change Pct]" caption="Readmission Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Readmission Rate Change Pct].[All]" allUniqueName="[Table3].[Readmission Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Mortality Rate Change Pct]" caption="Mortality Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Mortality Rate Change Pct].[All]" allUniqueName="[Table3].[Mortality Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Satisfaction Change Pts]" caption="Satisfaction Change Pts" attribute="1" defaultMemberUniqueName="[Table3].[Satisfaction Change Pts].[All]" allUniqueName="[Table3].[Satisfaction Change Pts].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[StartDate (Month)]" caption="StartDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month)].[All]" allUniqueName="[Table3].[StartDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[EndDate (Month)]" caption="EndDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month)].[All]" allUniqueName="[Table3].[EndDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[EndDate (Month Index)]" caption="EndDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month Index)].[All]" allUniqueName="[Table3].[EndDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Table3].[StartDate (Month Index)]" caption="StartDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month Index)].[All]" allUniqueName="[Table3].[StartDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table3]" caption="__XL_Count Table3" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Readmission Rate Change Pct]" caption="Sum of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Mortality Rate Change Pct]" caption="Sum of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="24"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Readmission Rate Change Pct]" caption="Average of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Mortality Rate Change Pct]" caption="Average of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
           <x15:cacheHierarchy aggregatedColumn="24"/>
@@ -16419,10 +17741,7 @@
         </ext>
       </extLst>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
+    <cacheHierarchy uniqueName="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
           <x15:cacheHierarchy aggregatedColumn="15"/>
@@ -16463,8 +17782,459 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.333531828706" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{9B598D65-5BF6-41FE-A0AE-5401D91A1286}">
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.393017708331" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{4151B331-4F71-48AD-A68F-539099845C7D}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Table3].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems count="13">
+        <s v="Cardiology"/>
+        <s v="Emergency"/>
+        <s v="ICU"/>
+        <s v="Infectious Disease"/>
+        <s v="Internal Medicine"/>
+        <s v="OB/GYN"/>
+        <s v="Oncology"/>
+        <s v="Orthopedics"/>
+        <s v="Outpatient"/>
+        <s v="Pediatrics"/>
+        <s v="Pharmacy"/>
+        <s v="Radiology"/>
+        <s v="Surgery"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Sum of Budget]" caption="Sum of Budget" numFmtId="0" hierarchy="38" level="32767"/>
+    <cacheField name="[Measures].[Sum of Cost]" caption="Sum of Cost" numFmtId="0" hierarchy="39" level="32767"/>
+  </cacheFields>
+  <cacheHierarchies count="52">
+    <cacheHierarchy uniqueName="[Table3].[Project ID]" caption="Project ID" attribute="1" defaultMemberUniqueName="[Table3].[Project ID].[All]" allUniqueName="[Table3].[Project ID].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Table3].[Facility].[All]" allUniqueName="[Table3].[Facility].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Table3].[Region].[All]" allUniqueName="[Table3].[Region].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table3].[Project Type]" caption="Project Type" attribute="1" defaultMemberUniqueName="[Table3].[Project Type].[All]" allUniqueName="[Table3].[Project Type].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Priority]" caption="Priority" attribute="1" defaultMemberUniqueName="[Table3].[Priority].[All]" allUniqueName="[Table3].[Priority].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Table3].[Status].[All]" allUniqueName="[Table3].[Status].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[PM Name]" caption="PM Name" attribute="1" defaultMemberUniqueName="[Table3].[PM Name].[All]" allUniqueName="[Table3].[PM Name].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[HER System]" caption="HER System" attribute="1" defaultMemberUniqueName="[Table3].[HER System].[All]" allUniqueName="[Table3].[HER System].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Start Date]" caption="Start Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[Start Date].[All]" allUniqueName="[Table3].[Start Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[End Date]" caption="End Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[End Date].[All]" allUniqueName="[Table3].[End Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Table3].[Month].[All]" allUniqueName="[Table3].[Month].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Duration Days]" caption="Duration Days" attribute="1" defaultMemberUniqueName="[Table3].[Duration Days].[All]" allUniqueName="[Table3].[Duration Days].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Tasks Completed]" caption="Tasks Completed" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Completed].[All]" allUniqueName="[Table3].[Tasks Completed].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Tasks Total]" caption="Tasks Total" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Total].[All]" allUniqueName="[Table3].[Tasks Total].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Percent Complete]" caption="Percent Complete" attribute="1" defaultMemberUniqueName="[Table3].[Percent Complete].[All]" allUniqueName="[Table3].[Percent Complete].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Budget]" caption="Budget" attribute="1" defaultMemberUniqueName="[Table3].[Budget].[All]" allUniqueName="[Table3].[Budget].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[Table3].[Cost].[All]" allUniqueName="[Table3].[Cost].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Change Requests]" caption="Change Requests" attribute="1" defaultMemberUniqueName="[Table3].[Change Requests].[All]" allUniqueName="[Table3].[Change Requests].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Scope Creep Score]" caption="Scope Creep Score" attribute="1" defaultMemberUniqueName="[Table3].[Scope Creep Score].[All]" allUniqueName="[Table3].[Scope Creep Score].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Documentation Completeness]" caption="Documentation Completeness" attribute="1" defaultMemberUniqueName="[Table3].[Documentation Completeness].[All]" allUniqueName="[Table3].[Documentation Completeness].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Effort Hours]" caption="Effort Hours" attribute="1" defaultMemberUniqueName="[Table3].[Effort Hours].[All]" allUniqueName="[Table3].[Effort Hours].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Team Size]" caption="Team Size" attribute="1" defaultMemberUniqueName="[Table3].[Team Size].[All]" allUniqueName="[Table3].[Team Size].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Readmission Rate Change Pct]" caption="Readmission Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Readmission Rate Change Pct].[All]" allUniqueName="[Table3].[Readmission Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Mortality Rate Change Pct]" caption="Mortality Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Mortality Rate Change Pct].[All]" allUniqueName="[Table3].[Mortality Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Satisfaction Change Pts]" caption="Satisfaction Change Pts" attribute="1" defaultMemberUniqueName="[Table3].[Satisfaction Change Pts].[All]" allUniqueName="[Table3].[Satisfaction Change Pts].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[StartDate (Month)]" caption="StartDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month)].[All]" allUniqueName="[Table3].[StartDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[EndDate (Month)]" caption="EndDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month)].[All]" allUniqueName="[Table3].[EndDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[EndDate (Month Index)]" caption="EndDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month Index)].[All]" allUniqueName="[Table3].[EndDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Table3].[StartDate (Month Index)]" caption="StartDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month Index)].[All]" allUniqueName="[Table3].[StartDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table3]" caption="__XL_Count Table3" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Readmission Rate Change Pct]" caption="Sum of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Mortality Rate Change Pct]" caption="Sum of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="24"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Readmission Rate Change Pct]" caption="Average of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Mortality Rate Change Pct]" caption="Average of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="24"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Project ID]" caption="Count of Project ID" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Documentation Completeness]" caption="Sum of Documentation Completeness" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="20"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Budget]" caption="Sum of Budget" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="16"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="17"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Change Pts]" caption="Sum of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="25"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Satisfaction Change Pts]" caption="Average of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="25"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Effort Hours]" caption="Sum of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="21"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Effort Hours]" caption="Average of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="21"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Change Requests]" caption="Sum of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="18"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Change Requests]" caption="Average of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="18"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Team Size]" caption="Sum of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Team Size]" caption="Average of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Percent Complete]" caption="Sum of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="15"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="15"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Status]" caption="Count of Status" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Tasks Total]" caption="Sum of Tasks Total" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="14"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Table3" uniqueName="[Table3]" caption="Table3"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Table3" caption="Table3"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.393019212963" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{9359278D-0370-4272-92FC-8A86D20D26F5}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="3">
+    <cacheField name="[Table3].[Priority].[Priority]" caption="Priority" numFmtId="0" hierarchy="5" level="1">
+      <sharedItems count="4">
+        <s v="Critical"/>
+        <s v="High"/>
+        <s v="Low"/>
+        <s v="Medium"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Count of Project ID]" caption="Count of Project ID" numFmtId="0" hierarchy="36" level="32767"/>
+    <cacheField name="[Table3].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="3" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="52">
+    <cacheHierarchy uniqueName="[Table3].[Project ID]" caption="Project ID" attribute="1" defaultMemberUniqueName="[Table3].[Project ID].[All]" allUniqueName="[Table3].[Project ID].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Table3].[Facility].[All]" allUniqueName="[Table3].[Facility].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Table3].[Region].[All]" allUniqueName="[Table3].[Region].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table3].[Project Type]" caption="Project Type" attribute="1" defaultMemberUniqueName="[Table3].[Project Type].[All]" allUniqueName="[Table3].[Project Type].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Priority]" caption="Priority" attribute="1" defaultMemberUniqueName="[Table3].[Priority].[All]" allUniqueName="[Table3].[Priority].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Table3].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Table3].[Status].[All]" allUniqueName="[Table3].[Status].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[PM Name]" caption="PM Name" attribute="1" defaultMemberUniqueName="[Table3].[PM Name].[All]" allUniqueName="[Table3].[PM Name].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[HER System]" caption="HER System" attribute="1" defaultMemberUniqueName="[Table3].[HER System].[All]" allUniqueName="[Table3].[HER System].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Start Date]" caption="Start Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[Start Date].[All]" allUniqueName="[Table3].[Start Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[End Date]" caption="End Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[End Date].[All]" allUniqueName="[Table3].[End Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Table3].[Month].[All]" allUniqueName="[Table3].[Month].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Duration Days]" caption="Duration Days" attribute="1" defaultMemberUniqueName="[Table3].[Duration Days].[All]" allUniqueName="[Table3].[Duration Days].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Tasks Completed]" caption="Tasks Completed" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Completed].[All]" allUniqueName="[Table3].[Tasks Completed].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Tasks Total]" caption="Tasks Total" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Total].[All]" allUniqueName="[Table3].[Tasks Total].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Percent Complete]" caption="Percent Complete" attribute="1" defaultMemberUniqueName="[Table3].[Percent Complete].[All]" allUniqueName="[Table3].[Percent Complete].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Budget]" caption="Budget" attribute="1" defaultMemberUniqueName="[Table3].[Budget].[All]" allUniqueName="[Table3].[Budget].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[Table3].[Cost].[All]" allUniqueName="[Table3].[Cost].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Change Requests]" caption="Change Requests" attribute="1" defaultMemberUniqueName="[Table3].[Change Requests].[All]" allUniqueName="[Table3].[Change Requests].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Scope Creep Score]" caption="Scope Creep Score" attribute="1" defaultMemberUniqueName="[Table3].[Scope Creep Score].[All]" allUniqueName="[Table3].[Scope Creep Score].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Documentation Completeness]" caption="Documentation Completeness" attribute="1" defaultMemberUniqueName="[Table3].[Documentation Completeness].[All]" allUniqueName="[Table3].[Documentation Completeness].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Effort Hours]" caption="Effort Hours" attribute="1" defaultMemberUniqueName="[Table3].[Effort Hours].[All]" allUniqueName="[Table3].[Effort Hours].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Team Size]" caption="Team Size" attribute="1" defaultMemberUniqueName="[Table3].[Team Size].[All]" allUniqueName="[Table3].[Team Size].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Readmission Rate Change Pct]" caption="Readmission Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Readmission Rate Change Pct].[All]" allUniqueName="[Table3].[Readmission Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Mortality Rate Change Pct]" caption="Mortality Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Mortality Rate Change Pct].[All]" allUniqueName="[Table3].[Mortality Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[Satisfaction Change Pts]" caption="Satisfaction Change Pts" attribute="1" defaultMemberUniqueName="[Table3].[Satisfaction Change Pts].[All]" allUniqueName="[Table3].[Satisfaction Change Pts].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[StartDate (Month)]" caption="StartDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month)].[All]" allUniqueName="[Table3].[StartDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[EndDate (Month)]" caption="EndDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month)].[All]" allUniqueName="[Table3].[EndDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Table3].[EndDate (Month Index)]" caption="EndDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month Index)].[All]" allUniqueName="[Table3].[EndDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Table3].[StartDate (Month Index)]" caption="StartDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month Index)].[All]" allUniqueName="[Table3].[StartDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table3]" caption="__XL_Count Table3" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Readmission Rate Change Pct]" caption="Sum of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Mortality Rate Change Pct]" caption="Sum of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="24"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Readmission Rate Change Pct]" caption="Average of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="23"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Mortality Rate Change Pct]" caption="Average of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="24"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Project ID]" caption="Count of Project ID" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="0"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Documentation Completeness]" caption="Sum of Documentation Completeness" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="20"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Budget]" caption="Sum of Budget" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="16"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="17"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Change Pts]" caption="Sum of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="25"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Satisfaction Change Pts]" caption="Average of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="25"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Effort Hours]" caption="Sum of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="21"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Effort Hours]" caption="Average of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="21"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Change Requests]" caption="Sum of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="18"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Change Requests]" caption="Average of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="18"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Team Size]" caption="Sum of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Team Size]" caption="Average of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="22"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Percent Complete]" caption="Sum of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="15"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="15"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Count of Status]" caption="Count of Status" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="6"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Sum of Tasks Total]" caption="Sum of Tasks Total" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="14"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Table3" uniqueName="[Table3]" caption="Table3"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Table3" caption="Table3"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.393067013887" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{9B598D65-5BF6-41FE-A0AE-5401D91A1286}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="10">
     <cacheField name="[Table3].[Facility].[Facility]" caption="Facility" numFmtId="0" hierarchy="1" level="1">
@@ -17527,1103 +19297,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.332901620372" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{CC191E6C-C9D6-4F97-B92F-94C6AF6C0E1F}">
-  <cacheSource type="external" connectionId="1">
-    <extLst>
-      <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
-        <x14:sourceConnection name="ThisWorkbookDataModel"/>
-      </ext>
-    </extLst>
-  </cacheSource>
-  <cacheFields count="0"/>
-  <cacheHierarchies count="52">
-    <cacheHierarchy uniqueName="[Table3].[Project ID]" caption="Project ID" attribute="1" defaultMemberUniqueName="[Table3].[Project ID].[All]" allUniqueName="[Table3].[Project ID].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Table3].[Facility].[All]" allUniqueName="[Table3].[Facility].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Table3].[Region].[All]" allUniqueName="[Table3].[Region].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Project Type]" caption="Project Type" attribute="1" defaultMemberUniqueName="[Table3].[Project Type].[All]" allUniqueName="[Table3].[Project Type].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Priority]" caption="Priority" attribute="1" defaultMemberUniqueName="[Table3].[Priority].[All]" allUniqueName="[Table3].[Priority].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Table3].[Status].[All]" allUniqueName="[Table3].[Status].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[PM Name]" caption="PM Name" attribute="1" defaultMemberUniqueName="[Table3].[PM Name].[All]" allUniqueName="[Table3].[PM Name].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[HER System]" caption="HER System" attribute="1" defaultMemberUniqueName="[Table3].[HER System].[All]" allUniqueName="[Table3].[HER System].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Start Date]" caption="Start Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[Start Date].[All]" allUniqueName="[Table3].[Start Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[End Date]" caption="End Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[End Date].[All]" allUniqueName="[Table3].[End Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Table3].[Month].[All]" allUniqueName="[Table3].[Month].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Duration Days]" caption="Duration Days" attribute="1" defaultMemberUniqueName="[Table3].[Duration Days].[All]" allUniqueName="[Table3].[Duration Days].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Tasks Completed]" caption="Tasks Completed" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Completed].[All]" allUniqueName="[Table3].[Tasks Completed].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Tasks Total]" caption="Tasks Total" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Total].[All]" allUniqueName="[Table3].[Tasks Total].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Percent Complete]" caption="Percent Complete" attribute="1" defaultMemberUniqueName="[Table3].[Percent Complete].[All]" allUniqueName="[Table3].[Percent Complete].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Budget]" caption="Budget" attribute="1" defaultMemberUniqueName="[Table3].[Budget].[All]" allUniqueName="[Table3].[Budget].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[Table3].[Cost].[All]" allUniqueName="[Table3].[Cost].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Change Requests]" caption="Change Requests" attribute="1" defaultMemberUniqueName="[Table3].[Change Requests].[All]" allUniqueName="[Table3].[Change Requests].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Scope Creep Score]" caption="Scope Creep Score" attribute="1" defaultMemberUniqueName="[Table3].[Scope Creep Score].[All]" allUniqueName="[Table3].[Scope Creep Score].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Documentation Completeness]" caption="Documentation Completeness" attribute="1" defaultMemberUniqueName="[Table3].[Documentation Completeness].[All]" allUniqueName="[Table3].[Documentation Completeness].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Effort Hours]" caption="Effort Hours" attribute="1" defaultMemberUniqueName="[Table3].[Effort Hours].[All]" allUniqueName="[Table3].[Effort Hours].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Team Size]" caption="Team Size" attribute="1" defaultMemberUniqueName="[Table3].[Team Size].[All]" allUniqueName="[Table3].[Team Size].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Readmission Rate Change Pct]" caption="Readmission Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Readmission Rate Change Pct].[All]" allUniqueName="[Table3].[Readmission Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Mortality Rate Change Pct]" caption="Mortality Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Mortality Rate Change Pct].[All]" allUniqueName="[Table3].[Mortality Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Satisfaction Change Pts]" caption="Satisfaction Change Pts" attribute="1" defaultMemberUniqueName="[Table3].[Satisfaction Change Pts].[All]" allUniqueName="[Table3].[Satisfaction Change Pts].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[StartDate (Month)]" caption="StartDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month)].[All]" allUniqueName="[Table3].[StartDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[EndDate (Month)]" caption="EndDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month)].[All]" allUniqueName="[Table3].[EndDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[EndDate (Month Index)]" caption="EndDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month Index)].[All]" allUniqueName="[Table3].[EndDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Table3].[StartDate (Month Index)]" caption="StartDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month Index)].[All]" allUniqueName="[Table3].[StartDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table3]" caption="__XL_Count Table3" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Readmission Rate Change Pct]" caption="Sum of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="23"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Mortality Rate Change Pct]" caption="Sum of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="24"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Readmission Rate Change Pct]" caption="Average of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="23"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Mortality Rate Change Pct]" caption="Average of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="24"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of Project ID]" caption="Count of Project ID" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="0"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Documentation Completeness]" caption="Sum of Documentation Completeness" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="20"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Budget]" caption="Sum of Budget" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="16"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="17"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Change Pts]" caption="Sum of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="25"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Satisfaction Change Pts]" caption="Average of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="25"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Effort Hours]" caption="Sum of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="21"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Effort Hours]" caption="Average of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="21"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Change Requests]" caption="Sum of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="18"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Change Requests]" caption="Average of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="18"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Team Size]" caption="Sum of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="22"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Team Size]" caption="Average of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="22"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Percent Complete]" caption="Sum of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="15"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="15"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of Status]" caption="Count of Status" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="6"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Tasks Total]" caption="Sum of Tasks Total" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="14"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="2132673250" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.332902430557" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{EE21D0B9-4C3E-43FD-9563-D68DACE80F58}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Table3].[Region].[Region]" caption="Region" numFmtId="0" hierarchy="2" level="1">
-      <sharedItems count="6">
-        <s v="Alexandria"/>
-        <s v="Greater Cairo"/>
-        <s v="Nile Delta"/>
-        <s v="Red Sea"/>
-        <s v="Sinai"/>
-        <s v="Upper Egypt"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Count of Project ID]" caption="Count of Project ID" numFmtId="0" hierarchy="36" level="32767"/>
-    <cacheField name="[Table3].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="3" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="52">
-    <cacheHierarchy uniqueName="[Table3].[Project ID]" caption="Project ID" attribute="1" defaultMemberUniqueName="[Table3].[Project ID].[All]" allUniqueName="[Table3].[Project ID].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Table3].[Facility].[All]" allUniqueName="[Table3].[Facility].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Table3].[Region].[All]" allUniqueName="[Table3].[Region].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Table3].[Project Type]" caption="Project Type" attribute="1" defaultMemberUniqueName="[Table3].[Project Type].[All]" allUniqueName="[Table3].[Project Type].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Priority]" caption="Priority" attribute="1" defaultMemberUniqueName="[Table3].[Priority].[All]" allUniqueName="[Table3].[Priority].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Table3].[Status].[All]" allUniqueName="[Table3].[Status].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[PM Name]" caption="PM Name" attribute="1" defaultMemberUniqueName="[Table3].[PM Name].[All]" allUniqueName="[Table3].[PM Name].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[HER System]" caption="HER System" attribute="1" defaultMemberUniqueName="[Table3].[HER System].[All]" allUniqueName="[Table3].[HER System].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Start Date]" caption="Start Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[Start Date].[All]" allUniqueName="[Table3].[Start Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[End Date]" caption="End Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[End Date].[All]" allUniqueName="[Table3].[End Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Table3].[Month].[All]" allUniqueName="[Table3].[Month].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Duration Days]" caption="Duration Days" attribute="1" defaultMemberUniqueName="[Table3].[Duration Days].[All]" allUniqueName="[Table3].[Duration Days].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Tasks Completed]" caption="Tasks Completed" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Completed].[All]" allUniqueName="[Table3].[Tasks Completed].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Tasks Total]" caption="Tasks Total" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Total].[All]" allUniqueName="[Table3].[Tasks Total].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Percent Complete]" caption="Percent Complete" attribute="1" defaultMemberUniqueName="[Table3].[Percent Complete].[All]" allUniqueName="[Table3].[Percent Complete].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Budget]" caption="Budget" attribute="1" defaultMemberUniqueName="[Table3].[Budget].[All]" allUniqueName="[Table3].[Budget].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[Table3].[Cost].[All]" allUniqueName="[Table3].[Cost].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Change Requests]" caption="Change Requests" attribute="1" defaultMemberUniqueName="[Table3].[Change Requests].[All]" allUniqueName="[Table3].[Change Requests].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Scope Creep Score]" caption="Scope Creep Score" attribute="1" defaultMemberUniqueName="[Table3].[Scope Creep Score].[All]" allUniqueName="[Table3].[Scope Creep Score].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Documentation Completeness]" caption="Documentation Completeness" attribute="1" defaultMemberUniqueName="[Table3].[Documentation Completeness].[All]" allUniqueName="[Table3].[Documentation Completeness].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Effort Hours]" caption="Effort Hours" attribute="1" defaultMemberUniqueName="[Table3].[Effort Hours].[All]" allUniqueName="[Table3].[Effort Hours].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Team Size]" caption="Team Size" attribute="1" defaultMemberUniqueName="[Table3].[Team Size].[All]" allUniqueName="[Table3].[Team Size].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Readmission Rate Change Pct]" caption="Readmission Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Readmission Rate Change Pct].[All]" allUniqueName="[Table3].[Readmission Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Mortality Rate Change Pct]" caption="Mortality Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Mortality Rate Change Pct].[All]" allUniqueName="[Table3].[Mortality Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Satisfaction Change Pts]" caption="Satisfaction Change Pts" attribute="1" defaultMemberUniqueName="[Table3].[Satisfaction Change Pts].[All]" allUniqueName="[Table3].[Satisfaction Change Pts].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[StartDate (Month)]" caption="StartDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month)].[All]" allUniqueName="[Table3].[StartDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[EndDate (Month)]" caption="EndDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month)].[All]" allUniqueName="[Table3].[EndDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[EndDate (Month Index)]" caption="EndDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month Index)].[All]" allUniqueName="[Table3].[EndDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Table3].[StartDate (Month Index)]" caption="StartDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month Index)].[All]" allUniqueName="[Table3].[StartDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table3]" caption="__XL_Count Table3" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Readmission Rate Change Pct]" caption="Sum of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="23"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Mortality Rate Change Pct]" caption="Sum of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="24"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Readmission Rate Change Pct]" caption="Average of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="23"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Mortality Rate Change Pct]" caption="Average of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="24"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of Project ID]" caption="Count of Project ID" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="0"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Documentation Completeness]" caption="Sum of Documentation Completeness" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="20"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Budget]" caption="Sum of Budget" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="16"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="17"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Change Pts]" caption="Sum of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="25"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Satisfaction Change Pts]" caption="Average of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="25"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Effort Hours]" caption="Sum of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="21"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Effort Hours]" caption="Average of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="21"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Change Requests]" caption="Sum of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="18"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Change Requests]" caption="Average of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="18"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Team Size]" caption="Sum of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="22"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Team Size]" caption="Average of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="22"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Percent Complete]" caption="Sum of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="15"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="15"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of Status]" caption="Count of Status" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="6"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Tasks Total]" caption="Sum of Tasks Total" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="14"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="2">
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Table3" uniqueName="[Table3]" caption="Table3"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Table3" caption="Table3"/>
-  </measureGroups>
-  <maps count="1">
-    <map measureGroup="0" dimension="1"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.332903356481" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{25CF7299-83A1-4C03-9C61-75957B73CB69}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="4">
-    <cacheField name="[Table3].[Month].[Month]" caption="Month" numFmtId="0" hierarchy="11" level="1">
-      <sharedItems count="3">
-        <s v="February"/>
-        <s v="January"/>
-        <s v="March"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Average of Readmission Rate Change Pct]" caption="Average of Readmission Rate Change Pct" numFmtId="0" hierarchy="34" level="32767"/>
-    <cacheField name="[Measures].[Average of Mortality Rate Change Pct]" caption="Average of Mortality Rate Change Pct" numFmtId="0" hierarchy="35" level="32767"/>
-    <cacheField name="[Table3].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="3" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="52">
-    <cacheHierarchy uniqueName="[Table3].[Project ID]" caption="Project ID" attribute="1" defaultMemberUniqueName="[Table3].[Project ID].[All]" allUniqueName="[Table3].[Project ID].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Table3].[Facility].[All]" allUniqueName="[Table3].[Facility].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Table3].[Region].[All]" allUniqueName="[Table3].[Region].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Table3].[Project Type]" caption="Project Type" attribute="1" defaultMemberUniqueName="[Table3].[Project Type].[All]" allUniqueName="[Table3].[Project Type].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Priority]" caption="Priority" attribute="1" defaultMemberUniqueName="[Table3].[Priority].[All]" allUniqueName="[Table3].[Priority].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Table3].[Status].[All]" allUniqueName="[Table3].[Status].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[PM Name]" caption="PM Name" attribute="1" defaultMemberUniqueName="[Table3].[PM Name].[All]" allUniqueName="[Table3].[PM Name].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[HER System]" caption="HER System" attribute="1" defaultMemberUniqueName="[Table3].[HER System].[All]" allUniqueName="[Table3].[HER System].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Start Date]" caption="Start Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[Start Date].[All]" allUniqueName="[Table3].[Start Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[End Date]" caption="End Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[End Date].[All]" allUniqueName="[Table3].[End Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Table3].[Month].[All]" allUniqueName="[Table3].[Month].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Table3].[Duration Days]" caption="Duration Days" attribute="1" defaultMemberUniqueName="[Table3].[Duration Days].[All]" allUniqueName="[Table3].[Duration Days].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Tasks Completed]" caption="Tasks Completed" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Completed].[All]" allUniqueName="[Table3].[Tasks Completed].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Tasks Total]" caption="Tasks Total" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Total].[All]" allUniqueName="[Table3].[Tasks Total].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Percent Complete]" caption="Percent Complete" attribute="1" defaultMemberUniqueName="[Table3].[Percent Complete].[All]" allUniqueName="[Table3].[Percent Complete].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Budget]" caption="Budget" attribute="1" defaultMemberUniqueName="[Table3].[Budget].[All]" allUniqueName="[Table3].[Budget].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[Table3].[Cost].[All]" allUniqueName="[Table3].[Cost].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Change Requests]" caption="Change Requests" attribute="1" defaultMemberUniqueName="[Table3].[Change Requests].[All]" allUniqueName="[Table3].[Change Requests].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Scope Creep Score]" caption="Scope Creep Score" attribute="1" defaultMemberUniqueName="[Table3].[Scope Creep Score].[All]" allUniqueName="[Table3].[Scope Creep Score].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Documentation Completeness]" caption="Documentation Completeness" attribute="1" defaultMemberUniqueName="[Table3].[Documentation Completeness].[All]" allUniqueName="[Table3].[Documentation Completeness].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Effort Hours]" caption="Effort Hours" attribute="1" defaultMemberUniqueName="[Table3].[Effort Hours].[All]" allUniqueName="[Table3].[Effort Hours].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Team Size]" caption="Team Size" attribute="1" defaultMemberUniqueName="[Table3].[Team Size].[All]" allUniqueName="[Table3].[Team Size].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Readmission Rate Change Pct]" caption="Readmission Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Readmission Rate Change Pct].[All]" allUniqueName="[Table3].[Readmission Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Mortality Rate Change Pct]" caption="Mortality Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Mortality Rate Change Pct].[All]" allUniqueName="[Table3].[Mortality Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Satisfaction Change Pts]" caption="Satisfaction Change Pts" attribute="1" defaultMemberUniqueName="[Table3].[Satisfaction Change Pts].[All]" allUniqueName="[Table3].[Satisfaction Change Pts].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[StartDate (Month)]" caption="StartDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month)].[All]" allUniqueName="[Table3].[StartDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[EndDate (Month)]" caption="EndDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month)].[All]" allUniqueName="[Table3].[EndDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[EndDate (Month Index)]" caption="EndDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month Index)].[All]" allUniqueName="[Table3].[EndDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Table3].[StartDate (Month Index)]" caption="StartDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month Index)].[All]" allUniqueName="[Table3].[StartDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table3]" caption="__XL_Count Table3" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Readmission Rate Change Pct]" caption="Sum of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="23"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Mortality Rate Change Pct]" caption="Sum of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="24"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Readmission Rate Change Pct]" caption="Average of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="23"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Mortality Rate Change Pct]" caption="Average of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="24"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of Project ID]" caption="Count of Project ID" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="0"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Documentation Completeness]" caption="Sum of Documentation Completeness" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="20"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Budget]" caption="Sum of Budget" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="16"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="17"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Change Pts]" caption="Sum of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="25"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Satisfaction Change Pts]" caption="Average of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="25"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Effort Hours]" caption="Sum of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="21"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Effort Hours]" caption="Average of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="21"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Change Requests]" caption="Sum of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="18"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Change Requests]" caption="Average of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="18"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Team Size]" caption="Sum of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="22"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Team Size]" caption="Average of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="22"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Percent Complete]" caption="Sum of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="15"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="15"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of Status]" caption="Count of Status" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="6"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Tasks Total]" caption="Sum of Tasks Total" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="14"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="2">
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Table3" uniqueName="[Table3]" caption="Table3"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Table3" caption="Table3"/>
-  </measureGroups>
-  <maps count="1">
-    <map measureGroup="0" dimension="1"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.33290439815" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{4151B331-4F71-48AD-A68F-539099845C7D}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Table3].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="3" level="1">
-      <sharedItems count="13">
-        <s v="Cardiology"/>
-        <s v="Emergency"/>
-        <s v="ICU"/>
-        <s v="Infectious Disease"/>
-        <s v="Internal Medicine"/>
-        <s v="OB/GYN"/>
-        <s v="Oncology"/>
-        <s v="Orthopedics"/>
-        <s v="Outpatient"/>
-        <s v="Pediatrics"/>
-        <s v="Pharmacy"/>
-        <s v="Radiology"/>
-        <s v="Surgery"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Sum of Budget]" caption="Sum of Budget" numFmtId="0" hierarchy="38" level="32767"/>
-    <cacheField name="[Measures].[Sum of Cost]" caption="Sum of Cost" numFmtId="0" hierarchy="39" level="32767"/>
-  </cacheFields>
-  <cacheHierarchies count="52">
-    <cacheHierarchy uniqueName="[Table3].[Project ID]" caption="Project ID" attribute="1" defaultMemberUniqueName="[Table3].[Project ID].[All]" allUniqueName="[Table3].[Project ID].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Table3].[Facility].[All]" allUniqueName="[Table3].[Facility].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Table3].[Region].[All]" allUniqueName="[Table3].[Region].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Table3].[Project Type]" caption="Project Type" attribute="1" defaultMemberUniqueName="[Table3].[Project Type].[All]" allUniqueName="[Table3].[Project Type].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Priority]" caption="Priority" attribute="1" defaultMemberUniqueName="[Table3].[Priority].[All]" allUniqueName="[Table3].[Priority].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Table3].[Status].[All]" allUniqueName="[Table3].[Status].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[PM Name]" caption="PM Name" attribute="1" defaultMemberUniqueName="[Table3].[PM Name].[All]" allUniqueName="[Table3].[PM Name].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[HER System]" caption="HER System" attribute="1" defaultMemberUniqueName="[Table3].[HER System].[All]" allUniqueName="[Table3].[HER System].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Start Date]" caption="Start Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[Start Date].[All]" allUniqueName="[Table3].[Start Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[End Date]" caption="End Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[End Date].[All]" allUniqueName="[Table3].[End Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Table3].[Month].[All]" allUniqueName="[Table3].[Month].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Duration Days]" caption="Duration Days" attribute="1" defaultMemberUniqueName="[Table3].[Duration Days].[All]" allUniqueName="[Table3].[Duration Days].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Tasks Completed]" caption="Tasks Completed" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Completed].[All]" allUniqueName="[Table3].[Tasks Completed].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Tasks Total]" caption="Tasks Total" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Total].[All]" allUniqueName="[Table3].[Tasks Total].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Percent Complete]" caption="Percent Complete" attribute="1" defaultMemberUniqueName="[Table3].[Percent Complete].[All]" allUniqueName="[Table3].[Percent Complete].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Budget]" caption="Budget" attribute="1" defaultMemberUniqueName="[Table3].[Budget].[All]" allUniqueName="[Table3].[Budget].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[Table3].[Cost].[All]" allUniqueName="[Table3].[Cost].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Change Requests]" caption="Change Requests" attribute="1" defaultMemberUniqueName="[Table3].[Change Requests].[All]" allUniqueName="[Table3].[Change Requests].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Scope Creep Score]" caption="Scope Creep Score" attribute="1" defaultMemberUniqueName="[Table3].[Scope Creep Score].[All]" allUniqueName="[Table3].[Scope Creep Score].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Documentation Completeness]" caption="Documentation Completeness" attribute="1" defaultMemberUniqueName="[Table3].[Documentation Completeness].[All]" allUniqueName="[Table3].[Documentation Completeness].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Effort Hours]" caption="Effort Hours" attribute="1" defaultMemberUniqueName="[Table3].[Effort Hours].[All]" allUniqueName="[Table3].[Effort Hours].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Team Size]" caption="Team Size" attribute="1" defaultMemberUniqueName="[Table3].[Team Size].[All]" allUniqueName="[Table3].[Team Size].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Readmission Rate Change Pct]" caption="Readmission Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Readmission Rate Change Pct].[All]" allUniqueName="[Table3].[Readmission Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Mortality Rate Change Pct]" caption="Mortality Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Mortality Rate Change Pct].[All]" allUniqueName="[Table3].[Mortality Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Satisfaction Change Pts]" caption="Satisfaction Change Pts" attribute="1" defaultMemberUniqueName="[Table3].[Satisfaction Change Pts].[All]" allUniqueName="[Table3].[Satisfaction Change Pts].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[StartDate (Month)]" caption="StartDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month)].[All]" allUniqueName="[Table3].[StartDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[EndDate (Month)]" caption="EndDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month)].[All]" allUniqueName="[Table3].[EndDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[EndDate (Month Index)]" caption="EndDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month Index)].[All]" allUniqueName="[Table3].[EndDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Table3].[StartDate (Month Index)]" caption="StartDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month Index)].[All]" allUniqueName="[Table3].[StartDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table3]" caption="__XL_Count Table3" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Readmission Rate Change Pct]" caption="Sum of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="23"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Mortality Rate Change Pct]" caption="Sum of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="24"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Readmission Rate Change Pct]" caption="Average of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="23"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Mortality Rate Change Pct]" caption="Average of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="24"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of Project ID]" caption="Count of Project ID" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="0"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Documentation Completeness]" caption="Sum of Documentation Completeness" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="20"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Budget]" caption="Sum of Budget" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="16"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="17"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Change Pts]" caption="Sum of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="25"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Satisfaction Change Pts]" caption="Average of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="25"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Effort Hours]" caption="Sum of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="21"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Effort Hours]" caption="Average of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="21"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Change Requests]" caption="Sum of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="18"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Change Requests]" caption="Average of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="18"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Team Size]" caption="Sum of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="22"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Team Size]" caption="Average of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="22"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Percent Complete]" caption="Sum of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="15"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="15"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of Status]" caption="Count of Status" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="6"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Tasks Total]" caption="Sum of Tasks Total" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="14"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="2">
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Table3" uniqueName="[Table3]" caption="Table3"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Table3" caption="Table3"/>
-  </measureGroups>
-  <maps count="1">
-    <map measureGroup="0" dimension="1"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.332905439813" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{9359278D-0370-4272-92FC-8A86D20D26F5}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Table3].[Priority].[Priority]" caption="Priority" numFmtId="0" hierarchy="5" level="1">
-      <sharedItems count="4">
-        <s v="Critical"/>
-        <s v="High"/>
-        <s v="Low"/>
-        <s v="Medium"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Count of Project ID]" caption="Count of Project ID" numFmtId="0" hierarchy="36" level="32767"/>
-    <cacheField name="[Table3].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="3" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="52">
-    <cacheHierarchy uniqueName="[Table3].[Project ID]" caption="Project ID" attribute="1" defaultMemberUniqueName="[Table3].[Project ID].[All]" allUniqueName="[Table3].[Project ID].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Table3].[Facility].[All]" allUniqueName="[Table3].[Facility].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Table3].[Region].[All]" allUniqueName="[Table3].[Region].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Table3].[Project Type]" caption="Project Type" attribute="1" defaultMemberUniqueName="[Table3].[Project Type].[All]" allUniqueName="[Table3].[Project Type].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Priority]" caption="Priority" attribute="1" defaultMemberUniqueName="[Table3].[Priority].[All]" allUniqueName="[Table3].[Priority].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Table3].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Table3].[Status].[All]" allUniqueName="[Table3].[Status].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[PM Name]" caption="PM Name" attribute="1" defaultMemberUniqueName="[Table3].[PM Name].[All]" allUniqueName="[Table3].[PM Name].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[HER System]" caption="HER System" attribute="1" defaultMemberUniqueName="[Table3].[HER System].[All]" allUniqueName="[Table3].[HER System].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Start Date]" caption="Start Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[Start Date].[All]" allUniqueName="[Table3].[Start Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[End Date]" caption="End Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[End Date].[All]" allUniqueName="[Table3].[End Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Table3].[Month].[All]" allUniqueName="[Table3].[Month].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Duration Days]" caption="Duration Days" attribute="1" defaultMemberUniqueName="[Table3].[Duration Days].[All]" allUniqueName="[Table3].[Duration Days].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Tasks Completed]" caption="Tasks Completed" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Completed].[All]" allUniqueName="[Table3].[Tasks Completed].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Tasks Total]" caption="Tasks Total" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Total].[All]" allUniqueName="[Table3].[Tasks Total].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Percent Complete]" caption="Percent Complete" attribute="1" defaultMemberUniqueName="[Table3].[Percent Complete].[All]" allUniqueName="[Table3].[Percent Complete].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Budget]" caption="Budget" attribute="1" defaultMemberUniqueName="[Table3].[Budget].[All]" allUniqueName="[Table3].[Budget].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[Table3].[Cost].[All]" allUniqueName="[Table3].[Cost].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Change Requests]" caption="Change Requests" attribute="1" defaultMemberUniqueName="[Table3].[Change Requests].[All]" allUniqueName="[Table3].[Change Requests].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Scope Creep Score]" caption="Scope Creep Score" attribute="1" defaultMemberUniqueName="[Table3].[Scope Creep Score].[All]" allUniqueName="[Table3].[Scope Creep Score].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Documentation Completeness]" caption="Documentation Completeness" attribute="1" defaultMemberUniqueName="[Table3].[Documentation Completeness].[All]" allUniqueName="[Table3].[Documentation Completeness].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Effort Hours]" caption="Effort Hours" attribute="1" defaultMemberUniqueName="[Table3].[Effort Hours].[All]" allUniqueName="[Table3].[Effort Hours].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Team Size]" caption="Team Size" attribute="1" defaultMemberUniqueName="[Table3].[Team Size].[All]" allUniqueName="[Table3].[Team Size].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Readmission Rate Change Pct]" caption="Readmission Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Readmission Rate Change Pct].[All]" allUniqueName="[Table3].[Readmission Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Mortality Rate Change Pct]" caption="Mortality Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Mortality Rate Change Pct].[All]" allUniqueName="[Table3].[Mortality Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Satisfaction Change Pts]" caption="Satisfaction Change Pts" attribute="1" defaultMemberUniqueName="[Table3].[Satisfaction Change Pts].[All]" allUniqueName="[Table3].[Satisfaction Change Pts].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[StartDate (Month)]" caption="StartDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month)].[All]" allUniqueName="[Table3].[StartDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[EndDate (Month)]" caption="EndDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month)].[All]" allUniqueName="[Table3].[EndDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[EndDate (Month Index)]" caption="EndDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month Index)].[All]" allUniqueName="[Table3].[EndDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Table3].[StartDate (Month Index)]" caption="StartDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month Index)].[All]" allUniqueName="[Table3].[StartDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table3]" caption="__XL_Count Table3" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Readmission Rate Change Pct]" caption="Sum of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="23"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Mortality Rate Change Pct]" caption="Sum of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="24"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Readmission Rate Change Pct]" caption="Average of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="23"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Mortality Rate Change Pct]" caption="Average of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="24"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of Project ID]" caption="Count of Project ID" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="0"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Documentation Completeness]" caption="Sum of Documentation Completeness" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="20"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Budget]" caption="Sum of Budget" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="16"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="17"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Change Pts]" caption="Sum of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="25"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Satisfaction Change Pts]" caption="Average of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="25"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Effort Hours]" caption="Sum of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="21"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Effort Hours]" caption="Average of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="21"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Change Requests]" caption="Sum of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="18"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Change Requests]" caption="Average of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="18"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Team Size]" caption="Sum of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="22"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Team Size]" caption="Average of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="22"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Percent Complete]" caption="Sum of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="15"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="15"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of Status]" caption="Count of Status" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="6"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Tasks Total]" caption="Sum of Tasks Total" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="14"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="2">
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Table3" uniqueName="[Table3]" caption="Table3"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Table3" caption="Table3"/>
-  </measureGroups>
-  <maps count="1">
-    <map measureGroup="0" dimension="1"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.33294270833" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{F2AC840E-595D-4FD3-BEC9-D0EFA4DC6877}">
+<file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.393069791666" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{F2AC840E-595D-4FD3-BEC9-D0EFA4DC6877}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="5">
     <cacheField name="[Measures].[Average of Satisfaction Change Pts]" caption="Average of Satisfaction Change Pts" numFmtId="0" hierarchy="41" level="32767"/>
@@ -18844,666 +19519,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.332943634261" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{60513BF7-A092-480A-9ACA-91D7334EEBBC}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Measures].[Sum of Budget]" caption="Sum of Budget" numFmtId="0" hierarchy="38" level="32767"/>
-    <cacheField name="[Measures].[Sum of Cost]" caption="Sum of Cost" numFmtId="0" hierarchy="39" level="32767"/>
-    <cacheField name="[Table3].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="3" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="52">
-    <cacheHierarchy uniqueName="[Table3].[Project ID]" caption="Project ID" attribute="1" defaultMemberUniqueName="[Table3].[Project ID].[All]" allUniqueName="[Table3].[Project ID].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Table3].[Facility].[All]" allUniqueName="[Table3].[Facility].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Table3].[Region].[All]" allUniqueName="[Table3].[Region].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Table3].[Project Type]" caption="Project Type" attribute="1" defaultMemberUniqueName="[Table3].[Project Type].[All]" allUniqueName="[Table3].[Project Type].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Priority]" caption="Priority" attribute="1" defaultMemberUniqueName="[Table3].[Priority].[All]" allUniqueName="[Table3].[Priority].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Table3].[Status].[All]" allUniqueName="[Table3].[Status].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[PM Name]" caption="PM Name" attribute="1" defaultMemberUniqueName="[Table3].[PM Name].[All]" allUniqueName="[Table3].[PM Name].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[HER System]" caption="HER System" attribute="1" defaultMemberUniqueName="[Table3].[HER System].[All]" allUniqueName="[Table3].[HER System].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Start Date]" caption="Start Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[Start Date].[All]" allUniqueName="[Table3].[Start Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[End Date]" caption="End Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[End Date].[All]" allUniqueName="[Table3].[End Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Table3].[Month].[All]" allUniqueName="[Table3].[Month].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Duration Days]" caption="Duration Days" attribute="1" defaultMemberUniqueName="[Table3].[Duration Days].[All]" allUniqueName="[Table3].[Duration Days].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Tasks Completed]" caption="Tasks Completed" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Completed].[All]" allUniqueName="[Table3].[Tasks Completed].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Tasks Total]" caption="Tasks Total" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Total].[All]" allUniqueName="[Table3].[Tasks Total].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Percent Complete]" caption="Percent Complete" attribute="1" defaultMemberUniqueName="[Table3].[Percent Complete].[All]" allUniqueName="[Table3].[Percent Complete].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Budget]" caption="Budget" attribute="1" defaultMemberUniqueName="[Table3].[Budget].[All]" allUniqueName="[Table3].[Budget].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[Table3].[Cost].[All]" allUniqueName="[Table3].[Cost].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Change Requests]" caption="Change Requests" attribute="1" defaultMemberUniqueName="[Table3].[Change Requests].[All]" allUniqueName="[Table3].[Change Requests].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Scope Creep Score]" caption="Scope Creep Score" attribute="1" defaultMemberUniqueName="[Table3].[Scope Creep Score].[All]" allUniqueName="[Table3].[Scope Creep Score].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Documentation Completeness]" caption="Documentation Completeness" attribute="1" defaultMemberUniqueName="[Table3].[Documentation Completeness].[All]" allUniqueName="[Table3].[Documentation Completeness].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Effort Hours]" caption="Effort Hours" attribute="1" defaultMemberUniqueName="[Table3].[Effort Hours].[All]" allUniqueName="[Table3].[Effort Hours].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Team Size]" caption="Team Size" attribute="1" defaultMemberUniqueName="[Table3].[Team Size].[All]" allUniqueName="[Table3].[Team Size].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Readmission Rate Change Pct]" caption="Readmission Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Readmission Rate Change Pct].[All]" allUniqueName="[Table3].[Readmission Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Mortality Rate Change Pct]" caption="Mortality Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Mortality Rate Change Pct].[All]" allUniqueName="[Table3].[Mortality Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Satisfaction Change Pts]" caption="Satisfaction Change Pts" attribute="1" defaultMemberUniqueName="[Table3].[Satisfaction Change Pts].[All]" allUniqueName="[Table3].[Satisfaction Change Pts].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[StartDate (Month)]" caption="StartDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month)].[All]" allUniqueName="[Table3].[StartDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[EndDate (Month)]" caption="EndDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month)].[All]" allUniqueName="[Table3].[EndDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[EndDate (Month Index)]" caption="EndDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month Index)].[All]" allUniqueName="[Table3].[EndDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Table3].[StartDate (Month Index)]" caption="StartDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month Index)].[All]" allUniqueName="[Table3].[StartDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table3]" caption="__XL_Count Table3" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Readmission Rate Change Pct]" caption="Sum of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="23"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Mortality Rate Change Pct]" caption="Sum of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="24"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Readmission Rate Change Pct]" caption="Average of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="23"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Mortality Rate Change Pct]" caption="Average of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="24"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of Project ID]" caption="Count of Project ID" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="0"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Documentation Completeness]" caption="Sum of Documentation Completeness" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="20"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Budget]" caption="Sum of Budget" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="16"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="17"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Change Pts]" caption="Sum of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="25"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Satisfaction Change Pts]" caption="Average of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="25"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Effort Hours]" caption="Sum of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="21"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Effort Hours]" caption="Average of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="21"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Change Requests]" caption="Sum of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="18"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Change Requests]" caption="Average of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="18"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Team Size]" caption="Sum of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="22"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Team Size]" caption="Average of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="22"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Percent Complete]" caption="Sum of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="15"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="15"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of Status]" caption="Count of Status" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="6"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Tasks Total]" caption="Sum of Tasks Total" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="14"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="2">
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Table3" uniqueName="[Table3]" caption="Table3"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Table3" caption="Table3"/>
-  </measureGroups>
-  <maps count="1">
-    <map measureGroup="0" dimension="1"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.332944560185" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{699D74AF-2534-4233-923F-8807841D334C}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Table3].[Status].[Status]" caption="Status" numFmtId="0" hierarchy="6" level="1">
-      <sharedItems count="3">
-        <s v="Completed"/>
-        <s v="In Progress"/>
-        <s v="Not Started"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Count of Project ID]" caption="Count of Project ID" numFmtId="0" hierarchy="36" level="32767"/>
-    <cacheField name="[Table3].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="3" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="52">
-    <cacheHierarchy uniqueName="[Table3].[Project ID]" caption="Project ID" attribute="1" defaultMemberUniqueName="[Table3].[Project ID].[All]" allUniqueName="[Table3].[Project ID].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Table3].[Facility].[All]" allUniqueName="[Table3].[Facility].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Table3].[Region].[All]" allUniqueName="[Table3].[Region].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Table3].[Project Type]" caption="Project Type" attribute="1" defaultMemberUniqueName="[Table3].[Project Type].[All]" allUniqueName="[Table3].[Project Type].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Priority]" caption="Priority" attribute="1" defaultMemberUniqueName="[Table3].[Priority].[All]" allUniqueName="[Table3].[Priority].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Table3].[Status].[All]" allUniqueName="[Table3].[Status].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Table3].[PM Name]" caption="PM Name" attribute="1" defaultMemberUniqueName="[Table3].[PM Name].[All]" allUniqueName="[Table3].[PM Name].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[HER System]" caption="HER System" attribute="1" defaultMemberUniqueName="[Table3].[HER System].[All]" allUniqueName="[Table3].[HER System].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Start Date]" caption="Start Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[Start Date].[All]" allUniqueName="[Table3].[Start Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[End Date]" caption="End Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[End Date].[All]" allUniqueName="[Table3].[End Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Table3].[Month].[All]" allUniqueName="[Table3].[Month].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Duration Days]" caption="Duration Days" attribute="1" defaultMemberUniqueName="[Table3].[Duration Days].[All]" allUniqueName="[Table3].[Duration Days].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Tasks Completed]" caption="Tasks Completed" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Completed].[All]" allUniqueName="[Table3].[Tasks Completed].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Tasks Total]" caption="Tasks Total" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Total].[All]" allUniqueName="[Table3].[Tasks Total].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Percent Complete]" caption="Percent Complete" attribute="1" defaultMemberUniqueName="[Table3].[Percent Complete].[All]" allUniqueName="[Table3].[Percent Complete].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Budget]" caption="Budget" attribute="1" defaultMemberUniqueName="[Table3].[Budget].[All]" allUniqueName="[Table3].[Budget].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[Table3].[Cost].[All]" allUniqueName="[Table3].[Cost].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Change Requests]" caption="Change Requests" attribute="1" defaultMemberUniqueName="[Table3].[Change Requests].[All]" allUniqueName="[Table3].[Change Requests].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Scope Creep Score]" caption="Scope Creep Score" attribute="1" defaultMemberUniqueName="[Table3].[Scope Creep Score].[All]" allUniqueName="[Table3].[Scope Creep Score].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Documentation Completeness]" caption="Documentation Completeness" attribute="1" defaultMemberUniqueName="[Table3].[Documentation Completeness].[All]" allUniqueName="[Table3].[Documentation Completeness].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Effort Hours]" caption="Effort Hours" attribute="1" defaultMemberUniqueName="[Table3].[Effort Hours].[All]" allUniqueName="[Table3].[Effort Hours].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Team Size]" caption="Team Size" attribute="1" defaultMemberUniqueName="[Table3].[Team Size].[All]" allUniqueName="[Table3].[Team Size].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Readmission Rate Change Pct]" caption="Readmission Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Readmission Rate Change Pct].[All]" allUniqueName="[Table3].[Readmission Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Mortality Rate Change Pct]" caption="Mortality Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Mortality Rate Change Pct].[All]" allUniqueName="[Table3].[Mortality Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Satisfaction Change Pts]" caption="Satisfaction Change Pts" attribute="1" defaultMemberUniqueName="[Table3].[Satisfaction Change Pts].[All]" allUniqueName="[Table3].[Satisfaction Change Pts].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[StartDate (Month)]" caption="StartDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month)].[All]" allUniqueName="[Table3].[StartDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[EndDate (Month)]" caption="EndDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month)].[All]" allUniqueName="[Table3].[EndDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[EndDate (Month Index)]" caption="EndDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month Index)].[All]" allUniqueName="[Table3].[EndDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Table3].[StartDate (Month Index)]" caption="StartDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month Index)].[All]" allUniqueName="[Table3].[StartDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table3]" caption="__XL_Count Table3" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Readmission Rate Change Pct]" caption="Sum of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="23"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Mortality Rate Change Pct]" caption="Sum of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="24"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Readmission Rate Change Pct]" caption="Average of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="23"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Mortality Rate Change Pct]" caption="Average of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="24"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of Project ID]" caption="Count of Project ID" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="0"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Documentation Completeness]" caption="Sum of Documentation Completeness" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="20"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Budget]" caption="Sum of Budget" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="16"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="17"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Change Pts]" caption="Sum of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="25"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Satisfaction Change Pts]" caption="Average of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="25"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Effort Hours]" caption="Sum of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="21"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Effort Hours]" caption="Average of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="21"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Change Requests]" caption="Sum of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="18"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Change Requests]" caption="Average of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="18"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Team Size]" caption="Sum of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="22"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Team Size]" caption="Average of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="22"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Percent Complete]" caption="Sum of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="15"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="15"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of Status]" caption="Count of Status" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="6"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Tasks Total]" caption="Sum of Tasks Total" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="14"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="2">
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Table3" uniqueName="[Table3]" caption="Table3"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Table3" caption="Table3"/>
-  </measureGroups>
-  <maps count="1">
-    <map measureGroup="0" dimension="1"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="ELZAHBIA" refreshedDate="45903.33294537037" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{225C5CB2-F5B5-4B44-9434-9F2C89D08BC1}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Table3].[Status].[Status]" caption="Status" numFmtId="0" hierarchy="6" level="1">
-      <sharedItems count="3">
-        <s v="Completed"/>
-        <s v="In Progress"/>
-        <s v="Not Started"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Count of Project ID]" caption="Count of Project ID" numFmtId="0" hierarchy="36" level="32767"/>
-    <cacheField name="[Table3].[Department].[Department]" caption="Department" numFmtId="0" hierarchy="3" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="52">
-    <cacheHierarchy uniqueName="[Table3].[Project ID]" caption="Project ID" attribute="1" defaultMemberUniqueName="[Table3].[Project ID].[All]" allUniqueName="[Table3].[Project ID].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Facility]" caption="Facility" attribute="1" defaultMemberUniqueName="[Table3].[Facility].[All]" allUniqueName="[Table3].[Facility].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[Table3].[Region].[All]" allUniqueName="[Table3].[Region].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Department]" caption="Department" attribute="1" defaultMemberUniqueName="[Table3].[Department].[All]" allUniqueName="[Table3].[Department].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Table3].[Project Type]" caption="Project Type" attribute="1" defaultMemberUniqueName="[Table3].[Project Type].[All]" allUniqueName="[Table3].[Project Type].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Priority]" caption="Priority" attribute="1" defaultMemberUniqueName="[Table3].[Priority].[All]" allUniqueName="[Table3].[Priority].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Status]" caption="Status" attribute="1" defaultMemberUniqueName="[Table3].[Status].[All]" allUniqueName="[Table3].[Status].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Table3].[PM Name]" caption="PM Name" attribute="1" defaultMemberUniqueName="[Table3].[PM Name].[All]" allUniqueName="[Table3].[PM Name].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[HER System]" caption="HER System" attribute="1" defaultMemberUniqueName="[Table3].[HER System].[All]" allUniqueName="[Table3].[HER System].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Start Date]" caption="Start Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[Start Date].[All]" allUniqueName="[Table3].[Start Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[End Date]" caption="End Date" attribute="1" time="1" defaultMemberUniqueName="[Table3].[End Date].[All]" allUniqueName="[Table3].[End Date].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Table3].[Month].[All]" allUniqueName="[Table3].[Month].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Duration Days]" caption="Duration Days" attribute="1" defaultMemberUniqueName="[Table3].[Duration Days].[All]" allUniqueName="[Table3].[Duration Days].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Tasks Completed]" caption="Tasks Completed" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Completed].[All]" allUniqueName="[Table3].[Tasks Completed].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Tasks Total]" caption="Tasks Total" attribute="1" defaultMemberUniqueName="[Table3].[Tasks Total].[All]" allUniqueName="[Table3].[Tasks Total].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Percent Complete]" caption="Percent Complete" attribute="1" defaultMemberUniqueName="[Table3].[Percent Complete].[All]" allUniqueName="[Table3].[Percent Complete].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Budget]" caption="Budget" attribute="1" defaultMemberUniqueName="[Table3].[Budget].[All]" allUniqueName="[Table3].[Budget].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Cost]" caption="Cost" attribute="1" defaultMemberUniqueName="[Table3].[Cost].[All]" allUniqueName="[Table3].[Cost].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Change Requests]" caption="Change Requests" attribute="1" defaultMemberUniqueName="[Table3].[Change Requests].[All]" allUniqueName="[Table3].[Change Requests].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Scope Creep Score]" caption="Scope Creep Score" attribute="1" defaultMemberUniqueName="[Table3].[Scope Creep Score].[All]" allUniqueName="[Table3].[Scope Creep Score].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Documentation Completeness]" caption="Documentation Completeness" attribute="1" defaultMemberUniqueName="[Table3].[Documentation Completeness].[All]" allUniqueName="[Table3].[Documentation Completeness].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Effort Hours]" caption="Effort Hours" attribute="1" defaultMemberUniqueName="[Table3].[Effort Hours].[All]" allUniqueName="[Table3].[Effort Hours].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Team Size]" caption="Team Size" attribute="1" defaultMemberUniqueName="[Table3].[Team Size].[All]" allUniqueName="[Table3].[Team Size].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Readmission Rate Change Pct]" caption="Readmission Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Readmission Rate Change Pct].[All]" allUniqueName="[Table3].[Readmission Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Mortality Rate Change Pct]" caption="Mortality Rate Change Pct" attribute="1" defaultMemberUniqueName="[Table3].[Mortality Rate Change Pct].[All]" allUniqueName="[Table3].[Mortality Rate Change Pct].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[Satisfaction Change Pts]" caption="Satisfaction Change Pts" attribute="1" defaultMemberUniqueName="[Table3].[Satisfaction Change Pts].[All]" allUniqueName="[Table3].[Satisfaction Change Pts].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[StartDate (Month)]" caption="StartDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month)].[All]" allUniqueName="[Table3].[StartDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[EndDate (Month)]" caption="EndDate (Month)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month)].[All]" allUniqueName="[Table3].[EndDate (Month)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Table3].[EndDate (Month Index)]" caption="EndDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[EndDate (Month Index)].[All]" allUniqueName="[Table3].[EndDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Table3].[StartDate (Month Index)]" caption="StartDate (Month Index)" attribute="1" defaultMemberUniqueName="[Table3].[StartDate (Month Index)].[All]" allUniqueName="[Table3].[StartDate (Month Index)].[All]" dimensionUniqueName="[Table3]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Table3]" caption="__XL_Count Table3" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Readmission Rate Change Pct]" caption="Sum of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="23"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Mortality Rate Change Pct]" caption="Sum of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="24"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Readmission Rate Change Pct]" caption="Average of Readmission Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="23"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Mortality Rate Change Pct]" caption="Average of Mortality Rate Change Pct" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="24"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of Project ID]" caption="Count of Project ID" measure="1" displayFolder="" measureGroup="Table3" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="0"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Documentation Completeness]" caption="Sum of Documentation Completeness" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="20"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Budget]" caption="Sum of Budget" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="16"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Cost]" caption="Sum of Cost" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="17"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Satisfaction Change Pts]" caption="Sum of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="25"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Satisfaction Change Pts]" caption="Average of Satisfaction Change Pts" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="25"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Effort Hours]" caption="Sum of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="21"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Effort Hours]" caption="Average of Effort Hours" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="21"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Change Requests]" caption="Sum of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="18"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Change Requests]" caption="Average of Change Requests" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="18"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Team Size]" caption="Sum of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="22"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Team Size]" caption="Average of Team Size" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="22"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Percent Complete]" caption="Sum of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="15"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Average of Percent Complete]" caption="Average of Percent Complete" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="15"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Count of Status]" caption="Count of Status" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="6"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Sum of Tasks Total]" caption="Sum of Tasks Total" measure="1" displayFolder="" measureGroup="Table3" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="14"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="2">
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Table3" uniqueName="[Table3]" caption="Table3"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Table3" caption="Table3"/>
-  </measureGroups>
-  <maps count="1">
-    <map measureGroup="0" dimension="1"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A75398D-BB87-4B21-BF49-839449944AF1}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Status">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A75398D-BB87-4B21-BF49-839449944AF1}" name="PivotTable2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Status">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -19614,9 +19631,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51DBB10D-FBAD-4A8B-BDEC-F5A9A076BCFE}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Project Type">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51DBB10D-FBAD-4A8B-BDEC-F5A9A076BCFE}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Project Type">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
+  <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="8">
         <item x="0"/>
@@ -19639,6 +19656,7 @@
       </autoSortScope>
     </pivotField>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -19693,7 +19711,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -19764,9 +19782,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16BA8D7F-2255-4113-825A-9E6C9A48B401}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Project Type">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16BA8D7F-2255-4113-825A-9E6C9A48B401}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Project Type">
   <location ref="A3:E13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="3">
+  <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="8">
         <item x="0"/>
@@ -19799,6 +19817,7 @@
         <item x="2"/>
       </items>
     </pivotField>
+    <pivotField allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -19894,7 +19913,7 @@
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy multipleItemSelectionAllowed="1" dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -19968,7 +19987,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7802B440-3703-4C08-B6FD-46192655EE2A}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Department">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7802B440-3703-4C08-B6FD-46192655EE2A}" name="PivotTable3" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Department">
   <location ref="A3:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -20151,7 +20170,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5612F4C-F925-419D-93D3-4F180DAC93CA}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Priority">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5612F4C-F925-419D-93D3-4F180DAC93CA}" name="PivotTable4" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Priority">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -20325,7 +20344,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3250A453-270C-44E8-8A09-4227F7F7BBD7}" name="PivotTable21" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3250A453-270C-44E8-8A09-4227F7F7BBD7}" name="PivotTable21" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:J38" firstHeaderRow="1" firstDataRow="1" firstDataCol="10"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -26862,7 +26881,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54AD4DD0-265A-4C7F-B5F9-2F1502BA6D96}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Month">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54AD4DD0-265A-4C7F-B5F9-2F1502BA6D96}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Month">
   <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" nonAutoSortDefault="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -27018,7 +27037,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FDED2B6C-740C-4411-86C8-9190051FDAD9}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Region">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FDED2B6C-740C-4411-86C8-9190051FDAD9}" name="PivotTable3" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Region">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -27224,7 +27243,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1F6CB82-78F1-42A4-916A-9CA4E00E40E3}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1F6CB82-78F1-42A4-916A-9CA4E00E40E3}" name="PivotTable4" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -27366,7 +27385,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F02F9D11-6C4E-4156-AF68-454A1083CBB6}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F02F9D11-6C4E-4156-AF68-454A1083CBB6}" name="PivotTable1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -27504,7 +27523,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EF47661-9529-4FC1-B26E-76C7C971B226}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Status">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EF47661-9529-4FC1-B26E-76C7C971B226}" name="PivotTable2" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Status">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -27900,6 +27919,8 @@
     <pivotTable tabId="24" name="PivotTable4"/>
     <pivotTable tabId="25" name="PivotTable1"/>
     <pivotTable tabId="26" name="PivotTable2"/>
+    <pivotTable tabId="27" name="PivotTable1"/>
+    <pivotTable tabId="28" name="PivotTable2"/>
   </pivotTables>
   <data>
     <olap pivotCacheId="2132673250">
@@ -28612,7 +28633,7 @@
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="37">
         <v>17</v>
       </c>
     </row>
@@ -28620,7 +28641,7 @@
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="37">
         <v>157</v>
       </c>
     </row>
@@ -28628,7 +28649,7 @@
       <c r="A6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="37">
         <v>13</v>
       </c>
     </row>
@@ -28636,7 +28657,7 @@
       <c r="A7" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="37">
         <v>187</v>
       </c>
     </row>
@@ -28654,7 +28675,7 @@
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28679,19 +28700,19 @@
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="33">
+      <c r="G1" s="35">
         <f>AVERAGE(Data!V2:V188)</f>
         <v>768.41711229946509</v>
       </c>
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
-      <c r="J1" s="34">
+      <c r="J1" s="36">
         <f>AVERAGE(Data!Z165:Z188)</f>
         <v>2.8729166666666668</v>
       </c>
       <c r="K1" s="21"/>
       <c r="L1" s="13"/>
-      <c r="M1" s="34">
+      <c r="M1" s="36">
         <f>AVERAGE(Data!S2:S188)</f>
         <v>1.3529411764705883</v>
       </c>
@@ -28709,13 +28730,13 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
-      <c r="G2" s="33"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="34"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="14"/>
       <c r="L2" s="13"/>
-      <c r="M2" s="34"/>
+      <c r="M2" s="36"/>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
@@ -28730,12 +28751,12 @@
       <c r="D3" s="13"/>
       <c r="E3" s="26"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="34" t="s">
         <v>366</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="33" t="s">
         <v>362</v>
       </c>
       <c r="K3" s="27"/>
@@ -28766,6 +28787,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{6A0E6D77-8344-4C30-807C-1F21E68B3475}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Overview Dashboard'!V166:V189</xm:f>
+              <xm:sqref>I1</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{34E93F54-C7EC-430D-A8F3-4B69DA8D5B6C}">
           <x14:colorSeries theme="3" tint="0.34998626667073579"/>
           <x14:colorNegative theme="0" tint="-0.249977111117893"/>
@@ -28779,22 +28816,6 @@
             <x14:sparkline>
               <xm:f>'Overview Dashboard'!V2:V189</xm:f>
               <xm:sqref>H1</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{6A0E6D77-8344-4C30-807C-1F21E68B3475}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Overview Dashboard'!V166:V189</xm:f>
-              <xm:sqref>I1</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -28940,7 +28961,7 @@
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="37">
         <v>17</v>
       </c>
     </row>
@@ -28948,7 +28969,7 @@
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="37">
         <v>157</v>
       </c>
     </row>
@@ -28956,7 +28977,7 @@
       <c r="A6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="37">
         <v>13</v>
       </c>
     </row>
@@ -28964,7 +28985,7 @@
       <c r="A7" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="37">
         <v>187</v>
       </c>
     </row>
@@ -29119,13 +29140,14 @@
       <c r="A5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="37">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="37">
         <v>9</v>
       </c>
     </row>
@@ -29133,10 +29155,12 @@
       <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37">
         <v>11</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="37"/>
+      <c r="E6" s="37">
         <v>11</v>
       </c>
     </row>
@@ -29144,13 +29168,14 @@
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="37">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="37">
         <v>15</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="37"/>
+      <c r="E7" s="37">
         <v>18</v>
       </c>
     </row>
@@ -29158,16 +29183,16 @@
       <c r="A8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="37">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="37">
         <v>19</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="37">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="37">
         <v>22</v>
       </c>
     </row>
@@ -29175,16 +29200,16 @@
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="37">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="37">
         <v>19</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="37">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="37">
         <v>22</v>
       </c>
     </row>
@@ -29192,16 +29217,16 @@
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="37">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="37">
         <v>28</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="37">
         <v>3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="37">
         <v>35</v>
       </c>
     </row>
@@ -29209,16 +29234,16 @@
       <c r="A11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="37">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="37">
         <v>28</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="37">
         <v>4</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="37">
         <v>36</v>
       </c>
     </row>
@@ -29226,16 +29251,16 @@
       <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="37">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="37">
         <v>29</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="37">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="37">
         <v>34</v>
       </c>
     </row>
@@ -29243,16 +29268,16 @@
       <c r="A13" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="37">
         <v>17</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="37">
         <v>157</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="37">
         <v>13</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="37">
         <v>187</v>
       </c>
     </row>
@@ -44932,7 +44957,7 @@
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="37">
         <v>35</v>
       </c>
     </row>
@@ -44940,7 +44965,7 @@
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="37">
         <v>80</v>
       </c>
     </row>
@@ -44948,7 +44973,7 @@
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="37">
         <v>15</v>
       </c>
     </row>
@@ -44956,7 +44981,7 @@
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="37">
         <v>57</v>
       </c>
     </row>
@@ -44964,7 +44989,7 @@
       <c r="A8" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="37">
         <v>187</v>
       </c>
     </row>
@@ -48525,7 +48550,7 @@
       <c r="B7" s="11">
         <v>-0.49197860962566847</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="37">
         <v>-2.1090909090909091E-2</v>
       </c>
     </row>
@@ -50158,7 +50183,7 @@
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="37">
         <v>34</v>
       </c>
     </row>
@@ -50166,7 +50191,7 @@
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="37">
         <v>88</v>
       </c>
     </row>
@@ -50174,7 +50199,7 @@
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="37">
         <v>28</v>
       </c>
     </row>
@@ -50182,7 +50207,7 @@
       <c r="A7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="37">
         <v>5</v>
       </c>
     </row>
@@ -50190,7 +50215,7 @@
       <c r="A8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="37">
         <v>4</v>
       </c>
     </row>
@@ -50198,7 +50223,7 @@
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="37">
         <v>28</v>
       </c>
     </row>
@@ -50206,7 +50231,7 @@
       <c r="A10" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="37">
         <v>187</v>
       </c>
     </row>

--- a/EHR Project Management.xlsx
+++ b/EHR Project Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELZAHBIA\Desktop\Healthcare\EHR Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A920D17-4C8B-45B9-9A11-4E109D3AE11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA03200-AAC7-4948-9C42-788FA1831427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{02246CB4-0FB7-4852-9EAA-A27DC39A6FCF}"/>
   </bookViews>
@@ -35,23 +35,23 @@
     <definedName name="_xlchart.v1.1" hidden="1">'25'!$C$4:$C$190</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'25'!$D$3</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'25'!$D$4:$D$190</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Book1Table3" hidden="1">Table3[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Book1Table31" hidden="1">Table3[]</definedName>
     <definedName name="Slicer_Department">#N/A</definedName>
     <definedName name="Slicer_PM_Name">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId17"/>
-    <pivotCache cacheId="17" r:id="rId18"/>
-    <pivotCache cacheId="20" r:id="rId19"/>
-    <pivotCache cacheId="23" r:id="rId20"/>
-    <pivotCache cacheId="26" r:id="rId21"/>
-    <pivotCache cacheId="29" r:id="rId22"/>
-    <pivotCache cacheId="32" r:id="rId23"/>
-    <pivotCache cacheId="35" r:id="rId24"/>
-    <pivotCache cacheId="38" r:id="rId25"/>
-    <pivotCache cacheId="41" r:id="rId26"/>
-    <pivotCache cacheId="44" r:id="rId27"/>
+    <pivotCache cacheId="0" r:id="rId17"/>
+    <pivotCache cacheId="1" r:id="rId18"/>
+    <pivotCache cacheId="2" r:id="rId19"/>
+    <pivotCache cacheId="3" r:id="rId20"/>
+    <pivotCache cacheId="4" r:id="rId21"/>
+    <pivotCache cacheId="5" r:id="rId22"/>
+    <pivotCache cacheId="6" r:id="rId23"/>
+    <pivotCache cacheId="7" r:id="rId24"/>
+    <pivotCache cacheId="8" r:id="rId25"/>
+    <pivotCache cacheId="9" r:id="rId26"/>
+    <pivotCache cacheId="10" r:id="rId27"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
@@ -122,7 +122,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table3" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Book1Table3"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Book1Table31"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1374,7 +1374,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1456,13 +1456,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="0"/>
@@ -1472,15 +1465,7 @@
     </font>
     <font>
       <b/>
-      <sz val="28"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
+      <sz val="22"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1546,7 +1531,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1583,28 +1568,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="17"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="26"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="11"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="30"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -15467,8 +15455,8 @@
       <xdr:rowOff>14432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447386</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>129886</xdr:rowOff>
     </xdr:to>
@@ -15500,18 +15488,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>129885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>577273</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>562841</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>187613</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="15" name="Department">
@@ -15534,7 +15522,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -15544,8 +15532,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="88900" y="1066800"/>
-              <a:ext cx="16637000" cy="576072"/>
+              <a:off x="0" y="981362"/>
+              <a:ext cx="19526250" cy="620569"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15692,13 +15680,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>707159</xdr:colOff>
+      <xdr:colOff>591704</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>158749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>490680</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>100395</xdr:rowOff>
     </xdr:to>
@@ -15730,13 +15718,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>259772</xdr:colOff>
+      <xdr:colOff>1270000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>72159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>447387</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>259772</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>14431</xdr:rowOff>
     </xdr:to>
@@ -15753,8 +15741,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5671704" y="72159"/>
-          <a:ext cx="3405910" cy="923636"/>
+          <a:off x="6681932" y="72159"/>
+          <a:ext cx="3247158" cy="923636"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -15795,14 +15783,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>331931</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>736023</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>101024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57728</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>375228</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28864</xdr:rowOff>
     </xdr:to>
@@ -15819,8 +15807,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9539431" y="101024"/>
-          <a:ext cx="3564661" cy="909204"/>
+          <a:off x="10405341" y="101024"/>
+          <a:ext cx="3983182" cy="909204"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -15861,14 +15849,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>591703</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>750456</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>129886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>288635</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129886</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>14431</xdr:rowOff>
     </xdr:to>
@@ -15885,8 +15873,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13796817" y="129886"/>
-          <a:ext cx="4069773" cy="865909"/>
+          <a:off x="14763751" y="129886"/>
+          <a:ext cx="3550226" cy="865909"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -19520,7 +19508,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A75398D-BB87-4B21-BF49-839449944AF1}" name="PivotTable2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Status">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A75398D-BB87-4B21-BF49-839449944AF1}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Status">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -19631,7 +19619,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51DBB10D-FBAD-4A8B-BDEC-F5A9A076BCFE}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Project Type">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51DBB10D-FBAD-4A8B-BDEC-F5A9A076BCFE}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Project Type">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -19782,7 +19770,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16BA8D7F-2255-4113-825A-9E6C9A48B401}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Project Type">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{16BA8D7F-2255-4113-825A-9E6C9A48B401}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Project Type">
   <location ref="A3:E13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -19987,7 +19975,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7802B440-3703-4C08-B6FD-46192655EE2A}" name="PivotTable3" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Department">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7802B440-3703-4C08-B6FD-46192655EE2A}" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Department">
   <location ref="A3:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -20170,7 +20158,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5612F4C-F925-419D-93D3-4F180DAC93CA}" name="PivotTable4" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Priority">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5612F4C-F925-419D-93D3-4F180DAC93CA}" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Priority">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -20344,7 +20332,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3250A453-270C-44E8-8A09-4227F7F7BBD7}" name="PivotTable21" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3250A453-270C-44E8-8A09-4227F7F7BBD7}" name="PivotTable21" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:J38" firstHeaderRow="1" firstDataRow="1" firstDataCol="10"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -26881,7 +26869,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54AD4DD0-265A-4C7F-B5F9-2F1502BA6D96}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Month">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54AD4DD0-265A-4C7F-B5F9-2F1502BA6D96}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Month">
   <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" nonAutoSortDefault="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -27037,7 +27025,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FDED2B6C-740C-4411-86C8-9190051FDAD9}" name="PivotTable3" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Region">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FDED2B6C-740C-4411-86C8-9190051FDAD9}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Region">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -27243,7 +27231,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1F6CB82-78F1-42A4-916A-9CA4E00E40E3}" name="PivotTable4" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1F6CB82-78F1-42A4-916A-9CA4E00E40E3}" name="PivotTable4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -27385,7 +27373,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F02F9D11-6C4E-4156-AF68-454A1083CBB6}" name="PivotTable1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F02F9D11-6C4E-4156-AF68-454A1083CBB6}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -27523,7 +27511,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EF47661-9529-4FC1-B26E-76C7C971B226}" name="PivotTable2" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Status">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1EF47661-9529-4FC1-B26E-76C7C971B226}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Status">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -28633,7 +28621,7 @@
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4">
         <v>17</v>
       </c>
     </row>
@@ -28641,7 +28629,7 @@
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5">
         <v>157</v>
       </c>
     </row>
@@ -28649,7 +28637,7 @@
       <c r="A6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6">
         <v>13</v>
       </c>
     </row>
@@ -28657,7 +28645,7 @@
       <c r="A7" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7">
         <v>187</v>
       </c>
     </row>
@@ -28669,13 +28657,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E231C314-9EAF-49E6-AF1D-B4E84A0FF5A8}">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="3" tint="0.499984740745262"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28687,32 +28675,33 @@
     <col min="9" max="9" width="6.85546875" customWidth="1"/>
     <col min="10" max="10" width="50.5703125" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" customWidth="1"/>
-    <col min="13" max="13" width="45.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="35">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36">
         <f>AVERAGE(Data!V2:V188)</f>
         <v>768.41711229946509</v>
       </c>
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
-      <c r="J1" s="36">
+      <c r="J1" s="31">
         <f>AVERAGE(Data!Z165:Z188)</f>
         <v>2.8729166666666668</v>
       </c>
       <c r="K1" s="21"/>
       <c r="L1" s="13"/>
-      <c r="M1" s="36">
+      <c r="M1" s="30">
         <f>AVERAGE(Data!S2:S188)</f>
         <v>1.3529411764705883</v>
       </c>
@@ -28723,20 +28712,20 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="12"/>
     </row>
-    <row r="2" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="35"/>
+    <row r="2" spans="1:26" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="36"/>
+      <c r="J2" s="31"/>
       <c r="K2" s="14"/>
       <c r="L2" s="13"/>
-      <c r="M2" s="36"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
@@ -28744,24 +28733,24 @@
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
     </row>
-    <row r="3" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="13"/>
+    <row r="3" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
       <c r="G3" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="33" t="s">
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28" t="s">
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="33" t="s">
         <v>363</v>
       </c>
       <c r="N3" s="13"/>
@@ -28773,10 +28762,12 @@
     </row>
     <row r="4" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A1:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="7" orientation="portrait" r:id="rId1"/>
@@ -28787,6 +28778,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{34E93F54-C7EC-430D-A8F3-4B69DA8D5B6C}">
+          <x14:colorSeries theme="3" tint="0.34998626667073579"/>
+          <x14:colorNegative theme="0" tint="-0.249977111117893"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="0" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="0" tint="-0.249977111117893"/>
+          <x14:colorLast theme="0" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="0" tint="-0.249977111117893"/>
+          <x14:colorLow theme="0" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Overview Dashboard'!V2:V189</xm:f>
+              <xm:sqref>H1</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{6A0E6D77-8344-4C30-807C-1F21E68B3475}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -28800,22 +28807,6 @@
             <x14:sparkline>
               <xm:f>'Overview Dashboard'!V166:V189</xm:f>
               <xm:sqref>I1</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1" xr2:uid="{34E93F54-C7EC-430D-A8F3-4B69DA8D5B6C}">
-          <x14:colorSeries theme="3" tint="0.34998626667073579"/>
-          <x14:colorNegative theme="0" tint="-0.249977111117893"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="0" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="0" tint="-0.249977111117893"/>
-          <x14:colorLast theme="0" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="0" tint="-0.249977111117893"/>
-          <x14:colorLow theme="0" tint="-0.249977111117893"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Overview Dashboard'!V2:V189</xm:f>
-              <xm:sqref>H1</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -28961,7 +28952,7 @@
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4">
         <v>17</v>
       </c>
     </row>
@@ -28969,7 +28960,7 @@
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5">
         <v>157</v>
       </c>
     </row>
@@ -28977,7 +28968,7 @@
       <c r="A6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6">
         <v>13</v>
       </c>
     </row>
@@ -28985,7 +28976,7 @@
       <c r="A7" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7">
         <v>187</v>
       </c>
     </row>
@@ -29021,7 +29012,7 @@
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>0.33846354336699896</v>
       </c>
     </row>
@@ -29029,7 +29020,7 @@
       <c r="A5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="28">
         <v>0.35667425368512323</v>
       </c>
     </row>
@@ -29037,7 +29028,7 @@
       <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="28">
         <v>0.35714502168233553</v>
       </c>
     </row>
@@ -29045,7 +29036,7 @@
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="28">
         <v>0.39134930511137128</v>
       </c>
     </row>
@@ -29053,7 +29044,7 @@
       <c r="A8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="28">
         <v>0.40679987634045206</v>
       </c>
     </row>
@@ -29061,7 +29052,7 @@
       <c r="A9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <v>0.43258660743000937</v>
       </c>
     </row>
@@ -29069,7 +29060,7 @@
       <c r="A10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <v>0.45586485234466034</v>
       </c>
     </row>
@@ -29077,7 +29068,7 @@
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="28">
         <v>0.48295049927816297</v>
       </c>
     </row>
@@ -29085,7 +29076,7 @@
       <c r="A12" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="28">
         <v>0.40860179976625122</v>
       </c>
     </row>
@@ -29140,14 +29131,13 @@
       <c r="A5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37">
+      <c r="C5">
         <v>8</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5">
         <v>9</v>
       </c>
     </row>
@@ -29155,12 +29145,10 @@
       <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37">
+      <c r="C6">
         <v>11</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37">
+      <c r="E6">
         <v>11</v>
       </c>
     </row>
@@ -29168,14 +29156,13 @@
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7">
         <v>15</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37">
+      <c r="E7">
         <v>18</v>
       </c>
     </row>
@@ -29183,16 +29170,16 @@
       <c r="A8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8">
         <v>19</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8">
         <v>22</v>
       </c>
     </row>
@@ -29200,16 +29187,16 @@
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9">
         <v>19</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9">
         <v>22</v>
       </c>
     </row>
@@ -29217,16 +29204,16 @@
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10">
         <v>28</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10">
         <v>35</v>
       </c>
     </row>
@@ -29234,16 +29221,16 @@
       <c r="A11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11">
         <v>28</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11">
         <v>36</v>
       </c>
     </row>
@@ -29251,16 +29238,16 @@
       <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12">
         <v>29</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12">
         <v>34</v>
       </c>
     </row>
@@ -29268,16 +29255,16 @@
       <c r="A13" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13">
         <v>17</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13">
         <v>157</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13">
         <v>13</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13">
         <v>187</v>
       </c>
     </row>
@@ -44957,7 +44944,7 @@
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4">
         <v>35</v>
       </c>
     </row>
@@ -44965,7 +44952,7 @@
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5">
         <v>80</v>
       </c>
     </row>
@@ -44973,7 +44960,7 @@
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6">
         <v>15</v>
       </c>
     </row>
@@ -44981,7 +44968,7 @@
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7">
         <v>57</v>
       </c>
     </row>
@@ -44989,7 +44976,7 @@
       <c r="A8" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8">
         <v>187</v>
       </c>
     </row>
@@ -45000,6 +44987,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3302FAA6-9CA4-4EF8-8A1D-C79043466FC3}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:L774"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -45042,34 +45032,34 @@
       <c r="L1" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="29" t="s">
         <v>376</v>
       </c>
       <c r="L3"/>
@@ -48550,7 +48540,7 @@
       <c r="B7" s="11">
         <v>-0.49197860962566847</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7">
         <v>-2.1090909090909091E-2</v>
       </c>
     </row>
@@ -50183,7 +50173,7 @@
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4">
         <v>34</v>
       </c>
     </row>
@@ -50191,7 +50181,7 @@
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5">
         <v>88</v>
       </c>
     </row>
@@ -50199,7 +50189,7 @@
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6">
         <v>28</v>
       </c>
     </row>
@@ -50207,7 +50197,7 @@
       <c r="A7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7">
         <v>5</v>
       </c>
     </row>
@@ -50215,7 +50205,7 @@
       <c r="A8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8">
         <v>4</v>
       </c>
     </row>
@@ -50223,7 +50213,7 @@
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9">
         <v>28</v>
       </c>
     </row>
@@ -50231,7 +50221,7 @@
       <c r="A10" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10">
         <v>187</v>
       </c>
     </row>
